--- a/Predictions/timestamps_typical_cnn.xlsx
+++ b/Predictions/timestamps_typical_cnn.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>9.863834381103516</v>
+        <v>10.58762454986572</v>
       </c>
       <c r="B2" t="n">
-        <v>9.183389663696289</v>
+        <v>9.029220581054688</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.239908218383789</v>
+        <v>-3.660881996154785</v>
       </c>
       <c r="D2" t="n">
-        <v>-3.990214586257935</v>
+        <v>-2.675552368164062</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.025199890136719</v>
+        <v>-7.598991870880127</v>
       </c>
       <c r="F2" t="n">
-        <v>-6.24118709564209</v>
+        <v>-6.09625768661499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.4859447479248</v>
+        <v>12.22090625762939</v>
       </c>
       <c r="B3" t="n">
-        <v>10.04076671600342</v>
+        <v>9.897224426269531</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.4638704061508179</v>
+        <v>0.8710131645202637</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5245423913002014</v>
+        <v>0.9994770884513855</v>
       </c>
       <c r="E3" t="n">
-        <v>-8.193053245544434</v>
+        <v>-9.376116752624512</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.287721633911133</v>
+        <v>-7.302779197692871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11.9865894317627</v>
+        <v>12.74870681762695</v>
       </c>
       <c r="B4" t="n">
-        <v>10.1544017791748</v>
+        <v>10.01728439331055</v>
       </c>
       <c r="C4" t="n">
-        <v>2.169205904006958</v>
+        <v>3.712676763534546</v>
       </c>
       <c r="D4" t="n">
-        <v>1.639231085777283</v>
+        <v>2.931587219238281</v>
       </c>
       <c r="E4" t="n">
-        <v>-7.518424987792969</v>
+        <v>-8.69036865234375</v>
       </c>
       <c r="F4" t="n">
-        <v>-7.095817565917969</v>
+        <v>-7.584668159484863</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.95904636383057</v>
+        <v>11.51430988311768</v>
       </c>
       <c r="B5" t="n">
-        <v>9.231739044189453</v>
+        <v>8.705565452575684</v>
       </c>
       <c r="C5" t="n">
-        <v>3.106852769851685</v>
+        <v>4.433753490447998</v>
       </c>
       <c r="D5" t="n">
-        <v>2.547865152359009</v>
+        <v>3.468183517456055</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.708037376403809</v>
+        <v>-6.425976753234863</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.042039394378662</v>
+        <v>-6.357919216156006</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.315304756164551</v>
+        <v>9.594439506530762</v>
       </c>
       <c r="B6" t="n">
-        <v>8.025636672973633</v>
+        <v>7.539623260498047</v>
       </c>
       <c r="C6" t="n">
-        <v>3.028283357620239</v>
+        <v>3.929058790206909</v>
       </c>
       <c r="D6" t="n">
-        <v>2.768892049789429</v>
+        <v>3.614963531494141</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.895889520645142</v>
+        <v>-4.13552188873291</v>
       </c>
       <c r="F6" t="n">
-        <v>-4.367646217346191</v>
+        <v>-5.078336715698242</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>7.573521614074707</v>
+        <v>7.698837280273438</v>
       </c>
       <c r="B7" t="n">
-        <v>6.799755573272705</v>
+        <v>6.20362377166748</v>
       </c>
       <c r="C7" t="n">
-        <v>2.284229278564453</v>
+        <v>2.771282434463501</v>
       </c>
       <c r="D7" t="n">
-        <v>2.617573022842407</v>
+        <v>3.373511791229248</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.54987096786499</v>
+        <v>-2.737049102783203</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.826041460037231</v>
+        <v>-3.278833627700806</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>6.009150505065918</v>
+        <v>5.943717002868652</v>
       </c>
       <c r="B8" t="n">
-        <v>5.571083068847656</v>
+        <v>5.625824451446533</v>
       </c>
       <c r="C8" t="n">
-        <v>1.323945999145508</v>
+        <v>1.703713417053223</v>
       </c>
       <c r="D8" t="n">
-        <v>1.945762276649475</v>
+        <v>2.746859550476074</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.626040816307068</v>
+        <v>-2.042208194732666</v>
       </c>
       <c r="F8" t="n">
-        <v>-1.476112604141235</v>
+        <v>-1.922052383422852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4.432873725891113</v>
+        <v>4.529829502105713</v>
       </c>
       <c r="B9" t="n">
-        <v>4.287191390991211</v>
+        <v>4.320446491241455</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2876297235488892</v>
+        <v>0.896430492401123</v>
       </c>
       <c r="D9" t="n">
-        <v>1.211325526237488</v>
+        <v>1.48977530002594</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8311302661895752</v>
+        <v>-1.107647776603699</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.4424158334732056</v>
+        <v>-0.8803818225860596</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.096645832061768</v>
+        <v>3.02819299697876</v>
       </c>
       <c r="B10" t="n">
-        <v>2.931142568588257</v>
+        <v>3.106686115264893</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.6449640989303589</v>
+        <v>-0.5150258541107178</v>
       </c>
       <c r="D10" t="n">
-        <v>0.07400635629892349</v>
+        <v>0.7530863881111145</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.1206283420324326</v>
+        <v>-0.2537662088871002</v>
       </c>
       <c r="F10" t="n">
-        <v>0.3136179447174072</v>
+        <v>-0.2098948955535889</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>1.783392667770386</v>
+        <v>2.026336908340454</v>
       </c>
       <c r="B11" t="n">
-        <v>1.536310195922852</v>
+        <v>1.733776569366455</v>
       </c>
       <c r="C11" t="n">
-        <v>-1.714995741844177</v>
+        <v>-1.678942203521729</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.062958002090454</v>
+        <v>-0.6350166201591492</v>
       </c>
       <c r="E11" t="n">
-        <v>0.5608344078063965</v>
+        <v>0.3172921240329742</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8116381168365479</v>
+        <v>0.3692429661750793</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5318589806556702</v>
+        <v>0.8148890137672424</v>
       </c>
       <c r="B12" t="n">
-        <v>0.2242047935724258</v>
+        <v>0.2616935968399048</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.584718942642212</v>
+        <v>-1.799389362335205</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.45433783531189</v>
+        <v>-2.150728464126587</v>
       </c>
       <c r="E12" t="n">
-        <v>1.237688064575195</v>
+        <v>1.122523903846741</v>
       </c>
       <c r="F12" t="n">
-        <v>1.275823950767517</v>
+        <v>0.7421048283576965</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.6617944240570068</v>
+        <v>-0.769267737865448</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.9790235757827759</v>
+        <v>-1.153263688087463</v>
       </c>
       <c r="C13" t="n">
-        <v>-3.653346300125122</v>
+        <v>-2.905920743942261</v>
       </c>
       <c r="D13" t="n">
-        <v>-3.753265619277954</v>
+        <v>-3.448994636535645</v>
       </c>
       <c r="E13" t="n">
-        <v>1.953615188598633</v>
+        <v>1.986303806304932</v>
       </c>
       <c r="F13" t="n">
-        <v>1.560899257659912</v>
+        <v>0.9215449690818787</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.03122878074646</v>
+        <v>-1.630103468894958</v>
       </c>
       <c r="B14" t="n">
-        <v>-2.078547239303589</v>
+        <v>-2.095681667327881</v>
       </c>
       <c r="C14" t="n">
-        <v>-4.661025524139404</v>
+        <v>-3.747679233551025</v>
       </c>
       <c r="D14" t="n">
-        <v>-5.028291702270508</v>
+        <v>-4.545684337615967</v>
       </c>
       <c r="E14" t="n">
-        <v>2.738565444946289</v>
+        <v>3.0890052318573</v>
       </c>
       <c r="F14" t="n">
-        <v>1.932839512825012</v>
+        <v>1.37614369392395</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-3.393332242965698</v>
+        <v>-3.067168474197388</v>
       </c>
       <c r="B15" t="n">
-        <v>-3.351036787033081</v>
+        <v>-3.401544570922852</v>
       </c>
       <c r="C15" t="n">
-        <v>-5.642582893371582</v>
+        <v>-5.016765594482422</v>
       </c>
       <c r="D15" t="n">
-        <v>-6.231935501098633</v>
+        <v>-5.825440406799316</v>
       </c>
       <c r="E15" t="n">
-        <v>3.511554956436157</v>
+        <v>3.573665618896484</v>
       </c>
       <c r="F15" t="n">
-        <v>2.323700189590454</v>
+        <v>1.716618657112122</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-4.641310691833496</v>
+        <v>-4.602652549743652</v>
       </c>
       <c r="B16" t="n">
-        <v>-4.545109748840332</v>
+        <v>-4.445538997650146</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.601352691650391</v>
+        <v>-5.71005392074585</v>
       </c>
       <c r="D16" t="n">
-        <v>-7.388644218444824</v>
+        <v>-6.799992561340332</v>
       </c>
       <c r="E16" t="n">
-        <v>4.26310920715332</v>
+        <v>4.414272308349609</v>
       </c>
       <c r="F16" t="n">
-        <v>2.82740330696106</v>
+        <v>2.396705150604248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-5.910059452056885</v>
+        <v>-5.617551326751709</v>
       </c>
       <c r="B17" t="n">
-        <v>-5.707250118255615</v>
+        <v>-5.467188358306885</v>
       </c>
       <c r="C17" t="n">
-        <v>-7.400792121887207</v>
+        <v>-6.502203941345215</v>
       </c>
       <c r="D17" t="n">
-        <v>-8.543477058410645</v>
+        <v>-7.95770788192749</v>
       </c>
       <c r="E17" t="n">
-        <v>4.987616539001465</v>
+        <v>5.543079853057861</v>
       </c>
       <c r="F17" t="n">
-        <v>3.440629720687866</v>
+        <v>3.077702283859253</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-6.982927322387695</v>
+        <v>-6.672374725341797</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.871027946472168</v>
+        <v>-6.430739879608154</v>
       </c>
       <c r="C18" t="n">
-        <v>-8.267156600952148</v>
+        <v>-7.159676074981689</v>
       </c>
       <c r="D18" t="n">
-        <v>-9.398090362548828</v>
+        <v>-8.979587554931641</v>
       </c>
       <c r="E18" t="n">
-        <v>5.785432815551758</v>
+        <v>6.096261024475098</v>
       </c>
       <c r="F18" t="n">
-        <v>4.171317100524902</v>
+        <v>4.039328098297119</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-8.167279243469238</v>
+        <v>-7.38971996307373</v>
       </c>
       <c r="B19" t="n">
-        <v>-7.835114002227783</v>
+        <v>-7.189437866210938</v>
       </c>
       <c r="C19" t="n">
-        <v>-9.004053115844727</v>
+        <v>-7.795483112335205</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.24331665039062</v>
+        <v>-9.532827377319336</v>
       </c>
       <c r="E19" t="n">
-        <v>6.534707546234131</v>
+        <v>6.925272941589355</v>
       </c>
       <c r="F19" t="n">
-        <v>4.876561164855957</v>
+        <v>4.637532234191895</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-9.219964027404785</v>
+        <v>-8.798354148864746</v>
       </c>
       <c r="B20" t="n">
-        <v>-8.750594139099121</v>
+        <v>-8.08466625213623</v>
       </c>
       <c r="C20" t="n">
-        <v>-9.812329292297363</v>
+        <v>-8.481695175170898</v>
       </c>
       <c r="D20" t="n">
-        <v>-10.82731533050537</v>
+        <v>-9.528665542602539</v>
       </c>
       <c r="E20" t="n">
-        <v>7.384642601013184</v>
+        <v>7.75161075592041</v>
       </c>
       <c r="F20" t="n">
-        <v>5.654624462127686</v>
+        <v>5.709619045257568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-10.24277305603027</v>
+        <v>-9.44095516204834</v>
       </c>
       <c r="B21" t="n">
-        <v>-9.562437057495117</v>
+        <v>-8.700569152832031</v>
       </c>
       <c r="C21" t="n">
-        <v>-10.40050983428955</v>
+        <v>-9.406803131103516</v>
       </c>
       <c r="D21" t="n">
-        <v>-11.18820190429688</v>
+        <v>-10.36128902435303</v>
       </c>
       <c r="E21" t="n">
-        <v>8.245798110961914</v>
+        <v>8.505301475524902</v>
       </c>
       <c r="F21" t="n">
-        <v>6.694083213806152</v>
+        <v>6.603782653808594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-11.30012989044189</v>
+        <v>-11.10607719421387</v>
       </c>
       <c r="B22" t="n">
-        <v>-10.55934429168701</v>
+        <v>-9.513784408569336</v>
       </c>
       <c r="C22" t="n">
-        <v>-10.77244663238525</v>
+        <v>-9.628668785095215</v>
       </c>
       <c r="D22" t="n">
-        <v>-11.16439151763916</v>
+        <v>-10.34012413024902</v>
       </c>
       <c r="E22" t="n">
-        <v>9.078335762023926</v>
+        <v>9.464363098144531</v>
       </c>
       <c r="F22" t="n">
-        <v>7.577946186065674</v>
+        <v>7.418413162231445</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-12.35239887237549</v>
+        <v>-11.81008434295654</v>
       </c>
       <c r="B23" t="n">
-        <v>-11.39016437530518</v>
+        <v>-10.80033111572266</v>
       </c>
       <c r="C23" t="n">
-        <v>-11.02168464660645</v>
+        <v>-10.22268199920654</v>
       </c>
       <c r="D23" t="n">
-        <v>-11.27931213378906</v>
+        <v>-9.978883743286133</v>
       </c>
       <c r="E23" t="n">
-        <v>9.774185180664062</v>
+        <v>9.907207489013672</v>
       </c>
       <c r="F23" t="n">
-        <v>8.476740837097168</v>
+        <v>8.797696113586426</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-13.58758354187012</v>
+        <v>-12.70748996734619</v>
       </c>
       <c r="B24" t="n">
-        <v>-12.43097591400146</v>
+        <v>-11.40939426422119</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.97842311859131</v>
+        <v>-10.16508007049561</v>
       </c>
       <c r="D24" t="n">
-        <v>-11.19401836395264</v>
+        <v>-10.17923736572266</v>
       </c>
       <c r="E24" t="n">
-        <v>10.2163667678833</v>
+        <v>10.14589881896973</v>
       </c>
       <c r="F24" t="n">
-        <v>9.37852668762207</v>
+        <v>9.739897727966309</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-14.51919746398926</v>
+        <v>-14.05492496490479</v>
       </c>
       <c r="B25" t="n">
-        <v>-13.27160263061523</v>
+        <v>-12.28653621673584</v>
       </c>
       <c r="C25" t="n">
-        <v>-10.91511917114258</v>
+        <v>-10.00711917877197</v>
       </c>
       <c r="D25" t="n">
-        <v>-10.73860359191895</v>
+        <v>-10.00635814666748</v>
       </c>
       <c r="E25" t="n">
-        <v>10.4071159362793</v>
+        <v>10.1555814743042</v>
       </c>
       <c r="F25" t="n">
-        <v>9.918248176574707</v>
+        <v>9.849248886108398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-15.66983795166016</v>
+        <v>-15.02520656585693</v>
       </c>
       <c r="B26" t="n">
-        <v>-14.27683544158936</v>
+        <v>-13.43994617462158</v>
       </c>
       <c r="C26" t="n">
-        <v>-10.33553600311279</v>
+        <v>-10.1209135055542</v>
       </c>
       <c r="D26" t="n">
-        <v>-10.14814567565918</v>
+        <v>-9.009279251098633</v>
       </c>
       <c r="E26" t="n">
-        <v>10.21270942687988</v>
+        <v>10.16534614562988</v>
       </c>
       <c r="F26" t="n">
-        <v>10.21223258972168</v>
+        <v>10.40927410125732</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-16.3577880859375</v>
+        <v>-15.90015125274658</v>
       </c>
       <c r="B27" t="n">
-        <v>-15.12967205047607</v>
+        <v>-14.39193820953369</v>
       </c>
       <c r="C27" t="n">
-        <v>-9.598528861999512</v>
+        <v>-9.460721015930176</v>
       </c>
       <c r="D27" t="n">
-        <v>-9.262479782104492</v>
+        <v>-8.431144714355469</v>
       </c>
       <c r="E27" t="n">
-        <v>9.409489631652832</v>
+        <v>9.373446464538574</v>
       </c>
       <c r="F27" t="n">
-        <v>9.966146469116211</v>
+        <v>10.6455659866333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-17.05009460449219</v>
+        <v>-16.85579681396484</v>
       </c>
       <c r="B28" t="n">
-        <v>-15.75434970855713</v>
+        <v>-15.11975574493408</v>
       </c>
       <c r="C28" t="n">
-        <v>-8.503121376037598</v>
+        <v>-8.718337059020996</v>
       </c>
       <c r="D28" t="n">
-        <v>-8.129031181335449</v>
+        <v>-8.025810241699219</v>
       </c>
       <c r="E28" t="n">
-        <v>7.722625732421875</v>
+        <v>8.254352569580078</v>
       </c>
       <c r="F28" t="n">
-        <v>8.672946929931641</v>
+        <v>9.731196403503418</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-17.25738906860352</v>
+        <v>-16.85555839538574</v>
       </c>
       <c r="B29" t="n">
-        <v>-16.14754295349121</v>
+        <v>-16.08146095275879</v>
       </c>
       <c r="C29" t="n">
-        <v>-6.93308162689209</v>
+        <v>-7.510991096496582</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.573962211608887</v>
+        <v>-6.696838855743408</v>
       </c>
       <c r="E29" t="n">
-        <v>4.739631175994873</v>
+        <v>5.712958812713623</v>
       </c>
       <c r="F29" t="n">
-        <v>6.035230159759521</v>
+        <v>7.301679134368896</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-16.76072883605957</v>
+        <v>-16.89199638366699</v>
       </c>
       <c r="B30" t="n">
-        <v>-16.18911933898926</v>
+        <v>-15.8074426651001</v>
       </c>
       <c r="C30" t="n">
-        <v>-4.72870922088623</v>
+        <v>-5.531917572021484</v>
       </c>
       <c r="D30" t="n">
-        <v>-4.36420726776123</v>
+        <v>-4.744016170501709</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.01881973072886467</v>
+        <v>1.148460745811462</v>
       </c>
       <c r="F30" t="n">
-        <v>1.651002883911133</v>
+        <v>3.403781890869141</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-15.50915431976318</v>
+        <v>-15.84859561920166</v>
       </c>
       <c r="B31" t="n">
-        <v>-15.37183475494385</v>
+        <v>-15.71560955047607</v>
       </c>
       <c r="C31" t="n">
-        <v>-1.585020661354065</v>
+        <v>-1.990731239318848</v>
       </c>
       <c r="D31" t="n">
-        <v>-1.3067706823349</v>
+        <v>-1.718716740608215</v>
       </c>
       <c r="E31" t="n">
-        <v>-6.202578544616699</v>
+        <v>-4.924041748046875</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.999282836914062</v>
+        <v>-2.360318660736084</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-13.70101165771484</v>
+        <v>-13.940993309021</v>
       </c>
       <c r="B32" t="n">
-        <v>-13.77594757080078</v>
+        <v>-14.35921287536621</v>
       </c>
       <c r="C32" t="n">
-        <v>2.51458740234375</v>
+        <v>1.649859666824341</v>
       </c>
       <c r="D32" t="n">
-        <v>2.66169261932373</v>
+        <v>1.935232996940613</v>
       </c>
       <c r="E32" t="n">
-        <v>-12.58116817474365</v>
+        <v>-12.07408905029297</v>
       </c>
       <c r="F32" t="n">
-        <v>-10.11879634857178</v>
+        <v>-8.640621185302734</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-10.96827697753906</v>
+        <v>-11.25944137573242</v>
       </c>
       <c r="B33" t="n">
-        <v>-11.48406314849854</v>
+        <v>-11.72063732147217</v>
       </c>
       <c r="C33" t="n">
-        <v>7.438877582550049</v>
+        <v>6.542647361755371</v>
       </c>
       <c r="D33" t="n">
-        <v>7.478039741516113</v>
+        <v>6.786178588867188</v>
       </c>
       <c r="E33" t="n">
-        <v>-17.37714195251465</v>
+        <v>-17.77323341369629</v>
       </c>
       <c r="F33" t="n">
-        <v>-14.51802730560303</v>
+        <v>-13.57587814331055</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-7.687910079956055</v>
+        <v>-7.931959629058838</v>
       </c>
       <c r="B34" t="n">
-        <v>-8.668733596801758</v>
+        <v>-8.943519592285156</v>
       </c>
       <c r="C34" t="n">
-        <v>13.03018951416016</v>
+        <v>12.40818691253662</v>
       </c>
       <c r="D34" t="n">
-        <v>12.49655246734619</v>
+        <v>12.09701156616211</v>
       </c>
       <c r="E34" t="n">
-        <v>-19.73404121398926</v>
+        <v>-20.79401588439941</v>
       </c>
       <c r="F34" t="n">
-        <v>-16.37407302856445</v>
+        <v>-16.24692153930664</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-3.981506586074829</v>
+        <v>-4.292008876800537</v>
       </c>
       <c r="B35" t="n">
-        <v>-5.641603946685791</v>
+        <v>-6.080595016479492</v>
       </c>
       <c r="C35" t="n">
-        <v>18.17005348205566</v>
+        <v>17.54999542236328</v>
       </c>
       <c r="D35" t="n">
-        <v>17.37775993347168</v>
+        <v>16.60375213623047</v>
       </c>
       <c r="E35" t="n">
-        <v>-18.90632438659668</v>
+        <v>-20.4505786895752</v>
       </c>
       <c r="F35" t="n">
-        <v>-15.5491247177124</v>
+        <v>-15.9649658203125</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-0.2690900862216949</v>
+        <v>-0.2008344233036041</v>
       </c>
       <c r="B36" t="n">
-        <v>-2.561729192733765</v>
+        <v>-2.76393985748291</v>
       </c>
       <c r="C36" t="n">
-        <v>22.80356025695801</v>
+        <v>22.36458206176758</v>
       </c>
       <c r="D36" t="n">
-        <v>21.68811988830566</v>
+        <v>21.35508155822754</v>
       </c>
       <c r="E36" t="n">
-        <v>-15.38312339782715</v>
+        <v>-16.78326988220215</v>
       </c>
       <c r="F36" t="n">
-        <v>-12.53990840911865</v>
+        <v>-13.36715126037598</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>3.257931470870972</v>
+        <v>3.47652792930603</v>
       </c>
       <c r="B37" t="n">
-        <v>0.3071528673171997</v>
+        <v>0.4468721151351929</v>
       </c>
       <c r="C37" t="n">
-        <v>25.83505439758301</v>
+        <v>25.5575122833252</v>
       </c>
       <c r="D37" t="n">
-        <v>24.27176475524902</v>
+        <v>23.59458923339844</v>
       </c>
       <c r="E37" t="n">
-        <v>-10.7000846862793</v>
+        <v>-11.41089820861816</v>
       </c>
       <c r="F37" t="n">
-        <v>-8.914087295532227</v>
+        <v>-9.617973327636719</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.352535724639893</v>
+        <v>6.528087139129639</v>
       </c>
       <c r="B38" t="n">
-        <v>2.820368528366089</v>
+        <v>2.585380554199219</v>
       </c>
       <c r="C38" t="n">
-        <v>26.94922065734863</v>
+        <v>27.16693305969238</v>
       </c>
       <c r="D38" t="n">
-        <v>24.77071571350098</v>
+        <v>24.58536148071289</v>
       </c>
       <c r="E38" t="n">
-        <v>-6.033756732940674</v>
+        <v>-6.428177356719971</v>
       </c>
       <c r="F38" t="n">
-        <v>-5.372055053710938</v>
+        <v>-5.65538501739502</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>8.88008975982666</v>
+        <v>9.232528686523438</v>
       </c>
       <c r="B39" t="n">
-        <v>4.875092029571533</v>
+        <v>4.782819271087646</v>
       </c>
       <c r="C39" t="n">
-        <v>26.62479400634766</v>
+        <v>26.28310012817383</v>
       </c>
       <c r="D39" t="n">
-        <v>24.15024185180664</v>
+        <v>23.62868881225586</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.057136535644531</v>
+        <v>-2.011965274810791</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.338138818740845</v>
+        <v>-2.626771211624146</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.88712787628174</v>
+        <v>11.21825885772705</v>
       </c>
       <c r="B40" t="n">
-        <v>6.445706367492676</v>
+        <v>6.065381050109863</v>
       </c>
       <c r="C40" t="n">
-        <v>24.98723220825195</v>
+        <v>24.778564453125</v>
       </c>
       <c r="D40" t="n">
-        <v>22.22591781616211</v>
+        <v>21.70613861083984</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9239992499351501</v>
+        <v>1.298220992088318</v>
       </c>
       <c r="F40" t="n">
-        <v>0.03022563271224499</v>
+        <v>0.1125068515539169</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>12.29016017913818</v>
+        <v>12.98763465881348</v>
       </c>
       <c r="B41" t="n">
-        <v>7.543771743774414</v>
+        <v>7.346282005310059</v>
       </c>
       <c r="C41" t="n">
-        <v>22.03310775756836</v>
+        <v>21.87921524047852</v>
       </c>
       <c r="D41" t="n">
-        <v>18.66759872436523</v>
+        <v>17.74363708496094</v>
       </c>
       <c r="E41" t="n">
-        <v>3.088267803192139</v>
+        <v>3.538327932357788</v>
       </c>
       <c r="F41" t="n">
-        <v>1.669090867042542</v>
+        <v>1.656576991081238</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>13.39321422576904</v>
+        <v>13.45346164703369</v>
       </c>
       <c r="B42" t="n">
-        <v>8.308975219726562</v>
+        <v>7.705289840698242</v>
       </c>
       <c r="C42" t="n">
-        <v>17.47223091125488</v>
+        <v>17.25541114807129</v>
       </c>
       <c r="D42" t="n">
-        <v>14.55139446258545</v>
+        <v>13.38375568389893</v>
       </c>
       <c r="E42" t="n">
-        <v>4.297545909881592</v>
+        <v>4.906647682189941</v>
       </c>
       <c r="F42" t="n">
-        <v>2.739800453186035</v>
+        <v>2.649538278579712</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>13.88406372070312</v>
+        <v>14.61586856842041</v>
       </c>
       <c r="B43" t="n">
-        <v>8.724154472351074</v>
+        <v>8.261444091796875</v>
       </c>
       <c r="C43" t="n">
-        <v>12.29662799835205</v>
+        <v>12.56807708740234</v>
       </c>
       <c r="D43" t="n">
-        <v>9.819582939147949</v>
+        <v>8.831439018249512</v>
       </c>
       <c r="E43" t="n">
-        <v>4.625144958496094</v>
+        <v>5.228408813476562</v>
       </c>
       <c r="F43" t="n">
-        <v>3.173198461532593</v>
+        <v>3.006698608398438</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>14.18010330200195</v>
+        <v>14.30714893341064</v>
       </c>
       <c r="B44" t="n">
-        <v>9.060091972351074</v>
+        <v>8.708428382873535</v>
       </c>
       <c r="C44" t="n">
-        <v>6.714670658111572</v>
+        <v>6.471855163574219</v>
       </c>
       <c r="D44" t="n">
-        <v>4.884113311767578</v>
+        <v>4.048801422119141</v>
       </c>
       <c r="E44" t="n">
-        <v>4.014431953430176</v>
+        <v>4.542580604553223</v>
       </c>
       <c r="F44" t="n">
-        <v>2.828065633773804</v>
+        <v>2.849286317825317</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>14.3781852722168</v>
+        <v>15.29572200775146</v>
       </c>
       <c r="B45" t="n">
-        <v>9.150935173034668</v>
+        <v>8.832016944885254</v>
       </c>
       <c r="C45" t="n">
-        <v>1.280845642089844</v>
+        <v>1.389982938766479</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.03103073686361313</v>
+        <v>-1.103219985961914</v>
       </c>
       <c r="E45" t="n">
-        <v>2.644930601119995</v>
+        <v>2.95975923538208</v>
       </c>
       <c r="F45" t="n">
-        <v>2.015916585922241</v>
+        <v>1.780834794044495</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>14.62985324859619</v>
+        <v>15.29910564422607</v>
       </c>
       <c r="B46" t="n">
-        <v>9.191832542419434</v>
+        <v>9.583863258361816</v>
       </c>
       <c r="C46" t="n">
-        <v>-3.645795583724976</v>
+        <v>-3.747159481048584</v>
       </c>
       <c r="D46" t="n">
-        <v>-4.725353240966797</v>
+        <v>-5.088359355926514</v>
       </c>
       <c r="E46" t="n">
-        <v>0.8805221319198608</v>
+        <v>0.6066954135894775</v>
       </c>
       <c r="F46" t="n">
-        <v>1.011294484138489</v>
+        <v>0.7142819166183472</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>14.97713756561279</v>
+        <v>15.67640399932861</v>
       </c>
       <c r="B47" t="n">
-        <v>9.120641708374023</v>
+        <v>9.464634895324707</v>
       </c>
       <c r="C47" t="n">
-        <v>-7.743914604187012</v>
+        <v>-7.931211471557617</v>
       </c>
       <c r="D47" t="n">
-        <v>-8.695775032043457</v>
+        <v>-8.487446784973145</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.6169708371162415</v>
+        <v>-1.066715002059937</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1535119116306305</v>
+        <v>-0.4910535216331482</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>15.20702075958252</v>
+        <v>16.26583671569824</v>
       </c>
       <c r="B48" t="n">
-        <v>8.847296714782715</v>
+        <v>9.047849655151367</v>
       </c>
       <c r="C48" t="n">
-        <v>-10.8215274810791</v>
+        <v>-10.95507049560547</v>
       </c>
       <c r="D48" t="n">
-        <v>-12.05393695831299</v>
+        <v>-10.99143123626709</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.842936873435974</v>
+        <v>-2.630494117736816</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.4146690368652344</v>
+        <v>-1.099042177200317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>16.06117630004883</v>
+        <v>17.72844314575195</v>
       </c>
       <c r="B49" t="n">
-        <v>8.625617980957031</v>
+        <v>9.211212158203125</v>
       </c>
       <c r="C49" t="n">
-        <v>-12.66087913513184</v>
+        <v>-12.30385208129883</v>
       </c>
       <c r="D49" t="n">
-        <v>-14.26750469207764</v>
+        <v>-13.9873685836792</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.09326171875</v>
+        <v>-3.81240439414978</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.172276735305786</v>
+        <v>-1.715909957885742</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>16.51292991638184</v>
+        <v>17.99033546447754</v>
       </c>
       <c r="B50" t="n">
-        <v>8.16251277923584</v>
+        <v>8.490697860717773</v>
       </c>
       <c r="C50" t="n">
-        <v>-13.30508422851562</v>
+        <v>-13.44837951660156</v>
       </c>
       <c r="D50" t="n">
-        <v>-15.31052875518799</v>
+        <v>-14.75129890441895</v>
       </c>
       <c r="E50" t="n">
-        <v>-4.261023998260498</v>
+        <v>-4.697794437408447</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.912567377090454</v>
+        <v>-2.201730966567993</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>14.47530460357666</v>
+        <v>15.5321683883667</v>
       </c>
       <c r="B51" t="n">
-        <v>8.106172561645508</v>
+        <v>8.705434799194336</v>
       </c>
       <c r="C51" t="n">
-        <v>-12.90021896362305</v>
+        <v>-13.14978218078613</v>
       </c>
       <c r="D51" t="n">
-        <v>-14.53575801849365</v>
+        <v>-14.30158710479736</v>
       </c>
       <c r="E51" t="n">
-        <v>-4.566317558288574</v>
+        <v>-4.933369636535645</v>
       </c>
       <c r="F51" t="n">
-        <v>-2.099127531051636</v>
+        <v>-2.278730630874634</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>9.457259178161621</v>
+        <v>9.346612930297852</v>
       </c>
       <c r="B52" t="n">
-        <v>8.882261276245117</v>
+        <v>8.648167610168457</v>
       </c>
       <c r="C52" t="n">
-        <v>-12.18445682525635</v>
+        <v>-12.001296043396</v>
       </c>
       <c r="D52" t="n">
-        <v>-12.28250789642334</v>
+        <v>-11.88593769073486</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.54130482673645</v>
+        <v>-3.559922456741333</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.726725339889526</v>
+        <v>-1.832170009613037</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>9.755415916442871</v>
+        <v>10.49092197418213</v>
       </c>
       <c r="B53" t="n">
-        <v>9.166042327880859</v>
+        <v>9.146080017089844</v>
       </c>
       <c r="C53" t="n">
-        <v>-4.54020357131958</v>
+        <v>-3.478395938873291</v>
       </c>
       <c r="D53" t="n">
-        <v>-4.348066329956055</v>
+        <v>-2.630246639251709</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.540635108947754</v>
+        <v>-7.660592079162598</v>
       </c>
       <c r="F53" t="n">
-        <v>-6.136627674102783</v>
+        <v>-6.101813316345215</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11.32649326324463</v>
+        <v>12.37847709655762</v>
       </c>
       <c r="B54" t="n">
-        <v>10.00475788116455</v>
+        <v>10.17675685882568</v>
       </c>
       <c r="C54" t="n">
-        <v>-0.9928227066993713</v>
+        <v>0.9183034896850586</v>
       </c>
       <c r="D54" t="n">
-        <v>-1.033322811126709</v>
+        <v>1.028031945228577</v>
       </c>
       <c r="E54" t="n">
-        <v>-7.515413284301758</v>
+        <v>-9.185312271118164</v>
       </c>
       <c r="F54" t="n">
-        <v>-7.175960540771484</v>
+        <v>-7.154167652130127</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11.73306846618652</v>
+        <v>12.87293720245361</v>
       </c>
       <c r="B55" t="n">
-        <v>10.12765407562256</v>
+        <v>10.2642297744751</v>
       </c>
       <c r="C55" t="n">
-        <v>1.544187307357788</v>
+        <v>3.678908586502075</v>
       </c>
       <c r="D55" t="n">
-        <v>1.147415518760681</v>
+        <v>2.868941068649292</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.906818389892578</v>
+        <v>-8.491328239440918</v>
       </c>
       <c r="F55" t="n">
-        <v>-6.978314399719238</v>
+        <v>-7.382502555847168</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.77183055877686</v>
+        <v>11.66721820831299</v>
       </c>
       <c r="B56" t="n">
-        <v>9.264758110046387</v>
+        <v>8.963366508483887</v>
       </c>
       <c r="C56" t="n">
-        <v>2.549756526947021</v>
+        <v>4.463678359985352</v>
       </c>
       <c r="D56" t="n">
-        <v>2.194927215576172</v>
+        <v>3.443795204162598</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.311529636383057</v>
+        <v>-6.232278347015381</v>
       </c>
       <c r="F56" t="n">
-        <v>-5.865926265716553</v>
+        <v>-6.152323722839355</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.190765380859375</v>
+        <v>9.64309024810791</v>
       </c>
       <c r="B57" t="n">
-        <v>8.106156349182129</v>
+        <v>7.571249008178711</v>
       </c>
       <c r="C57" t="n">
-        <v>2.602200746536255</v>
+        <v>3.813186407089233</v>
       </c>
       <c r="D57" t="n">
-        <v>2.562734365463257</v>
+        <v>3.483922004699707</v>
       </c>
       <c r="E57" t="n">
-        <v>-3.649106502532959</v>
+        <v>-4.093018054962158</v>
       </c>
       <c r="F57" t="n">
-        <v>-4.1838698387146</v>
+        <v>-4.851290702819824</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>7.526937484741211</v>
+        <v>7.672483444213867</v>
       </c>
       <c r="B58" t="n">
-        <v>6.902059555053711</v>
+        <v>6.380017280578613</v>
       </c>
       <c r="C58" t="n">
-        <v>1.998771667480469</v>
+        <v>2.622598648071289</v>
       </c>
       <c r="D58" t="n">
-        <v>2.495297193527222</v>
+        <v>3.23287296295166</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.31285572052002</v>
+        <v>-2.685492992401123</v>
       </c>
       <c r="F58" t="n">
-        <v>-2.57952094078064</v>
+        <v>-3.157552242279053</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>5.991007804870605</v>
+        <v>5.989501476287842</v>
       </c>
       <c r="B59" t="n">
-        <v>5.670315265655518</v>
+        <v>5.634573459625244</v>
       </c>
       <c r="C59" t="n">
-        <v>1.131223678588867</v>
+        <v>1.579946041107178</v>
       </c>
       <c r="D59" t="n">
-        <v>1.863446116447449</v>
+        <v>2.602920532226562</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.372117280960083</v>
+        <v>-1.968864321708679</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.184863448143005</v>
+        <v>-1.867320537567139</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>4.448779582977295</v>
+        <v>4.611737251281738</v>
       </c>
       <c r="B60" t="n">
-        <v>4.355570793151855</v>
+        <v>4.284033298492432</v>
       </c>
       <c r="C60" t="n">
-        <v>0.1271535158157349</v>
+        <v>0.6235823631286621</v>
       </c>
       <c r="D60" t="n">
-        <v>1.132028698921204</v>
+        <v>1.415674567222595</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.5860468149185181</v>
+        <v>-1.106906652450562</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.1374382674694061</v>
+        <v>-0.7649540901184082</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>3.079313516616821</v>
+        <v>3.088445901870728</v>
       </c>
       <c r="B61" t="n">
-        <v>2.971338510513306</v>
+        <v>3.09415864944458</v>
       </c>
       <c r="C61" t="n">
-        <v>-0.8186343908309937</v>
+        <v>-0.5111711025238037</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.005690060090273619</v>
+        <v>0.5264914631843567</v>
       </c>
       <c r="E61" t="n">
-        <v>0.09425941109657288</v>
+        <v>-0.2755233943462372</v>
       </c>
       <c r="F61" t="n">
-        <v>0.632479727268219</v>
+        <v>0.01019191555678844</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.720179080963135</v>
+        <v>2.088233947753906</v>
       </c>
       <c r="B62" t="n">
-        <v>1.562317848205566</v>
+        <v>1.807616233825684</v>
       </c>
       <c r="C62" t="n">
-        <v>-1.933976054191589</v>
+        <v>-1.583989858627319</v>
       </c>
       <c r="D62" t="n">
-        <v>-1.126092195510864</v>
+        <v>-0.7197729349136353</v>
       </c>
       <c r="E62" t="n">
-        <v>0.735990583896637</v>
+        <v>0.4252892136573792</v>
       </c>
       <c r="F62" t="n">
-        <v>1.13706362247467</v>
+        <v>0.5363842844963074</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.420071929693222</v>
+        <v>0.7508197426795959</v>
       </c>
       <c r="B63" t="n">
-        <v>0.240091934800148</v>
+        <v>0.3357807397842407</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.857196807861328</v>
+        <v>-1.883006572723389</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.528825521469116</v>
+        <v>-2.143608808517456</v>
       </c>
       <c r="E63" t="n">
-        <v>1.361627340316772</v>
+        <v>1.203103303909302</v>
       </c>
       <c r="F63" t="n">
-        <v>1.612810254096985</v>
+        <v>0.9293859601020813</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.7834308743476868</v>
+        <v>-0.6843321919441223</v>
       </c>
       <c r="B64" t="n">
-        <v>-0.9715099930763245</v>
+        <v>-1.108672857284546</v>
       </c>
       <c r="C64" t="n">
-        <v>-3.973283052444458</v>
+        <v>-2.906542539596558</v>
       </c>
       <c r="D64" t="n">
-        <v>-3.804797172546387</v>
+        <v>-3.450364351272583</v>
       </c>
       <c r="E64" t="n">
-        <v>2.012493371963501</v>
+        <v>2.047038555145264</v>
       </c>
       <c r="F64" t="n">
-        <v>1.927828192710876</v>
+        <v>1.130942463874817</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-2.147676467895508</v>
+        <v>-1.647246956825256</v>
       </c>
       <c r="B65" t="n">
-        <v>-2.082866430282593</v>
+        <v>-2.10959267616272</v>
       </c>
       <c r="C65" t="n">
-        <v>-5.017979621887207</v>
+        <v>-3.825456142425537</v>
       </c>
       <c r="D65" t="n">
-        <v>-5.065265655517578</v>
+        <v>-4.596436500549316</v>
       </c>
       <c r="E65" t="n">
-        <v>2.705954790115356</v>
+        <v>2.983144998550415</v>
       </c>
       <c r="F65" t="n">
-        <v>2.307127475738525</v>
+        <v>1.524970173835754</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-3.479942321777344</v>
+        <v>-3.061610698699951</v>
       </c>
       <c r="B66" t="n">
-        <v>-3.346017837524414</v>
+        <v>-3.288683652877808</v>
       </c>
       <c r="C66" t="n">
-        <v>-6.005834579467773</v>
+        <v>-5.054923057556152</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.255384922027588</v>
+        <v>-5.96738338470459</v>
       </c>
       <c r="E66" t="n">
-        <v>3.383810997009277</v>
+        <v>3.65785551071167</v>
       </c>
       <c r="F66" t="n">
-        <v>2.694129228591919</v>
+        <v>1.872022032737732</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-4.697195053100586</v>
+        <v>-4.524945259094238</v>
       </c>
       <c r="B67" t="n">
-        <v>-4.550318717956543</v>
+        <v>-4.314560413360596</v>
       </c>
       <c r="C67" t="n">
-        <v>-6.998153686523438</v>
+        <v>-5.782510757446289</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.433390617370605</v>
+        <v>-6.84373950958252</v>
       </c>
       <c r="E67" t="n">
-        <v>4.061314105987549</v>
+        <v>4.508072376251221</v>
       </c>
       <c r="F67" t="n">
-        <v>3.165241956710815</v>
+        <v>2.506373643875122</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-5.96314001083374</v>
+        <v>-5.565048217773438</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.721162796020508</v>
+        <v>-5.433917045593262</v>
       </c>
       <c r="C68" t="n">
-        <v>-7.829049587249756</v>
+        <v>-6.556217193603516</v>
       </c>
       <c r="D68" t="n">
-        <v>-8.573836326599121</v>
+        <v>-7.94235372543335</v>
       </c>
       <c r="E68" t="n">
-        <v>4.739058971405029</v>
+        <v>5.466426372528076</v>
       </c>
       <c r="F68" t="n">
-        <v>3.709964275360107</v>
+        <v>3.120449781417847</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-7.047840118408203</v>
+        <v>-6.69013786315918</v>
       </c>
       <c r="B69" t="n">
-        <v>-6.897546291351318</v>
+        <v>-6.372045993804932</v>
       </c>
       <c r="C69" t="n">
-        <v>-8.680550575256348</v>
+        <v>-7.331527709960938</v>
       </c>
       <c r="D69" t="n">
-        <v>-9.473365783691406</v>
+        <v>-8.991111755371094</v>
       </c>
       <c r="E69" t="n">
-        <v>5.496612548828125</v>
+        <v>6.079345703125</v>
       </c>
       <c r="F69" t="n">
-        <v>4.379544258117676</v>
+        <v>4.084005355834961</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-8.239521980285645</v>
+        <v>-7.549653053283691</v>
       </c>
       <c r="B70" t="n">
-        <v>-7.899818897247314</v>
+        <v>-7.150858402252197</v>
       </c>
       <c r="C70" t="n">
-        <v>-9.403912544250488</v>
+        <v>-7.898806095123291</v>
       </c>
       <c r="D70" t="n">
-        <v>-10.33938980102539</v>
+        <v>-9.52761173248291</v>
       </c>
       <c r="E70" t="n">
-        <v>6.252317428588867</v>
+        <v>6.951679706573486</v>
       </c>
       <c r="F70" t="n">
-        <v>4.981621265411377</v>
+        <v>4.7611083984375</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-9.290267944335938</v>
+        <v>-8.805550575256348</v>
       </c>
       <c r="B71" t="n">
-        <v>-8.78492546081543</v>
+        <v>-8.040129661560059</v>
       </c>
       <c r="C71" t="n">
-        <v>-10.19818782806396</v>
+        <v>-8.681724548339844</v>
       </c>
       <c r="D71" t="n">
-        <v>-10.96505928039551</v>
+        <v>-9.596804618835449</v>
       </c>
       <c r="E71" t="n">
-        <v>7.077598094940186</v>
+        <v>7.752933979034424</v>
       </c>
       <c r="F71" t="n">
-        <v>5.705459117889404</v>
+        <v>5.654716968536377</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-10.34929847717285</v>
+        <v>-9.449787139892578</v>
       </c>
       <c r="B72" t="n">
-        <v>-9.680813789367676</v>
+        <v>-8.53937816619873</v>
       </c>
       <c r="C72" t="n">
-        <v>-10.77827835083008</v>
+        <v>-9.383413314819336</v>
       </c>
       <c r="D72" t="n">
-        <v>-11.33623313903809</v>
+        <v>-10.1637601852417</v>
       </c>
       <c r="E72" t="n">
-        <v>7.913100242614746</v>
+        <v>8.52630615234375</v>
       </c>
       <c r="F72" t="n">
-        <v>6.66344165802002</v>
+        <v>6.661333084106445</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-11.40730857849121</v>
+        <v>-10.96570205688477</v>
       </c>
       <c r="B73" t="n">
-        <v>-10.66584014892578</v>
+        <v>-9.418940544128418</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.13255310058594</v>
+        <v>-9.641359329223633</v>
       </c>
       <c r="D73" t="n">
-        <v>-11.47954273223877</v>
+        <v>-10.2751579284668</v>
       </c>
       <c r="E73" t="n">
-        <v>8.734615325927734</v>
+        <v>9.423948287963867</v>
       </c>
       <c r="F73" t="n">
-        <v>7.454215049743652</v>
+        <v>7.51221227645874</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-12.48513126373291</v>
+        <v>-11.71698570251465</v>
       </c>
       <c r="B74" t="n">
-        <v>-11.59405708312988</v>
+        <v>-10.62431240081787</v>
       </c>
       <c r="C74" t="n">
-        <v>-11.36863803863525</v>
+        <v>-10.27962493896484</v>
       </c>
       <c r="D74" t="n">
-        <v>-11.42991161346436</v>
+        <v>-10.00512504577637</v>
       </c>
       <c r="E74" t="n">
-        <v>9.441429138183594</v>
+        <v>9.907269477844238</v>
       </c>
       <c r="F74" t="n">
-        <v>8.285085678100586</v>
+        <v>8.775728225708008</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-13.69963932037354</v>
+        <v>-12.70045566558838</v>
       </c>
       <c r="B75" t="n">
-        <v>-12.66109466552734</v>
+        <v>-11.36878681182861</v>
       </c>
       <c r="C75" t="n">
-        <v>-11.29419803619385</v>
+        <v>-10.23712158203125</v>
       </c>
       <c r="D75" t="n">
-        <v>-11.35837173461914</v>
+        <v>-9.994372367858887</v>
       </c>
       <c r="E75" t="n">
-        <v>9.947354316711426</v>
+        <v>10.14383411407471</v>
       </c>
       <c r="F75" t="n">
-        <v>9.110568046569824</v>
+        <v>9.664154052734375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-14.61006641387939</v>
+        <v>-13.98064804077148</v>
       </c>
       <c r="B76" t="n">
-        <v>-13.45529842376709</v>
+        <v>-12.29985237121582</v>
       </c>
       <c r="C76" t="n">
-        <v>-11.18048000335693</v>
+        <v>-10.02153396606445</v>
       </c>
       <c r="D76" t="n">
-        <v>-10.89669036865234</v>
+        <v>-9.816245079040527</v>
       </c>
       <c r="E76" t="n">
-        <v>10.16030883789062</v>
+        <v>10.05152606964111</v>
       </c>
       <c r="F76" t="n">
-        <v>9.618013381958008</v>
+        <v>9.812307357788086</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-15.71580696105957</v>
+        <v>-15.03372001647949</v>
       </c>
       <c r="B77" t="n">
-        <v>-14.42778778076172</v>
+        <v>-13.29705810546875</v>
       </c>
       <c r="C77" t="n">
-        <v>-10.52394771575928</v>
+        <v>-10.23176670074463</v>
       </c>
       <c r="D77" t="n">
-        <v>-10.26277351379395</v>
+        <v>-9.152422904968262</v>
       </c>
       <c r="E77" t="n">
-        <v>9.985769271850586</v>
+        <v>10.02252674102783</v>
       </c>
       <c r="F77" t="n">
-        <v>9.83736515045166</v>
+        <v>10.28942394256592</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-16.39123153686523</v>
+        <v>-16.00586128234863</v>
       </c>
       <c r="B78" t="n">
-        <v>-15.26028442382812</v>
+        <v>-14.29443550109863</v>
       </c>
       <c r="C78" t="n">
-        <v>-9.686729431152344</v>
+        <v>-9.718208312988281</v>
       </c>
       <c r="D78" t="n">
-        <v>-9.316235542297363</v>
+        <v>-8.572510719299316</v>
       </c>
       <c r="E78" t="n">
-        <v>9.110300064086914</v>
+        <v>9.143447875976562</v>
       </c>
       <c r="F78" t="n">
-        <v>9.415904998779297</v>
+        <v>10.45883846282959</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-17.01768112182617</v>
+        <v>-16.92918014526367</v>
       </c>
       <c r="B79" t="n">
-        <v>-15.86617183685303</v>
+        <v>-15.12191963195801</v>
       </c>
       <c r="C79" t="n">
-        <v>-8.458322525024414</v>
+        <v>-8.993710517883301</v>
       </c>
       <c r="D79" t="n">
-        <v>-8.103730201721191</v>
+        <v>-8.021088600158691</v>
       </c>
       <c r="E79" t="n">
-        <v>7.316441059112549</v>
+        <v>7.988753795623779</v>
       </c>
       <c r="F79" t="n">
-        <v>7.939321994781494</v>
+        <v>9.4825439453125</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-17.17639541625977</v>
+        <v>-17.00542259216309</v>
       </c>
       <c r="B80" t="n">
-        <v>-16.105224609375</v>
+        <v>-16.08379745483398</v>
       </c>
       <c r="C80" t="n">
-        <v>-6.736631870269775</v>
+        <v>-7.7532958984375</v>
       </c>
       <c r="D80" t="n">
-        <v>-6.456253051757812</v>
+        <v>-6.79273796081543</v>
       </c>
       <c r="E80" t="n">
-        <v>4.210958480834961</v>
+        <v>5.56270170211792</v>
       </c>
       <c r="F80" t="n">
-        <v>5.031567096710205</v>
+        <v>7.152163028717041</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-16.57947158813477</v>
+        <v>-16.9591178894043</v>
       </c>
       <c r="B81" t="n">
-        <v>-16.05821990966797</v>
+        <v>-15.88243389129639</v>
       </c>
       <c r="C81" t="n">
-        <v>-4.370979785919189</v>
+        <v>-5.837316989898682</v>
       </c>
       <c r="D81" t="n">
-        <v>-4.143986701965332</v>
+        <v>-4.979803085327148</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4986613690853119</v>
+        <v>1.219875574111938</v>
       </c>
       <c r="F81" t="n">
-        <v>0.4219376146793365</v>
+        <v>3.143426656723022</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-15.23835945129395</v>
+        <v>-16.0791130065918</v>
       </c>
       <c r="B82" t="n">
-        <v>-15.1920051574707</v>
+        <v>-15.63711357116699</v>
       </c>
       <c r="C82" t="n">
-        <v>-1.111027240753174</v>
+        <v>-2.377837181091309</v>
       </c>
       <c r="D82" t="n">
-        <v>-1.004055380821228</v>
+        <v>-2.015813589096069</v>
       </c>
       <c r="E82" t="n">
-        <v>-6.425695419311523</v>
+        <v>-4.755552768707275</v>
       </c>
       <c r="F82" t="n">
-        <v>-5.2242112159729</v>
+        <v>-2.435942888259888</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-13.4457426071167</v>
+        <v>-14.15417957305908</v>
       </c>
       <c r="B83" t="n">
-        <v>-13.54946804046631</v>
+        <v>-14.40491199493408</v>
       </c>
       <c r="C83" t="n">
-        <v>3.052305936813354</v>
+        <v>1.524374961853027</v>
       </c>
       <c r="D83" t="n">
-        <v>3.013284206390381</v>
+        <v>1.635080456733704</v>
       </c>
       <c r="E83" t="n">
-        <v>-12.40188026428223</v>
+        <v>-11.66128349304199</v>
       </c>
       <c r="F83" t="n">
-        <v>-10.97545909881592</v>
+        <v>-8.758801460266113</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-10.75227642059326</v>
+        <v>-11.40533447265625</v>
       </c>
       <c r="B84" t="n">
-        <v>-11.2619104385376</v>
+        <v>-11.80103206634521</v>
       </c>
       <c r="C84" t="n">
-        <v>7.951696872711182</v>
+        <v>6.455799102783203</v>
       </c>
       <c r="D84" t="n">
-        <v>7.795114517211914</v>
+        <v>6.500348091125488</v>
       </c>
       <c r="E84" t="n">
-        <v>-16.76828956604004</v>
+        <v>-17.51198387145996</v>
       </c>
       <c r="F84" t="n">
-        <v>-14.91227722167969</v>
+        <v>-13.69097805023193</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-7.543382167816162</v>
+        <v>-8.055465698242188</v>
       </c>
       <c r="B85" t="n">
-        <v>-8.474202156066895</v>
+        <v>-8.975065231323242</v>
       </c>
       <c r="C85" t="n">
-        <v>13.34401416778564</v>
+        <v>12.43771743774414</v>
       </c>
       <c r="D85" t="n">
-        <v>12.66931247711182</v>
+        <v>11.7734260559082</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.77138519287109</v>
+        <v>-20.75842666625977</v>
       </c>
       <c r="F85" t="n">
-        <v>-16.37369346618652</v>
+        <v>-16.32530212402344</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>-3.945374011993408</v>
+        <v>-4.346355438232422</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.49501895904541</v>
+        <v>-6.091963768005371</v>
       </c>
       <c r="C86" t="n">
-        <v>18.2923583984375</v>
+        <v>17.5194206237793</v>
       </c>
       <c r="D86" t="n">
-        <v>17.39620590209961</v>
+        <v>16.61363220214844</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.83490562438965</v>
+        <v>-20.43517875671387</v>
       </c>
       <c r="F86" t="n">
-        <v>-15.21158027648926</v>
+        <v>-16.03951835632324</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>-0.3582722842693329</v>
+        <v>-0.3769974410533905</v>
       </c>
       <c r="B87" t="n">
-        <v>-2.457247495651245</v>
+        <v>-2.760195732116699</v>
       </c>
       <c r="C87" t="n">
-        <v>22.76559638977051</v>
+        <v>22.48942375183105</v>
       </c>
       <c r="D87" t="n">
-        <v>21.5716438293457</v>
+        <v>21.24434089660645</v>
       </c>
       <c r="E87" t="n">
-        <v>-14.49355316162109</v>
+        <v>-16.8174877166748</v>
       </c>
       <c r="F87" t="n">
-        <v>-12.11962890625</v>
+        <v>-13.39235687255859</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>3.043221950531006</v>
+        <v>3.31554102897644</v>
       </c>
       <c r="B88" t="n">
-        <v>0.383703351020813</v>
+        <v>0.3025659322738647</v>
       </c>
       <c r="C88" t="n">
-        <v>25.55950736999512</v>
+        <v>25.65264701843262</v>
       </c>
       <c r="D88" t="n">
-        <v>23.99754524230957</v>
+        <v>23.75259780883789</v>
       </c>
       <c r="E88" t="n">
-        <v>-10.07067012786865</v>
+        <v>-11.56166553497314</v>
       </c>
       <c r="F88" t="n">
-        <v>-8.555360794067383</v>
+        <v>-9.674951553344727</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6.036182403564453</v>
+        <v>6.490640640258789</v>
       </c>
       <c r="B89" t="n">
-        <v>2.880587816238403</v>
+        <v>2.610145807266235</v>
       </c>
       <c r="C89" t="n">
-        <v>26.6490592956543</v>
+        <v>27.04930114746094</v>
       </c>
       <c r="D89" t="n">
-        <v>24.5587100982666</v>
+        <v>24.66131401062012</v>
       </c>
       <c r="E89" t="n">
-        <v>-5.717004299163818</v>
+        <v>-6.479400634765625</v>
       </c>
       <c r="F89" t="n">
-        <v>-5.109330654144287</v>
+        <v>-5.729092597961426</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>8.505295753479004</v>
+        <v>9.017548561096191</v>
       </c>
       <c r="B90" t="n">
-        <v>4.944416999816895</v>
+        <v>4.816739082336426</v>
       </c>
       <c r="C90" t="n">
-        <v>26.11122131347656</v>
+        <v>26.25948715209961</v>
       </c>
       <c r="D90" t="n">
-        <v>23.89210510253906</v>
+        <v>23.89383316040039</v>
       </c>
       <c r="E90" t="n">
-        <v>-2.009700775146484</v>
+        <v>-2.100101947784424</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.149553060531616</v>
+        <v>-2.684823274612427</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10.48141956329346</v>
+        <v>11.0226993560791</v>
       </c>
       <c r="B91" t="n">
-        <v>6.532223701477051</v>
+        <v>6.096802234649658</v>
       </c>
       <c r="C91" t="n">
-        <v>24.60998153686523</v>
+        <v>24.77558326721191</v>
       </c>
       <c r="D91" t="n">
-        <v>22.05268859863281</v>
+        <v>21.83043098449707</v>
       </c>
       <c r="E91" t="n">
-        <v>0.8067715167999268</v>
+        <v>1.232207417488098</v>
       </c>
       <c r="F91" t="n">
-        <v>0.2003446668386459</v>
+        <v>0.01103955321013927</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>11.88993167877197</v>
+        <v>12.68693161010742</v>
       </c>
       <c r="B92" t="n">
-        <v>7.677956581115723</v>
+        <v>7.247369766235352</v>
       </c>
       <c r="C92" t="n">
-        <v>21.58121299743652</v>
+        <v>21.76736450195312</v>
       </c>
       <c r="D92" t="n">
-        <v>18.55608177185059</v>
+        <v>18.01114463806152</v>
       </c>
       <c r="E92" t="n">
-        <v>2.86896800994873</v>
+        <v>3.463328838348389</v>
       </c>
       <c r="F92" t="n">
-        <v>1.83187997341156</v>
+        <v>1.626171946525574</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>13.00917434692383</v>
+        <v>13.48038101196289</v>
       </c>
       <c r="B93" t="n">
-        <v>8.421159744262695</v>
+        <v>7.829037666320801</v>
       </c>
       <c r="C93" t="n">
-        <v>17.18140983581543</v>
+        <v>17.36348152160645</v>
       </c>
       <c r="D93" t="n">
-        <v>14.53037261962891</v>
+        <v>13.64603710174561</v>
       </c>
       <c r="E93" t="n">
-        <v>4.074982166290283</v>
+        <v>4.873055934906006</v>
       </c>
       <c r="F93" t="n">
-        <v>2.918511152267456</v>
+        <v>2.601170778274536</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>13.47536945343018</v>
+        <v>14.27907562255859</v>
       </c>
       <c r="B94" t="n">
-        <v>8.80738639831543</v>
+        <v>8.294339179992676</v>
       </c>
       <c r="C94" t="n">
-        <v>12.10122966766357</v>
+        <v>12.42916870117188</v>
       </c>
       <c r="D94" t="n">
-        <v>9.825661659240723</v>
+        <v>9.020261764526367</v>
       </c>
       <c r="E94" t="n">
-        <v>4.45268726348877</v>
+        <v>5.271193504333496</v>
       </c>
       <c r="F94" t="n">
-        <v>3.368767261505127</v>
+        <v>3.025426864624023</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>13.74505424499512</v>
+        <v>14.29341983795166</v>
       </c>
       <c r="B95" t="n">
-        <v>9.12968921661377</v>
+        <v>8.834251403808594</v>
       </c>
       <c r="C95" t="n">
-        <v>6.643500328063965</v>
+        <v>6.523654937744141</v>
       </c>
       <c r="D95" t="n">
-        <v>4.848703384399414</v>
+        <v>4.095461845397949</v>
       </c>
       <c r="E95" t="n">
-        <v>3.955768585205078</v>
+        <v>4.496324062347412</v>
       </c>
       <c r="F95" t="n">
-        <v>3.037833213806152</v>
+        <v>2.780982971191406</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>13.89768505096436</v>
+        <v>14.97668838500977</v>
       </c>
       <c r="B96" t="n">
-        <v>9.176111221313477</v>
+        <v>9.069151878356934</v>
       </c>
       <c r="C96" t="n">
-        <v>1.239126443862915</v>
+        <v>1.174613475799561</v>
       </c>
       <c r="D96" t="n">
-        <v>-0.1141182407736778</v>
+        <v>-0.7150819301605225</v>
       </c>
       <c r="E96" t="n">
-        <v>2.744166374206543</v>
+        <v>2.814511299133301</v>
       </c>
       <c r="F96" t="n">
-        <v>2.261119842529297</v>
+        <v>1.717694282531738</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>14.0551176071167</v>
+        <v>15.19629383087158</v>
       </c>
       <c r="B97" t="n">
-        <v>9.133540153503418</v>
+        <v>9.643021583557129</v>
       </c>
       <c r="C97" t="n">
-        <v>-3.70074987411499</v>
+        <v>-3.82706618309021</v>
       </c>
       <c r="D97" t="n">
-        <v>-4.84426736831665</v>
+        <v>-4.92669677734375</v>
       </c>
       <c r="E97" t="n">
-        <v>1.164270997047424</v>
+        <v>0.5998271107673645</v>
       </c>
       <c r="F97" t="n">
-        <v>1.315661907196045</v>
+        <v>0.6308005452156067</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>14.30397415161133</v>
+        <v>15.54562282562256</v>
       </c>
       <c r="B98" t="n">
-        <v>9.051115989685059</v>
+        <v>9.715756416320801</v>
       </c>
       <c r="C98" t="n">
-        <v>-7.805994033813477</v>
+        <v>-7.93299388885498</v>
       </c>
       <c r="D98" t="n">
-        <v>-8.816908836364746</v>
+        <v>-8.256430625915527</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.1977511793375015</v>
+        <v>-1.30414354801178</v>
       </c>
       <c r="F98" t="n">
-        <v>0.5145432353019714</v>
+        <v>-0.4291306734085083</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>14.40856075286865</v>
+        <v>16.19160079956055</v>
       </c>
       <c r="B99" t="n">
-        <v>8.76964282989502</v>
+        <v>9.416159629821777</v>
       </c>
       <c r="C99" t="n">
-        <v>-10.88763523101807</v>
+        <v>-10.92736625671387</v>
       </c>
       <c r="D99" t="n">
-        <v>-12.11775970458984</v>
+        <v>-10.88631153106689</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.354658603668213</v>
+        <v>-2.825003385543823</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.03171706572175026</v>
+        <v>-1.091348052024841</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>15.0683765411377</v>
+        <v>17.48037910461426</v>
       </c>
       <c r="B100" t="n">
-        <v>8.531998634338379</v>
+        <v>9.409050941467285</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.69558811187744</v>
+        <v>-12.466139793396</v>
       </c>
       <c r="D100" t="n">
-        <v>-14.24207496643066</v>
+        <v>-13.82167053222656</v>
       </c>
       <c r="E100" t="n">
-        <v>-2.543477535247803</v>
+        <v>-3.965427160263062</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.8079475164413452</v>
+        <v>-1.742361307144165</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>15.44327831268311</v>
+        <v>17.86520195007324</v>
       </c>
       <c r="B101" t="n">
-        <v>8.091067314147949</v>
+        <v>8.823516845703125</v>
       </c>
       <c r="C101" t="n">
-        <v>-13.28102684020996</v>
+        <v>-13.40946674346924</v>
       </c>
       <c r="D101" t="n">
-        <v>-15.12044239044189</v>
+        <v>-14.78706645965576</v>
       </c>
       <c r="E101" t="n">
-        <v>-3.678704500198364</v>
+        <v>-4.823395729064941</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.629477143287659</v>
+        <v>-2.304963827133179</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>13.67241287231445</v>
+        <v>15.37077617645264</v>
       </c>
       <c r="B102" t="n">
-        <v>8.057120323181152</v>
+        <v>8.830492973327637</v>
       </c>
       <c r="C102" t="n">
-        <v>-12.75758171081543</v>
+        <v>-13.12543296813965</v>
       </c>
       <c r="D102" t="n">
-        <v>-14.25877571105957</v>
+        <v>-14.17963218688965</v>
       </c>
       <c r="E102" t="n">
-        <v>-4.08627462387085</v>
+        <v>-5.000736713409424</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.97175407409668</v>
+        <v>-2.364974498748779</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>9.355244636535645</v>
+        <v>9.483360290527344</v>
       </c>
       <c r="B103" t="n">
-        <v>8.818221092224121</v>
+        <v>8.881462097167969</v>
       </c>
       <c r="C103" t="n">
-        <v>-11.96041393280029</v>
+        <v>-11.99319076538086</v>
       </c>
       <c r="D103" t="n">
-        <v>-12.01193237304688</v>
+        <v>-11.87849903106689</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.408900022506714</v>
+        <v>-3.528200626373291</v>
       </c>
       <c r="F103" t="n">
-        <v>-1.786110162734985</v>
+        <v>-1.935204982757568</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.640161514282227</v>
+        <v>10.48410987854004</v>
       </c>
       <c r="B104" t="n">
-        <v>9.125264167785645</v>
+        <v>9.325589179992676</v>
       </c>
       <c r="C104" t="n">
-        <v>-4.743155956268311</v>
+        <v>-3.399501323699951</v>
       </c>
       <c r="D104" t="n">
-        <v>-4.598495483398438</v>
+        <v>-2.53804349899292</v>
       </c>
       <c r="E104" t="n">
-        <v>-6.239641666412354</v>
+        <v>-7.674709796905518</v>
       </c>
       <c r="F104" t="n">
-        <v>-6.086666107177734</v>
+        <v>-6.049263954162598</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>11.14184188842773</v>
+        <v>12.48890209197998</v>
       </c>
       <c r="B105" t="n">
-        <v>9.91858959197998</v>
+        <v>10.39070892333984</v>
       </c>
       <c r="C105" t="n">
-        <v>-1.366416811943054</v>
+        <v>0.8905632495880127</v>
       </c>
       <c r="D105" t="n">
-        <v>-1.417681694030762</v>
+        <v>1.101038336753845</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.086072444915771</v>
+        <v>-9.083757400512695</v>
       </c>
       <c r="F105" t="n">
-        <v>-7.098231792449951</v>
+        <v>-7.007208347320557</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>11.5005578994751</v>
+        <v>12.95178127288818</v>
       </c>
       <c r="B106" t="n">
-        <v>10.01717853546143</v>
+        <v>10.48438835144043</v>
       </c>
       <c r="C106" t="n">
-        <v>1.093936443328857</v>
+        <v>3.595568895339966</v>
       </c>
       <c r="D106" t="n">
-        <v>0.7784432768821716</v>
+        <v>2.909193277359009</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.491776943206787</v>
+        <v>-8.381094932556152</v>
       </c>
       <c r="F106" t="n">
-        <v>-6.847897052764893</v>
+        <v>-7.153197288513184</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.56022071838379</v>
+        <v>11.79237842559814</v>
       </c>
       <c r="B107" t="n">
-        <v>9.203034400939941</v>
+        <v>9.17420768737793</v>
       </c>
       <c r="C107" t="n">
-        <v>2.159547328948975</v>
+        <v>4.399989128112793</v>
       </c>
       <c r="D107" t="n">
-        <v>1.939974188804626</v>
+        <v>3.455252647399902</v>
       </c>
       <c r="E107" t="n">
-        <v>-5.010568618774414</v>
+        <v>-6.139415740966797</v>
       </c>
       <c r="F107" t="n">
-        <v>-5.65654468536377</v>
+        <v>-5.910550117492676</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.05258846282959</v>
+        <v>9.712878227233887</v>
       </c>
       <c r="B108" t="n">
-        <v>8.080076217651367</v>
+        <v>7.6827392578125</v>
       </c>
       <c r="C108" t="n">
-        <v>2.293183326721191</v>
+        <v>3.738796472549438</v>
       </c>
       <c r="D108" t="n">
-        <v>2.423027038574219</v>
+        <v>3.454444408416748</v>
       </c>
       <c r="E108" t="n">
-        <v>-3.415583372116089</v>
+        <v>-4.030167579650879</v>
       </c>
       <c r="F108" t="n">
-        <v>-3.935258865356445</v>
+        <v>-4.610262870788574</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>7.430898666381836</v>
+        <v>7.73284912109375</v>
       </c>
       <c r="B109" t="n">
-        <v>6.891344547271729</v>
+        <v>6.510682582855225</v>
       </c>
       <c r="C109" t="n">
-        <v>1.773797273635864</v>
+        <v>2.55412745475769</v>
       </c>
       <c r="D109" t="n">
-        <v>2.411393642425537</v>
+        <v>3.220392227172852</v>
       </c>
       <c r="E109" t="n">
-        <v>-2.09713339805603</v>
+        <v>-2.634597778320312</v>
       </c>
       <c r="F109" t="n">
-        <v>-2.276627540588379</v>
+        <v>-2.968990325927734</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>5.929250717163086</v>
+        <v>6.032816410064697</v>
       </c>
       <c r="B110" t="n">
-        <v>5.665913105010986</v>
+        <v>5.693321228027344</v>
       </c>
       <c r="C110" t="n">
-        <v>0.9663469791412354</v>
+        <v>1.514949560165405</v>
       </c>
       <c r="D110" t="n">
-        <v>1.794400095939636</v>
+        <v>2.580707788467407</v>
       </c>
       <c r="E110" t="n">
-        <v>-1.154363393783569</v>
+        <v>-1.907326102256775</v>
       </c>
       <c r="F110" t="n">
-        <v>-0.8546371459960938</v>
+        <v>-1.687258720397949</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>4.410820960998535</v>
+        <v>4.654659271240234</v>
       </c>
       <c r="B111" t="n">
-        <v>4.344352722167969</v>
+        <v>4.353955268859863</v>
       </c>
       <c r="C111" t="n">
-        <v>-0.01600444503128529</v>
+        <v>0.4337717294692993</v>
       </c>
       <c r="D111" t="n">
-        <v>1.071191191673279</v>
+        <v>1.44031035900116</v>
       </c>
       <c r="E111" t="n">
-        <v>-0.3845112025737762</v>
+        <v>-1.088129997253418</v>
       </c>
       <c r="F111" t="n">
-        <v>0.1917238235473633</v>
+        <v>-0.6026376485824585</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>3.026797771453857</v>
+        <v>3.159752130508423</v>
       </c>
       <c r="B112" t="n">
-        <v>2.95912766456604</v>
+        <v>3.137341499328613</v>
       </c>
       <c r="C112" t="n">
-        <v>-0.9621230363845825</v>
+        <v>-0.6092013716697693</v>
       </c>
       <c r="D112" t="n">
-        <v>-0.05814256519079208</v>
+        <v>0.4770326912403107</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2679827809333801</v>
+        <v>-0.2648349702358246</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9621928334236145</v>
+        <v>0.205524817109108</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>1.651305675506592</v>
+        <v>2.121693849563599</v>
       </c>
       <c r="B113" t="n">
-        <v>1.552531957626343</v>
+        <v>1.842095851898193</v>
       </c>
       <c r="C113" t="n">
-        <v>-2.101616382598877</v>
+        <v>-1.641792297363281</v>
       </c>
       <c r="D113" t="n">
-        <v>-1.179687142372131</v>
+        <v>-0.7400507926940918</v>
       </c>
       <c r="E113" t="n">
-        <v>0.8743546605110168</v>
+        <v>0.471040815114975</v>
       </c>
       <c r="F113" t="n">
-        <v>1.463791728019714</v>
+        <v>0.6975140571594238</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.3232479989528656</v>
+        <v>0.7628490328788757</v>
       </c>
       <c r="B114" t="n">
-        <v>0.2331943660974503</v>
+        <v>0.3869388103485107</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.074543952941895</v>
+        <v>-2.007627248764038</v>
       </c>
       <c r="D114" t="n">
-        <v>-2.585203409194946</v>
+        <v>-2.105626583099365</v>
       </c>
       <c r="E114" t="n">
-        <v>1.459229826927185</v>
+        <v>1.214976191520691</v>
       </c>
       <c r="F114" t="n">
-        <v>1.942812561988831</v>
+        <v>1.104103088378906</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.8877914547920227</v>
+        <v>-0.6524025201797485</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.9765660762786865</v>
+        <v>-1.040745973587036</v>
       </c>
       <c r="C115" t="n">
-        <v>-4.217790126800537</v>
+        <v>-3.018205881118774</v>
       </c>
       <c r="D115" t="n">
-        <v>-3.84847617149353</v>
+        <v>-3.444915294647217</v>
       </c>
       <c r="E115" t="n">
-        <v>2.062503099441528</v>
+        <v>2.051145315170288</v>
       </c>
       <c r="F115" t="n">
-        <v>2.258992671966553</v>
+        <v>1.28094470500946</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.25064754486084</v>
+        <v>-1.700719833374023</v>
       </c>
       <c r="B116" t="n">
-        <v>-2.085314989089966</v>
+        <v>-2.107547283172607</v>
       </c>
       <c r="C116" t="n">
-        <v>-5.299694061279297</v>
+        <v>-3.938732385635376</v>
       </c>
       <c r="D116" t="n">
-        <v>-5.10753059387207</v>
+        <v>-4.614993095397949</v>
       </c>
       <c r="E116" t="n">
-        <v>2.691802263259888</v>
+        <v>2.955081701278687</v>
       </c>
       <c r="F116" t="n">
-        <v>2.628353595733643</v>
+        <v>1.652401566505432</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-3.565223455429077</v>
+        <v>-3.112793684005737</v>
       </c>
       <c r="B117" t="n">
-        <v>-3.353042840957642</v>
+        <v>-3.235613822937012</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.306215763092041</v>
+        <v>-5.145914077758789</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.300848960876465</v>
+        <v>-5.983418464660645</v>
       </c>
       <c r="E117" t="n">
-        <v>3.303179025650024</v>
+        <v>3.667318344116211</v>
       </c>
       <c r="F117" t="n">
-        <v>2.996398448944092</v>
+        <v>1.987943172454834</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-4.766371726989746</v>
+        <v>-4.526500225067139</v>
       </c>
       <c r="B118" t="n">
-        <v>-4.560576438903809</v>
+        <v>-4.279808521270752</v>
       </c>
       <c r="C118" t="n">
-        <v>-7.322465896606445</v>
+        <v>-5.888216495513916</v>
       </c>
       <c r="D118" t="n">
-        <v>-7.505821228027344</v>
+        <v>-6.90286111831665</v>
       </c>
       <c r="E118" t="n">
-        <v>3.920947313308716</v>
+        <v>4.51197624206543</v>
       </c>
       <c r="F118" t="n">
-        <v>3.424608945846558</v>
+        <v>2.57932448387146</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-6.041769981384277</v>
+        <v>-5.580755710601807</v>
       </c>
       <c r="B119" t="n">
-        <v>-5.727911472320557</v>
+        <v>-5.407250881195068</v>
       </c>
       <c r="C119" t="n">
-        <v>-8.199365615844727</v>
+        <v>-6.631094455718994</v>
       </c>
       <c r="D119" t="n">
-        <v>-8.648832321166992</v>
+        <v>-7.944167613983154</v>
       </c>
       <c r="E119" t="n">
-        <v>4.554488658905029</v>
+        <v>5.430510520935059</v>
       </c>
       <c r="F119" t="n">
-        <v>3.902766942977905</v>
+        <v>3.185502052307129</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-7.147710800170898</v>
+        <v>-6.741590976715088</v>
       </c>
       <c r="B120" t="n">
-        <v>-6.931710243225098</v>
+        <v>-6.375390529632568</v>
       </c>
       <c r="C120" t="n">
-        <v>-9.064497947692871</v>
+        <v>-7.48972225189209</v>
       </c>
       <c r="D120" t="n">
-        <v>-9.592489242553711</v>
+        <v>-9.00617504119873</v>
       </c>
       <c r="E120" t="n">
-        <v>5.274837017059326</v>
+        <v>6.05044412612915</v>
       </c>
       <c r="F120" t="n">
-        <v>4.495465755462646</v>
+        <v>4.123734474182129</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-8.337216377258301</v>
+        <v>-7.623605251312256</v>
       </c>
       <c r="B121" t="n">
-        <v>-7.965075016021729</v>
+        <v>-7.16136646270752</v>
       </c>
       <c r="C121" t="n">
-        <v>-9.792984962463379</v>
+        <v>-8.003780364990234</v>
       </c>
       <c r="D121" t="n">
-        <v>-10.47424793243408</v>
+        <v>-9.522902488708496</v>
       </c>
       <c r="E121" t="n">
-        <v>6.014940738677979</v>
+        <v>6.93854284286499</v>
       </c>
       <c r="F121" t="n">
-        <v>5.024758815765381</v>
+        <v>4.838983535766602</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-9.396910667419434</v>
+        <v>-8.814139366149902</v>
       </c>
       <c r="B122" t="n">
-        <v>-8.886927604675293</v>
+        <v>-8.053384780883789</v>
       </c>
       <c r="C122" t="n">
-        <v>-10.56612491607666</v>
+        <v>-8.812789916992188</v>
       </c>
       <c r="D122" t="n">
-        <v>-11.13674640655518</v>
+        <v>-9.658717155456543</v>
       </c>
       <c r="E122" t="n">
-        <v>6.817609310150146</v>
+        <v>7.73708438873291</v>
       </c>
       <c r="F122" t="n">
-        <v>5.686772346496582</v>
+        <v>5.632926464080811</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-10.46360969543457</v>
+        <v>-9.494240760803223</v>
       </c>
       <c r="B123" t="n">
-        <v>-9.808777809143066</v>
+        <v>-8.560903549194336</v>
       </c>
       <c r="C123" t="n">
-        <v>-11.12290668487549</v>
+        <v>-9.43055248260498</v>
       </c>
       <c r="D123" t="n">
-        <v>-11.52001190185547</v>
+        <v>-10.12893962860107</v>
       </c>
       <c r="E123" t="n">
-        <v>7.638586521148682</v>
+        <v>8.52592658996582</v>
       </c>
       <c r="F123" t="n">
-        <v>6.557475090026855</v>
+        <v>6.690057277679443</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-11.51415824890137</v>
+        <v>-10.91685581207275</v>
       </c>
       <c r="B124" t="n">
-        <v>-10.80202579498291</v>
+        <v>-9.431222915649414</v>
       </c>
       <c r="C124" t="n">
-        <v>-11.46307945251465</v>
+        <v>-9.700081825256348</v>
       </c>
       <c r="D124" t="n">
-        <v>-11.70153522491455</v>
+        <v>-10.24433517456055</v>
       </c>
       <c r="E124" t="n">
-        <v>8.45429801940918</v>
+        <v>9.371753692626953</v>
       </c>
       <c r="F124" t="n">
-        <v>7.301663398742676</v>
+        <v>7.536073207855225</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-12.60447978973389</v>
+        <v>-11.69527149200439</v>
       </c>
       <c r="B125" t="n">
-        <v>-11.75652503967285</v>
+        <v>-10.58434295654297</v>
       </c>
       <c r="C125" t="n">
-        <v>-11.65990257263184</v>
+        <v>-10.29997539520264</v>
       </c>
       <c r="D125" t="n">
-        <v>-11.64731311798096</v>
+        <v>-10.05466556549072</v>
       </c>
       <c r="E125" t="n">
-        <v>9.166094779968262</v>
+        <v>9.863956451416016</v>
       </c>
       <c r="F125" t="n">
-        <v>8.069657325744629</v>
+        <v>8.752167701721191</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-13.77931594848633</v>
+        <v>-12.71415519714355</v>
       </c>
       <c r="B126" t="n">
-        <v>-12.82521438598633</v>
+        <v>-11.38637542724609</v>
       </c>
       <c r="C126" t="n">
-        <v>-11.56434631347656</v>
+        <v>-10.28265285491943</v>
       </c>
       <c r="D126" t="n">
-        <v>-11.54239749908447</v>
+        <v>-9.917037963867188</v>
       </c>
       <c r="E126" t="n">
-        <v>9.717695236206055</v>
+        <v>10.11722469329834</v>
       </c>
       <c r="F126" t="n">
-        <v>8.82575511932373</v>
+        <v>9.611382484436035</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-14.70047664642334</v>
+        <v>-13.93947315216064</v>
       </c>
       <c r="B127" t="n">
-        <v>-13.61216640472412</v>
+        <v>-12.3208646774292</v>
       </c>
       <c r="C127" t="n">
-        <v>-11.39290332794189</v>
+        <v>-10.09124851226807</v>
       </c>
       <c r="D127" t="n">
-        <v>-11.06868839263916</v>
+        <v>-9.78834056854248</v>
       </c>
       <c r="E127" t="n">
-        <v>9.977328300476074</v>
+        <v>9.999568939208984</v>
       </c>
       <c r="F127" t="n">
-        <v>9.311094284057617</v>
+        <v>9.749404907226562</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-15.77443981170654</v>
+        <v>-15.01902294158936</v>
       </c>
       <c r="B128" t="n">
-        <v>-14.55492782592773</v>
+        <v>-13.28041172027588</v>
       </c>
       <c r="C128" t="n">
-        <v>-10.67654228210449</v>
+        <v>-10.31973838806152</v>
       </c>
       <c r="D128" t="n">
-        <v>-10.38294696807861</v>
+        <v>-9.208353996276855</v>
       </c>
       <c r="E128" t="n">
-        <v>9.825814247131348</v>
+        <v>9.937640190124512</v>
       </c>
       <c r="F128" t="n">
-        <v>9.469941139221191</v>
+        <v>10.16779041290283</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-16.42165756225586</v>
+        <v>-16.02792739868164</v>
       </c>
       <c r="B129" t="n">
-        <v>-15.36846351623535</v>
+        <v>-14.28759860992432</v>
       </c>
       <c r="C129" t="n">
-        <v>-9.752799987792969</v>
+        <v>-9.818880081176758</v>
       </c>
       <c r="D129" t="n">
-        <v>-9.394511222839355</v>
+        <v>-8.651454925537109</v>
       </c>
       <c r="E129" t="n">
-        <v>8.906699180603027</v>
+        <v>9.072812080383301</v>
       </c>
       <c r="F129" t="n">
-        <v>8.956767082214355</v>
+        <v>10.29851627349854</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-17.00461387634277</v>
+        <v>-16.96121978759766</v>
       </c>
       <c r="B130" t="n">
-        <v>-15.95463275909424</v>
+        <v>-15.16847515106201</v>
       </c>
       <c r="C130" t="n">
-        <v>-8.413665771484375</v>
+        <v>-9.122220993041992</v>
       </c>
       <c r="D130" t="n">
-        <v>-8.113460540771484</v>
+        <v>-8.088159561157227</v>
       </c>
       <c r="E130" t="n">
-        <v>7.016334533691406</v>
+        <v>7.919986724853516</v>
       </c>
       <c r="F130" t="n">
-        <v>7.329574584960938</v>
+        <v>9.321002960205078</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-17.11863136291504</v>
+        <v>-17.08123588562012</v>
       </c>
       <c r="B131" t="n">
-        <v>-16.11875915527344</v>
+        <v>-16.10076904296875</v>
       </c>
       <c r="C131" t="n">
-        <v>-6.56854772567749</v>
+        <v>-7.910142421722412</v>
       </c>
       <c r="D131" t="n">
-        <v>-6.397441864013672</v>
+        <v>-6.914795398712158</v>
       </c>
       <c r="E131" t="n">
-        <v>3.796025991439819</v>
+        <v>5.568460941314697</v>
       </c>
       <c r="F131" t="n">
-        <v>4.244622707366943</v>
+        <v>7.023977756500244</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-16.4841480255127</v>
+        <v>-17.01811790466309</v>
       </c>
       <c r="B132" t="n">
-        <v>-15.97280883789062</v>
+        <v>-15.9382963180542</v>
       </c>
       <c r="C132" t="n">
-        <v>-4.083075046539307</v>
+        <v>-6.030845642089844</v>
       </c>
       <c r="D132" t="n">
-        <v>-4.008823871612549</v>
+        <v>-5.175125598907471</v>
       </c>
       <c r="E132" t="n">
-        <v>-0.9063402414321899</v>
+        <v>1.34893262386322</v>
       </c>
       <c r="F132" t="n">
-        <v>-0.5047239065170288</v>
+        <v>2.971790790557861</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-15.08931732177734</v>
+        <v>-16.19390106201172</v>
       </c>
       <c r="B133" t="n">
-        <v>-15.06479167938232</v>
+        <v>-15.63751029968262</v>
       </c>
       <c r="C133" t="n">
-        <v>-0.7192946076393127</v>
+        <v>-2.63121223449707</v>
       </c>
       <c r="D133" t="n">
-        <v>-0.8052138686180115</v>
+        <v>-2.257089614868164</v>
       </c>
       <c r="E133" t="n">
-        <v>-6.605620384216309</v>
+        <v>-4.569389820098877</v>
       </c>
       <c r="F133" t="n">
-        <v>-6.124537467956543</v>
+        <v>-2.550842046737671</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-13.25154685974121</v>
+        <v>-14.27073860168457</v>
       </c>
       <c r="B134" t="n">
-        <v>-13.38347816467285</v>
+        <v>-14.4343318939209</v>
       </c>
       <c r="C134" t="n">
-        <v>3.502221822738647</v>
+        <v>1.3658766746521</v>
       </c>
       <c r="D134" t="n">
-        <v>3.25828218460083</v>
+        <v>1.383708357810974</v>
       </c>
       <c r="E134" t="n">
-        <v>-12.27622318267822</v>
+        <v>-11.37954139709473</v>
       </c>
       <c r="F134" t="n">
-        <v>-11.60452556610107</v>
+        <v>-8.905113220214844</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-10.5764856338501</v>
+        <v>-11.48528480529785</v>
       </c>
       <c r="B135" t="n">
-        <v>-11.09206962585449</v>
+        <v>-11.85171985626221</v>
       </c>
       <c r="C135" t="n">
-        <v>8.414502143859863</v>
+        <v>6.338817596435547</v>
       </c>
       <c r="D135" t="n">
-        <v>8.039693832397461</v>
+        <v>6.235413074493408</v>
       </c>
       <c r="E135" t="n">
-        <v>-16.28301048278809</v>
+        <v>-17.31962013244629</v>
       </c>
       <c r="F135" t="n">
-        <v>-15.21158313751221</v>
+        <v>-13.80893421173096</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-7.39323091506958</v>
+        <v>-8.123926162719727</v>
       </c>
       <c r="B136" t="n">
-        <v>-8.314391136169434</v>
+        <v>-8.99013614654541</v>
       </c>
       <c r="C136" t="n">
-        <v>13.74580860137939</v>
+        <v>12.39701557159424</v>
       </c>
       <c r="D136" t="n">
-        <v>12.87789821624756</v>
+        <v>11.5172061920166</v>
       </c>
       <c r="E136" t="n">
-        <v>-18.07111930847168</v>
+        <v>-20.70051956176758</v>
       </c>
       <c r="F136" t="n">
-        <v>-16.3440113067627</v>
+        <v>-16.41035270690918</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-3.869448184967041</v>
+        <v>-4.399021148681641</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.373434543609619</v>
+        <v>-6.072877883911133</v>
       </c>
       <c r="C137" t="n">
-        <v>18.57544898986816</v>
+        <v>17.5320930480957</v>
       </c>
       <c r="D137" t="n">
-        <v>17.55210876464844</v>
+        <v>16.50884628295898</v>
       </c>
       <c r="E137" t="n">
-        <v>-17.05375289916992</v>
+        <v>-20.43916320800781</v>
       </c>
       <c r="F137" t="n">
-        <v>-14.97352695465088</v>
+        <v>-16.07945442199707</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>-0.3670843541622162</v>
+        <v>-0.458078533411026</v>
       </c>
       <c r="B138" t="n">
-        <v>-2.366411447525024</v>
+        <v>-2.74250602722168</v>
       </c>
       <c r="C138" t="n">
-        <v>22.91763687133789</v>
+        <v>22.53903007507324</v>
       </c>
       <c r="D138" t="n">
-        <v>21.55395698547363</v>
+        <v>21.1435604095459</v>
       </c>
       <c r="E138" t="n">
-        <v>-13.87249946594238</v>
+        <v>-16.87138366699219</v>
       </c>
       <c r="F138" t="n">
-        <v>-11.81703567504883</v>
+        <v>-13.39523220062256</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>2.942833423614502</v>
+        <v>3.242180585861206</v>
       </c>
       <c r="B139" t="n">
-        <v>0.4549825191497803</v>
+        <v>0.2471465021371841</v>
       </c>
       <c r="C139" t="n">
-        <v>25.54078102111816</v>
+        <v>25.70609855651855</v>
       </c>
       <c r="D139" t="n">
-        <v>23.86219215393066</v>
+        <v>23.76399040222168</v>
       </c>
       <c r="E139" t="n">
-        <v>-9.650967597961426</v>
+        <v>-11.66819286346436</v>
       </c>
       <c r="F139" t="n">
-        <v>-8.287371635437012</v>
+        <v>-9.679704666137695</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>5.854899883270264</v>
+        <v>6.447702407836914</v>
       </c>
       <c r="B140" t="n">
-        <v>2.935473918914795</v>
+        <v>2.62492823600769</v>
       </c>
       <c r="C140" t="n">
-        <v>26.49237060546875</v>
+        <v>27.09609603881836</v>
       </c>
       <c r="D140" t="n">
-        <v>24.44496154785156</v>
+        <v>24.69145965576172</v>
       </c>
       <c r="E140" t="n">
-        <v>-5.525977611541748</v>
+        <v>-6.501049995422363</v>
       </c>
       <c r="F140" t="n">
-        <v>-4.931711673736572</v>
+        <v>-5.734350681304932</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>8.269182205200195</v>
+        <v>8.929380416870117</v>
       </c>
       <c r="B141" t="n">
-        <v>5.003455638885498</v>
+        <v>4.801959037780762</v>
       </c>
       <c r="C141" t="n">
-        <v>25.83680534362793</v>
+        <v>26.39185523986816</v>
       </c>
       <c r="D141" t="n">
-        <v>23.81946563720703</v>
+        <v>23.94830894470215</v>
       </c>
       <c r="E141" t="n">
-        <v>-1.989349722862244</v>
+        <v>-2.124407768249512</v>
       </c>
       <c r="F141" t="n">
-        <v>-2.037481784820557</v>
+        <v>-2.699847936630249</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>10.20006561279297</v>
+        <v>10.96531200408936</v>
       </c>
       <c r="B142" t="n">
-        <v>6.597870349884033</v>
+        <v>6.069731712341309</v>
       </c>
       <c r="C142" t="n">
-        <v>24.36527824401855</v>
+        <v>24.81494903564453</v>
       </c>
       <c r="D142" t="n">
-        <v>21.89154243469238</v>
+        <v>21.82448577880859</v>
       </c>
       <c r="E142" t="n">
-        <v>0.7261524200439453</v>
+        <v>1.237395286560059</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2905125021934509</v>
+        <v>-0.04991576448082924</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>11.60448837280273</v>
+        <v>12.57217597961426</v>
       </c>
       <c r="B143" t="n">
-        <v>7.76671028137207</v>
+        <v>7.183652877807617</v>
       </c>
       <c r="C143" t="n">
-        <v>21.25167274475098</v>
+        <v>21.83909034729004</v>
       </c>
       <c r="D143" t="n">
-        <v>18.46833801269531</v>
+        <v>18.09964561462402</v>
       </c>
       <c r="E143" t="n">
-        <v>2.747255802154541</v>
+        <v>3.485557794570923</v>
       </c>
       <c r="F143" t="n">
-        <v>1.919101238250732</v>
+        <v>1.572218298912048</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>12.70901679992676</v>
+        <v>13.46225452423096</v>
       </c>
       <c r="B144" t="n">
-        <v>8.493906021118164</v>
+        <v>7.853216171264648</v>
       </c>
       <c r="C144" t="n">
-        <v>16.93707847595215</v>
+        <v>17.39110565185547</v>
       </c>
       <c r="D144" t="n">
-        <v>14.48562812805176</v>
+        <v>13.7703914642334</v>
       </c>
       <c r="E144" t="n">
-        <v>3.955129146575928</v>
+        <v>4.905332088470459</v>
       </c>
       <c r="F144" t="n">
-        <v>3.022899627685547</v>
+        <v>2.546950578689575</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>13.16436862945557</v>
+        <v>14.136305809021</v>
       </c>
       <c r="B145" t="n">
-        <v>8.842036247253418</v>
+        <v>8.270974159240723</v>
       </c>
       <c r="C145" t="n">
-        <v>11.8886833190918</v>
+        <v>12.37000465393066</v>
       </c>
       <c r="D145" t="n">
-        <v>9.790756225585938</v>
+        <v>9.134503364562988</v>
       </c>
       <c r="E145" t="n">
-        <v>4.353126525878906</v>
+        <v>5.293242931365967</v>
       </c>
       <c r="F145" t="n">
-        <v>3.500528573989868</v>
+        <v>2.985387086868286</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>13.42164993286133</v>
+        <v>14.28546810150146</v>
       </c>
       <c r="B146" t="n">
-        <v>9.180858612060547</v>
+        <v>8.874897956848145</v>
       </c>
       <c r="C146" t="n">
-        <v>6.462651252746582</v>
+        <v>6.588414192199707</v>
       </c>
       <c r="D146" t="n">
-        <v>4.797174453735352</v>
+        <v>4.185449600219727</v>
       </c>
       <c r="E146" t="n">
-        <v>3.916339635848999</v>
+        <v>4.473405361175537</v>
       </c>
       <c r="F146" t="n">
-        <v>3.201216459274292</v>
+        <v>2.740188837051392</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>13.50769805908203</v>
+        <v>14.86277866363525</v>
       </c>
       <c r="B147" t="n">
-        <v>9.207478523254395</v>
+        <v>9.204025268554688</v>
       </c>
       <c r="C147" t="n">
-        <v>1.058012962341309</v>
+        <v>1.131214618682861</v>
       </c>
       <c r="D147" t="n">
-        <v>-0.200814500451088</v>
+        <v>-0.5011979937553406</v>
       </c>
       <c r="E147" t="n">
-        <v>2.800414800643921</v>
+        <v>2.704734802246094</v>
       </c>
       <c r="F147" t="n">
-        <v>2.474426984786987</v>
+        <v>1.694946765899658</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>13.61399364471436</v>
+        <v>15.11983966827393</v>
       </c>
       <c r="B148" t="n">
-        <v>9.126055717468262</v>
+        <v>9.699098587036133</v>
       </c>
       <c r="C148" t="n">
-        <v>-3.877037525177002</v>
+        <v>-3.846551418304443</v>
       </c>
       <c r="D148" t="n">
-        <v>-4.928997993469238</v>
+        <v>-4.73503303527832</v>
       </c>
       <c r="E148" t="n">
-        <v>1.34549081325531</v>
+        <v>0.5407323241233826</v>
       </c>
       <c r="F148" t="n">
-        <v>1.5801020860672</v>
+        <v>0.6119402647018433</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>13.79860496520996</v>
+        <v>15.4597864151001</v>
       </c>
       <c r="B149" t="n">
-        <v>9.048698425292969</v>
+        <v>9.89537239074707</v>
       </c>
       <c r="C149" t="n">
-        <v>-7.970061779022217</v>
+        <v>-7.928128719329834</v>
       </c>
       <c r="D149" t="n">
-        <v>-8.878290176391602</v>
+        <v>-8.060047149658203</v>
       </c>
       <c r="E149" t="n">
-        <v>0.09242808818817139</v>
+        <v>-1.446811318397522</v>
       </c>
       <c r="F149" t="n">
-        <v>0.8252916932106018</v>
+        <v>-0.3945019841194153</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>13.85048961639404</v>
+        <v>16.1456184387207</v>
       </c>
       <c r="B150" t="n">
-        <v>8.767014503479004</v>
+        <v>9.658530235290527</v>
       </c>
       <c r="C150" t="n">
-        <v>-11.00784969329834</v>
+        <v>-10.90117454528809</v>
       </c>
       <c r="D150" t="n">
-        <v>-12.13283252716064</v>
+        <v>-10.76112461090088</v>
       </c>
       <c r="E150" t="n">
-        <v>-0.9897315502166748</v>
+        <v>-2.968521356582642</v>
       </c>
       <c r="F150" t="n">
-        <v>0.2850487530231476</v>
+        <v>-1.061386346817017</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>14.37497806549072</v>
+        <v>17.35853385925293</v>
       </c>
       <c r="B151" t="n">
-        <v>8.53118896484375</v>
+        <v>9.636205673217773</v>
       </c>
       <c r="C151" t="n">
-        <v>-12.75368022918701</v>
+        <v>-12.52896022796631</v>
       </c>
       <c r="D151" t="n">
-        <v>-14.14368152618408</v>
+        <v>-13.63883495330811</v>
       </c>
       <c r="E151" t="n">
-        <v>-2.125343561172485</v>
+        <v>-4.090702533721924</v>
       </c>
       <c r="F151" t="n">
-        <v>-0.5081955790519714</v>
+        <v>-1.742383718490601</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>14.67603969573975</v>
+        <v>17.78525733947754</v>
       </c>
       <c r="B152" t="n">
-        <v>8.103344917297363</v>
+        <v>9.051329612731934</v>
       </c>
       <c r="C152" t="n">
-        <v>-13.27345371246338</v>
+        <v>-13.40490818023682</v>
       </c>
       <c r="D152" t="n">
-        <v>-14.95500946044922</v>
+        <v>-14.66470050811768</v>
       </c>
       <c r="E152" t="n">
-        <v>-3.252423524856567</v>
+        <v>-4.932221412658691</v>
       </c>
       <c r="F152" t="n">
-        <v>-1.39351761341095</v>
+        <v>-2.327212572097778</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>13.09323692321777</v>
+        <v>15.25863742828369</v>
       </c>
       <c r="B153" t="n">
-        <v>8.075257301330566</v>
+        <v>8.99200439453125</v>
       </c>
       <c r="C153" t="n">
-        <v>-12.67927932739258</v>
+        <v>-13.13268852233887</v>
       </c>
       <c r="D153" t="n">
-        <v>-14.02399158477783</v>
+        <v>-14.02536392211914</v>
       </c>
       <c r="E153" t="n">
-        <v>-3.760858535766602</v>
+        <v>-5.086536884307861</v>
       </c>
       <c r="F153" t="n">
-        <v>-1.859968662261963</v>
+        <v>-2.422658205032349</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>9.275825500488281</v>
+        <v>9.538673400878906</v>
       </c>
       <c r="B154" t="n">
-        <v>8.800406455993652</v>
+        <v>8.984769821166992</v>
       </c>
       <c r="C154" t="n">
-        <v>-11.78830242156982</v>
+        <v>-11.95180511474609</v>
       </c>
       <c r="D154" t="n">
-        <v>-11.77315521240234</v>
+        <v>-11.77473831176758</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.351962566375732</v>
+        <v>-3.567278861999512</v>
       </c>
       <c r="F154" t="n">
-        <v>-1.831582069396973</v>
+        <v>-1.973964214324951</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9.587564468383789</v>
+        <v>10.48948764801025</v>
       </c>
       <c r="B155" t="n">
-        <v>9.128241539001465</v>
+        <v>9.506699562072754</v>
       </c>
       <c r="C155" t="n">
-        <v>-4.895175933837891</v>
+        <v>-3.3677077293396</v>
       </c>
       <c r="D155" t="n">
-        <v>-4.771969318389893</v>
+        <v>-2.461531400680542</v>
       </c>
       <c r="E155" t="n">
-        <v>-6.079614162445068</v>
+        <v>-7.676960468292236</v>
       </c>
       <c r="F155" t="n">
-        <v>-6.06880521774292</v>
+        <v>-5.98175048828125</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>11.05520725250244</v>
+        <v>12.57618713378906</v>
       </c>
       <c r="B156" t="n">
-        <v>9.880556106567383</v>
+        <v>10.58946323394775</v>
       </c>
       <c r="C156" t="n">
-        <v>-1.624942541122437</v>
+        <v>0.8376915454864502</v>
       </c>
       <c r="D156" t="n">
-        <v>-1.692616939544678</v>
+        <v>1.168583512306213</v>
       </c>
       <c r="E156" t="n">
-        <v>-6.848579883575439</v>
+        <v>-9.024048805236816</v>
       </c>
       <c r="F156" t="n">
-        <v>-7.044238090515137</v>
+        <v>-6.868848323822021</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>11.38782691955566</v>
+        <v>13.01039409637451</v>
       </c>
       <c r="B157" t="n">
-        <v>9.957616806030273</v>
+        <v>10.6979513168335</v>
       </c>
       <c r="C157" t="n">
-        <v>0.7990872859954834</v>
+        <v>3.500850915908813</v>
       </c>
       <c r="D157" t="n">
-        <v>0.5264700055122375</v>
+        <v>2.966115474700928</v>
       </c>
       <c r="E157" t="n">
-        <v>-6.239475250244141</v>
+        <v>-8.307369232177734</v>
       </c>
       <c r="F157" t="n">
-        <v>-6.718873023986816</v>
+        <v>-6.939071655273438</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.4636754989624</v>
+        <v>11.88831996917725</v>
       </c>
       <c r="B158" t="n">
-        <v>9.173653602600098</v>
+        <v>9.372540473937988</v>
       </c>
       <c r="C158" t="n">
-        <v>1.9276282787323</v>
+        <v>4.316161155700684</v>
       </c>
       <c r="D158" t="n">
-        <v>1.786521315574646</v>
+        <v>3.497326374053955</v>
       </c>
       <c r="E158" t="n">
-        <v>-4.789884567260742</v>
+        <v>-6.078576564788818</v>
       </c>
       <c r="F158" t="n">
-        <v>-5.432901382446289</v>
+        <v>-5.685198783874512</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.00714111328125</v>
+        <v>9.788544654846191</v>
       </c>
       <c r="B159" t="n">
-        <v>8.076422691345215</v>
+        <v>7.838908195495605</v>
       </c>
       <c r="C159" t="n">
-        <v>2.117438316345215</v>
+        <v>3.677502870559692</v>
       </c>
       <c r="D159" t="n">
-        <v>2.360732793807983</v>
+        <v>3.481449604034424</v>
       </c>
       <c r="E159" t="n">
-        <v>-3.195652008056641</v>
+        <v>-3.967267751693726</v>
       </c>
       <c r="F159" t="n">
-        <v>-3.64763879776001</v>
+        <v>-4.385716438293457</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>7.400798797607422</v>
+        <v>7.802942276000977</v>
       </c>
       <c r="B160" t="n">
-        <v>6.887787818908691</v>
+        <v>6.648420810699463</v>
       </c>
       <c r="C160" t="n">
-        <v>1.645504474639893</v>
+        <v>2.510808944702148</v>
       </c>
       <c r="D160" t="n">
-        <v>2.382253885269165</v>
+        <v>3.264337062835693</v>
       </c>
       <c r="E160" t="n">
-        <v>-1.877411961555481</v>
+        <v>-2.583747625350952</v>
       </c>
       <c r="F160" t="n">
-        <v>-1.937315464019775</v>
+        <v>-2.76276421546936</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>5.914583206176758</v>
+        <v>6.084648132324219</v>
       </c>
       <c r="B161" t="n">
-        <v>5.663434982299805</v>
+        <v>5.784839630126953</v>
       </c>
       <c r="C161" t="n">
-        <v>0.8681824207305908</v>
+        <v>1.476349115371704</v>
       </c>
       <c r="D161" t="n">
-        <v>1.769424319267273</v>
+        <v>2.62152886390686</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.9347720146179199</v>
+        <v>-1.863335013389587</v>
       </c>
       <c r="F161" t="n">
-        <v>-0.4980249404907227</v>
+        <v>-1.474920868873596</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>4.404384613037109</v>
+        <v>4.706850528717041</v>
       </c>
       <c r="B162" t="n">
-        <v>4.335601329803467</v>
+        <v>4.467511177062988</v>
       </c>
       <c r="C162" t="n">
-        <v>-0.1074919700622559</v>
+        <v>0.3028461933135986</v>
       </c>
       <c r="D162" t="n">
-        <v>1.038370490074158</v>
+        <v>1.497980237007141</v>
       </c>
       <c r="E162" t="n">
-        <v>-0.183281883597374</v>
+        <v>-1.06097948551178</v>
       </c>
       <c r="F162" t="n">
-        <v>0.5380975008010864</v>
+        <v>-0.4281280636787415</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>3.00395679473877</v>
+        <v>3.223337888717651</v>
       </c>
       <c r="B163" t="n">
-        <v>2.952538251876831</v>
+        <v>3.211886882781982</v>
       </c>
       <c r="C163" t="n">
-        <v>-1.060244083404541</v>
+        <v>-0.7113496661186218</v>
       </c>
       <c r="D163" t="n">
-        <v>-0.09122147411108017</v>
+        <v>0.4803823530673981</v>
       </c>
       <c r="E163" t="n">
-        <v>0.4428213536739349</v>
+        <v>-0.2441482990980148</v>
       </c>
       <c r="F163" t="n">
-        <v>1.298787832260132</v>
+        <v>0.3879093527793884</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>1.612584829330444</v>
+        <v>2.157156705856323</v>
       </c>
       <c r="B164" t="n">
-        <v>1.545797348022461</v>
+        <v>1.884635925292969</v>
       </c>
       <c r="C164" t="n">
-        <v>-2.223136425018311</v>
+        <v>-1.720075607299805</v>
       </c>
       <c r="D164" t="n">
-        <v>-1.224108099937439</v>
+        <v>-0.7398406863212585</v>
       </c>
       <c r="E164" t="n">
-        <v>1.020692944526672</v>
+        <v>0.4932535290718079</v>
       </c>
       <c r="F164" t="n">
-        <v>1.787615418434143</v>
+        <v>0.8561248779296875</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.2560788094997406</v>
+        <v>0.7924079298973083</v>
       </c>
       <c r="B165" t="n">
-        <v>0.2269981056451797</v>
+        <v>0.4344168901443481</v>
       </c>
       <c r="C165" t="n">
-        <v>-3.241002082824707</v>
+        <v>-2.119797468185425</v>
       </c>
       <c r="D165" t="n">
-        <v>-2.639456748962402</v>
+        <v>-2.069062948226929</v>
       </c>
       <c r="E165" t="n">
-        <v>1.570789337158203</v>
+        <v>1.205434083938599</v>
       </c>
       <c r="F165" t="n">
-        <v>2.256347894668579</v>
+        <v>1.26389491558075</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.9683743119239807</v>
+        <v>-0.6287993192672729</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.9869366884231567</v>
+        <v>-0.9816070199012756</v>
       </c>
       <c r="C166" t="n">
-        <v>-4.422652244567871</v>
+        <v>-3.151177406311035</v>
       </c>
       <c r="D166" t="n">
-        <v>-3.905669212341309</v>
+        <v>-3.440545082092285</v>
       </c>
       <c r="E166" t="n">
-        <v>2.129804849624634</v>
+        <v>2.040563583374023</v>
       </c>
       <c r="F166" t="n">
-        <v>2.558907985687256</v>
+        <v>1.409703612327576</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-2.344976425170898</v>
+        <v>-1.754143714904785</v>
       </c>
       <c r="B167" t="n">
-        <v>-2.099695682525635</v>
+        <v>-2.098583698272705</v>
       </c>
       <c r="C167" t="n">
-        <v>-5.553562641143799</v>
+        <v>-4.055871963500977</v>
       </c>
       <c r="D167" t="n">
-        <v>-5.179644584655762</v>
+        <v>-4.632194995880127</v>
       </c>
       <c r="E167" t="n">
-        <v>2.696427822113037</v>
+        <v>2.940162897109985</v>
       </c>
       <c r="F167" t="n">
-        <v>2.906114101409912</v>
+        <v>1.764285206794739</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-3.659307956695557</v>
+        <v>-3.161692142486572</v>
       </c>
       <c r="B168" t="n">
-        <v>-3.381491899490356</v>
+        <v>-3.202672719955444</v>
       </c>
       <c r="C168" t="n">
-        <v>-6.591422080993652</v>
+        <v>-5.246764183044434</v>
       </c>
       <c r="D168" t="n">
-        <v>-6.390931606292725</v>
+        <v>-5.979028224945068</v>
       </c>
       <c r="E168" t="n">
-        <v>3.240432024002075</v>
+        <v>3.653619527816772</v>
       </c>
       <c r="F168" t="n">
-        <v>3.244004249572754</v>
+        <v>2.080886840820312</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-4.863619327545166</v>
+        <v>-4.547225475311279</v>
       </c>
       <c r="B169" t="n">
-        <v>-4.598283290863037</v>
+        <v>-4.278985977172852</v>
       </c>
       <c r="C169" t="n">
-        <v>-7.64348030090332</v>
+        <v>-5.99603796005249</v>
       </c>
       <c r="D169" t="n">
-        <v>-7.627647399902344</v>
+        <v>-6.971561908721924</v>
       </c>
       <c r="E169" t="n">
-        <v>3.798890352249146</v>
+        <v>4.491520881652832</v>
       </c>
       <c r="F169" t="n">
-        <v>3.626958608627319</v>
+        <v>2.630195617675781</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-6.160718441009521</v>
+        <v>-5.599730968475342</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.767049312591553</v>
+        <v>-5.390793323516846</v>
       </c>
       <c r="C170" t="n">
-        <v>-8.582943916320801</v>
+        <v>-6.709467887878418</v>
       </c>
       <c r="D170" t="n">
-        <v>-8.783946990966797</v>
+        <v>-7.966804981231689</v>
       </c>
       <c r="E170" t="n">
-        <v>4.390712261199951</v>
+        <v>5.40701961517334</v>
       </c>
       <c r="F170" t="n">
-        <v>4.041456699371338</v>
+        <v>3.24852180480957</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-7.300756454467773</v>
+        <v>-6.784518718719482</v>
       </c>
       <c r="B171" t="n">
-        <v>-7.007766246795654</v>
+        <v>-6.390572071075439</v>
       </c>
       <c r="C171" t="n">
-        <v>-9.471607208251953</v>
+        <v>-7.606468677520752</v>
       </c>
       <c r="D171" t="n">
-        <v>-9.771393775939941</v>
+        <v>-9.042564392089844</v>
       </c>
       <c r="E171" t="n">
-        <v>5.082048416137695</v>
+        <v>6.020883560180664</v>
       </c>
       <c r="F171" t="n">
-        <v>4.573202610015869</v>
+        <v>4.154736518859863</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-8.490784645080566</v>
+        <v>-7.657177925109863</v>
       </c>
       <c r="B172" t="n">
-        <v>-8.071150779724121</v>
+        <v>-7.183159828186035</v>
       </c>
       <c r="C172" t="n">
-        <v>-10.21000576019287</v>
+        <v>-8.093052864074707</v>
       </c>
       <c r="D172" t="n">
-        <v>-10.66822528839111</v>
+        <v>-9.541914939880371</v>
       </c>
       <c r="E172" t="n">
-        <v>5.814526081085205</v>
+        <v>6.918148994445801</v>
       </c>
       <c r="F172" t="n">
-        <v>5.039717197418213</v>
+        <v>4.893691539764404</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-9.567947387695312</v>
+        <v>-8.825262069702148</v>
       </c>
       <c r="B173" t="n">
-        <v>-9.025148391723633</v>
+        <v>-8.085831642150879</v>
       </c>
       <c r="C173" t="n">
-        <v>-10.96698379516602</v>
+        <v>-8.911751747131348</v>
       </c>
       <c r="D173" t="n">
-        <v>-11.36049461364746</v>
+        <v>-9.713986396789551</v>
       </c>
       <c r="E173" t="n">
-        <v>6.607020854949951</v>
+        <v>7.713972091674805</v>
       </c>
       <c r="F173" t="n">
-        <v>5.643359184265137</v>
+        <v>5.62740421295166</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-10.63559055328369</v>
+        <v>-9.520857810974121</v>
       </c>
       <c r="B174" t="n">
-        <v>-9.976643562316895</v>
+        <v>-8.617533683776855</v>
       </c>
       <c r="C174" t="n">
-        <v>-11.49956703186035</v>
+        <v>-9.489903450012207</v>
       </c>
       <c r="D174" t="n">
-        <v>-11.74575996398926</v>
+        <v>-10.13832950592041</v>
       </c>
       <c r="E174" t="n">
-        <v>7.430996894836426</v>
+        <v>8.51938533782959</v>
       </c>
       <c r="F174" t="n">
-        <v>6.438334941864014</v>
+        <v>6.707902908325195</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-11.67971897125244</v>
+        <v>-10.89608192443848</v>
       </c>
       <c r="B175" t="n">
-        <v>-10.98036479949951</v>
+        <v>-9.472540855407715</v>
       </c>
       <c r="C175" t="n">
-        <v>-11.81857776641846</v>
+        <v>-9.763787269592285</v>
       </c>
       <c r="D175" t="n">
-        <v>-11.94289016723633</v>
+        <v>-10.23942470550537</v>
       </c>
       <c r="E175" t="n">
-        <v>8.254897117614746</v>
+        <v>9.323118209838867</v>
       </c>
       <c r="F175" t="n">
-        <v>7.144420623779297</v>
+        <v>7.544740676879883</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-12.77693653106689</v>
+        <v>-11.68780517578125</v>
       </c>
       <c r="B176" t="n">
-        <v>-11.95485591888428</v>
+        <v>-10.58748340606689</v>
       </c>
       <c r="C176" t="n">
-        <v>-11.98886871337891</v>
+        <v>-10.32404518127441</v>
       </c>
       <c r="D176" t="n">
-        <v>-11.9008207321167</v>
+        <v>-10.10284805297852</v>
       </c>
       <c r="E176" t="n">
-        <v>8.982128143310547</v>
+        <v>9.819025039672852</v>
       </c>
       <c r="F176" t="n">
-        <v>7.862513065338135</v>
+        <v>8.73961067199707</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-13.91125202178955</v>
+        <v>-12.72125720977783</v>
       </c>
       <c r="B177" t="n">
-        <v>-13.01472091674805</v>
+        <v>-11.4251708984375</v>
       </c>
       <c r="C177" t="n">
-        <v>-11.84341716766357</v>
+        <v>-10.33285427093506</v>
       </c>
       <c r="D177" t="n">
-        <v>-11.74860382080078</v>
+        <v>-9.89177417755127</v>
       </c>
       <c r="E177" t="n">
-        <v>9.577498435974121</v>
+        <v>10.09803485870361</v>
       </c>
       <c r="F177" t="n">
-        <v>8.576245307922363</v>
+        <v>9.572427749633789</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-14.85561847686768</v>
+        <v>-13.9019250869751</v>
       </c>
       <c r="B178" t="n">
-        <v>-13.80973339080811</v>
+        <v>-12.34965324401855</v>
       </c>
       <c r="C178" t="n">
-        <v>-11.60622787475586</v>
+        <v>-10.15960884094238</v>
       </c>
       <c r="D178" t="n">
-        <v>-11.25859642028809</v>
+        <v>-9.810327529907227</v>
       </c>
       <c r="E178" t="n">
-        <v>9.884670257568359</v>
+        <v>9.969614028930664</v>
       </c>
       <c r="F178" t="n">
-        <v>9.01720142364502</v>
+        <v>9.695343017578125</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-15.89448928833008</v>
+        <v>-15.00394630432129</v>
       </c>
       <c r="B179" t="n">
-        <v>-14.71731281280518</v>
+        <v>-13.3045072555542</v>
       </c>
       <c r="C179" t="n">
-        <v>-10.83177757263184</v>
+        <v>-10.39795398712158</v>
       </c>
       <c r="D179" t="n">
-        <v>-10.50972557067871</v>
+        <v>-9.244024276733398</v>
       </c>
       <c r="E179" t="n">
-        <v>9.75058650970459</v>
+        <v>9.891788482666016</v>
       </c>
       <c r="F179" t="n">
-        <v>9.119901657104492</v>
+        <v>10.07105255126953</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-16.50848579406738</v>
+        <v>-16.02780723571777</v>
       </c>
       <c r="B180" t="n">
-        <v>-15.5068826675415</v>
+        <v>-14.3039493560791</v>
       </c>
       <c r="C180" t="n">
-        <v>-9.822141647338867</v>
+        <v>-9.878689765930176</v>
       </c>
       <c r="D180" t="n">
-        <v>-9.484945297241211</v>
+        <v>-8.721297264099121</v>
       </c>
       <c r="E180" t="n">
-        <v>8.773591995239258</v>
+        <v>9.074119567871094</v>
       </c>
       <c r="F180" t="n">
-        <v>8.50523567199707</v>
+        <v>10.17824172973633</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-17.05144119262695</v>
+        <v>-16.98752593994141</v>
       </c>
       <c r="B181" t="n">
-        <v>-16.04950523376465</v>
+        <v>-15.22638034820557</v>
       </c>
       <c r="C181" t="n">
-        <v>-8.381418228149414</v>
+        <v>-9.218255043029785</v>
       </c>
       <c r="D181" t="n">
-        <v>-8.140639305114746</v>
+        <v>-8.175064086914062</v>
       </c>
       <c r="E181" t="n">
-        <v>6.7650465965271</v>
+        <v>7.944387435913086</v>
       </c>
       <c r="F181" t="n">
-        <v>6.741298675537109</v>
+        <v>9.209197044372559</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-17.11202430725098</v>
+        <v>-17.14379119873047</v>
       </c>
       <c r="B182" t="n">
-        <v>-16.17404747009277</v>
+        <v>-16.13922119140625</v>
       </c>
       <c r="C182" t="n">
-        <v>-6.43081521987915</v>
+        <v>-8.044096946716309</v>
       </c>
       <c r="D182" t="n">
-        <v>-6.373484134674072</v>
+        <v>-7.043782234191895</v>
       </c>
       <c r="E182" t="n">
-        <v>3.403046369552612</v>
+        <v>5.646242618560791</v>
       </c>
       <c r="F182" t="n">
-        <v>3.510422945022583</v>
+        <v>6.91536283493042</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-16.46399116516113</v>
+        <v>-17.08792686462402</v>
       </c>
       <c r="B183" t="n">
-        <v>-15.93764877319336</v>
+        <v>-15.99936389923096</v>
       </c>
       <c r="C183" t="n">
-        <v>-3.846493244171143</v>
+        <v>-6.210100650787354</v>
       </c>
       <c r="D183" t="n">
-        <v>-3.927025556564331</v>
+        <v>-5.36073112487793</v>
       </c>
       <c r="E183" t="n">
-        <v>-1.342267990112305</v>
+        <v>1.490456581115723</v>
       </c>
       <c r="F183" t="n">
-        <v>-1.336044430732727</v>
+        <v>2.835339069366455</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-15.01748371124268</v>
+        <v>-16.29978179931641</v>
       </c>
       <c r="B184" t="n">
-        <v>-14.98442840576172</v>
+        <v>-15.6806058883667</v>
       </c>
       <c r="C184" t="n">
-        <v>-0.3943905234336853</v>
+        <v>-2.857879161834717</v>
       </c>
       <c r="D184" t="n">
-        <v>-0.669156551361084</v>
+        <v>-2.468401908874512</v>
       </c>
       <c r="E184" t="n">
-        <v>-6.89216423034668</v>
+        <v>-4.404624938964844</v>
       </c>
       <c r="F184" t="n">
-        <v>-6.893206119537354</v>
+        <v>-2.67391037940979</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-13.12330150604248</v>
+        <v>-14.38399219512939</v>
       </c>
       <c r="B185" t="n">
-        <v>-13.25890350341797</v>
+        <v>-14.48590087890625</v>
       </c>
       <c r="C185" t="n">
-        <v>3.884286165237427</v>
+        <v>1.155408143997192</v>
       </c>
       <c r="D185" t="n">
-        <v>3.444174289703369</v>
+        <v>1.153523087501526</v>
       </c>
       <c r="E185" t="n">
-        <v>-12.28971099853516</v>
+        <v>-11.17727184295654</v>
       </c>
       <c r="F185" t="n">
-        <v>-12.14912223815918</v>
+        <v>-9.061655044555664</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-10.44109153747559</v>
+        <v>-11.58099460601807</v>
       </c>
       <c r="B186" t="n">
-        <v>-10.9500150680542</v>
+        <v>-11.90960311889648</v>
       </c>
       <c r="C186" t="n">
-        <v>8.849362373352051</v>
+        <v>6.174962997436523</v>
       </c>
       <c r="D186" t="n">
-        <v>8.246193885803223</v>
+        <v>5.99793529510498</v>
       </c>
       <c r="E186" t="n">
-        <v>-15.95728874206543</v>
+        <v>-17.20086860656738</v>
       </c>
       <c r="F186" t="n">
-        <v>-15.43468379974365</v>
+        <v>-13.9389762878418</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-7.253331661224365</v>
+        <v>-8.209399223327637</v>
       </c>
       <c r="B187" t="n">
-        <v>-8.17243766784668</v>
+        <v>-9.021571159362793</v>
       </c>
       <c r="C187" t="n">
-        <v>14.17569637298584</v>
+        <v>12.29653072357178</v>
       </c>
       <c r="D187" t="n">
-        <v>13.09371948242188</v>
+        <v>11.3082447052002</v>
       </c>
       <c r="E187" t="n">
-        <v>-17.54358673095703</v>
+        <v>-20.67602920532227</v>
       </c>
       <c r="F187" t="n">
-        <v>-16.29146385192871</v>
+        <v>-16.48913955688477</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-3.768877506256104</v>
+        <v>-4.480833053588867</v>
       </c>
       <c r="B188" t="n">
-        <v>-5.250209808349609</v>
+        <v>-6.078412532806396</v>
       </c>
       <c r="C188" t="n">
-        <v>18.97135734558105</v>
+        <v>17.51506614685059</v>
       </c>
       <c r="D188" t="n">
-        <v>17.78243255615234</v>
+        <v>16.3826904296875</v>
       </c>
       <c r="E188" t="n">
-        <v>-16.46310997009277</v>
+        <v>-20.47364234924316</v>
       </c>
       <c r="F188" t="n">
-        <v>-14.73776149749756</v>
+        <v>-16.1093921661377</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>-0.3165905177593231</v>
+        <v>-0.5469297170639038</v>
       </c>
       <c r="B189" t="n">
-        <v>-2.262200117111206</v>
+        <v>-2.739323616027832</v>
       </c>
       <c r="C189" t="n">
-        <v>23.1828441619873</v>
+        <v>22.5436897277832</v>
       </c>
       <c r="D189" t="n">
-        <v>21.6087589263916</v>
+        <v>21.05810737609863</v>
       </c>
       <c r="E189" t="n">
-        <v>-13.40864372253418</v>
+        <v>-16.9377555847168</v>
       </c>
       <c r="F189" t="n">
-        <v>-11.53377723693848</v>
+        <v>-13.39920997619629</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>2.932339429855347</v>
+        <v>3.169772863388062</v>
       </c>
       <c r="B190" t="n">
-        <v>0.5497485399246216</v>
+        <v>0.2112430483102798</v>
       </c>
       <c r="C190" t="n">
-        <v>25.69132995605469</v>
+        <v>25.74700927734375</v>
       </c>
       <c r="D190" t="n">
-        <v>23.84568405151367</v>
+        <v>23.73771095275879</v>
       </c>
       <c r="E190" t="n">
-        <v>-9.356173515319824</v>
+        <v>-11.74980545043945</v>
       </c>
       <c r="F190" t="n">
-        <v>-8.050765037536621</v>
+        <v>-9.672531127929688</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5.78518009185791</v>
+        <v>6.383477210998535</v>
       </c>
       <c r="B191" t="n">
-        <v>3.014519929885864</v>
+        <v>2.614011526107788</v>
       </c>
       <c r="C191" t="n">
-        <v>26.51222610473633</v>
+        <v>27.18976402282715</v>
       </c>
       <c r="D191" t="n">
-        <v>24.3969612121582</v>
+        <v>24.69270515441895</v>
       </c>
       <c r="E191" t="n">
-        <v>-5.40272045135498</v>
+        <v>-6.518621921539307</v>
       </c>
       <c r="F191" t="n">
-        <v>-4.768654823303223</v>
+        <v>-5.729481220245361</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>8.156610488891602</v>
+        <v>8.864471435546875</v>
       </c>
       <c r="B192" t="n">
-        <v>5.085671901702881</v>
+        <v>4.768619060516357</v>
       </c>
       <c r="C192" t="n">
-        <v>25.76993560791016</v>
+        <v>26.55453872680664</v>
       </c>
       <c r="D192" t="n">
-        <v>23.76395797729492</v>
+        <v>23.93924903869629</v>
       </c>
       <c r="E192" t="n">
-        <v>-1.972577452659607</v>
+        <v>-2.129679679870605</v>
       </c>
       <c r="F192" t="n">
-        <v>-1.933762550354004</v>
+        <v>-2.709522485733032</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>10.04383277893066</v>
+        <v>10.93218612670898</v>
       </c>
       <c r="B193" t="n">
-        <v>6.677637100219727</v>
+        <v>6.023641109466553</v>
       </c>
       <c r="C193" t="n">
-        <v>24.27673149108887</v>
+        <v>24.89492225646973</v>
       </c>
       <c r="D193" t="n">
-        <v>21.75847816467285</v>
+        <v>21.79571151733398</v>
       </c>
       <c r="E193" t="n">
-        <v>0.6912872791290283</v>
+        <v>1.25883686542511</v>
       </c>
       <c r="F193" t="n">
-        <v>0.3699107766151428</v>
+        <v>-0.08634310960769653</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>11.43843841552734</v>
+        <v>12.52024745941162</v>
       </c>
       <c r="B194" t="n">
-        <v>7.856399536132812</v>
+        <v>7.138322830200195</v>
       </c>
       <c r="C194" t="n">
-        <v>21.08053207397461</v>
+        <v>21.97936820983887</v>
       </c>
       <c r="D194" t="n">
-        <v>18.39886474609375</v>
+        <v>18.12952613830566</v>
       </c>
       <c r="E194" t="n">
-        <v>2.702496528625488</v>
+        <v>3.526520729064941</v>
       </c>
       <c r="F194" t="n">
-        <v>1.996145129203796</v>
+        <v>1.52736496925354</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>12.51295185089111</v>
+        <v>13.43439388275146</v>
       </c>
       <c r="B195" t="n">
-        <v>8.564958572387695</v>
+        <v>7.843792915344238</v>
       </c>
       <c r="C195" t="n">
-        <v>16.74291801452637</v>
+        <v>17.46921539306641</v>
       </c>
       <c r="D195" t="n">
-        <v>14.41451168060303</v>
+        <v>13.85187530517578</v>
       </c>
       <c r="E195" t="n">
-        <v>3.917869567871094</v>
+        <v>4.951830387115479</v>
       </c>
       <c r="F195" t="n">
-        <v>3.109496831893921</v>
+        <v>2.510484218597412</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>12.95966911315918</v>
+        <v>14.06771469116211</v>
       </c>
       <c r="B196" t="n">
-        <v>8.897381782531738</v>
+        <v>8.246326446533203</v>
       </c>
       <c r="C196" t="n">
-        <v>11.6655101776123</v>
+        <v>12.41133117675781</v>
       </c>
       <c r="D196" t="n">
-        <v>9.715085983276367</v>
+        <v>9.230684280395508</v>
       </c>
       <c r="E196" t="n">
-        <v>4.321616649627686</v>
+        <v>5.318243503570557</v>
       </c>
       <c r="F196" t="n">
-        <v>3.60713791847229</v>
+        <v>2.951812982559204</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>13.19486999511719</v>
+        <v>14.28259563446045</v>
       </c>
       <c r="B197" t="n">
-        <v>9.237536430358887</v>
+        <v>8.889939308166504</v>
       </c>
       <c r="C197" t="n">
-        <v>6.211994647979736</v>
+        <v>6.701756477355957</v>
       </c>
       <c r="D197" t="n">
-        <v>4.712593555450439</v>
+        <v>4.280583381652832</v>
       </c>
       <c r="E197" t="n">
-        <v>3.901649475097656</v>
+        <v>4.465693473815918</v>
       </c>
       <c r="F197" t="n">
-        <v>3.337074756622314</v>
+        <v>2.72031044960022</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>13.22678852081299</v>
+        <v>14.82564163208008</v>
       </c>
       <c r="B198" t="n">
-        <v>9.26560115814209</v>
+        <v>9.283743858337402</v>
       </c>
       <c r="C198" t="n">
-        <v>0.7854347229003906</v>
+        <v>1.189142227172852</v>
       </c>
       <c r="D198" t="n">
-        <v>-0.3040622174739838</v>
+        <v>-0.3562389314174652</v>
       </c>
       <c r="E198" t="n">
-        <v>2.830806255340576</v>
+        <v>2.632431745529175</v>
       </c>
       <c r="F198" t="n">
-        <v>2.654266119003296</v>
+        <v>1.684314727783203</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>13.28862857818604</v>
+        <v>15.07976818084717</v>
       </c>
       <c r="B199" t="n">
-        <v>9.172817230224609</v>
+        <v>9.75142765045166</v>
       </c>
       <c r="C199" t="n">
-        <v>-4.148533821105957</v>
+        <v>-3.813323736190796</v>
       </c>
       <c r="D199" t="n">
-        <v>-5.013474941253662</v>
+        <v>-4.582578182220459</v>
       </c>
       <c r="E199" t="n">
-        <v>1.453961730003357</v>
+        <v>0.4847532510757446</v>
       </c>
       <c r="F199" t="n">
-        <v>1.806694030761719</v>
+        <v>0.6187396049499512</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>13.43991470336914</v>
+        <v>15.40676784515381</v>
       </c>
       <c r="B200" t="n">
-        <v>9.116903305053711</v>
+        <v>10.03745555877686</v>
       </c>
       <c r="C200" t="n">
-        <v>-8.214791297912598</v>
+        <v>-7.89512825012207</v>
       </c>
       <c r="D200" t="n">
-        <v>-8.94391918182373</v>
+        <v>-7.899961471557617</v>
       </c>
       <c r="E200" t="n">
-        <v>0.2855716347694397</v>
+        <v>-1.549898147583008</v>
       </c>
       <c r="F200" t="n">
-        <v>1.090711712837219</v>
+        <v>-0.3682557344436646</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>13.46176147460938</v>
+        <v>16.12107467651367</v>
       </c>
       <c r="B201" t="n">
-        <v>8.849869728088379</v>
+        <v>9.831765174865723</v>
       </c>
       <c r="C201" t="n">
-        <v>-11.18327331542969</v>
+        <v>-10.87699413299561</v>
       </c>
       <c r="D201" t="n">
-        <v>-12.12007427215576</v>
+        <v>-10.64588069915771</v>
       </c>
       <c r="E201" t="n">
-        <v>-0.7289227247238159</v>
+        <v>-3.075217962265015</v>
       </c>
       <c r="F201" t="n">
-        <v>0.5504261255264282</v>
+        <v>-1.031792998313904</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>13.89021587371826</v>
+        <v>17.29765319824219</v>
       </c>
       <c r="B202" t="n">
-        <v>8.617253303527832</v>
+        <v>9.840333938598633</v>
       </c>
       <c r="C202" t="n">
-        <v>-12.84391021728516</v>
+        <v>-12.54176425933838</v>
       </c>
       <c r="D202" t="n">
-        <v>-14.02941608428955</v>
+        <v>-13.47994041442871</v>
       </c>
       <c r="E202" t="n">
-        <v>-1.825682044029236</v>
+        <v>-4.19284725189209</v>
       </c>
       <c r="F202" t="n">
-        <v>-0.2638199329376221</v>
+        <v>-1.738014936447144</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>14.11485767364502</v>
+        <v>17.74813079833984</v>
       </c>
       <c r="B203" t="n">
-        <v>8.202652931213379</v>
+        <v>9.231365203857422</v>
       </c>
       <c r="C203" t="n">
-        <v>-13.28292465209961</v>
+        <v>-13.41490650177002</v>
       </c>
       <c r="D203" t="n">
-        <v>-14.78115081787109</v>
+        <v>-14.50999546051025</v>
       </c>
       <c r="E203" t="n">
-        <v>-2.966874599456787</v>
+        <v>-5.014639377593994</v>
       </c>
       <c r="F203" t="n">
-        <v>-1.208284139633179</v>
+        <v>-2.320509910583496</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>12.68158054351807</v>
+        <v>15.20262432098389</v>
       </c>
       <c r="B204" t="n">
-        <v>8.163061141967773</v>
+        <v>9.161577224731445</v>
       </c>
       <c r="C204" t="n">
-        <v>-12.62822437286377</v>
+        <v>-13.14265251159668</v>
       </c>
       <c r="D204" t="n">
-        <v>-13.79743003845215</v>
+        <v>-13.86832809448242</v>
       </c>
       <c r="E204" t="n">
-        <v>-3.578489065170288</v>
+        <v>-5.168637752532959</v>
       </c>
       <c r="F204" t="n">
-        <v>-1.782089948654175</v>
+        <v>-2.454555749893188</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>9.234816551208496</v>
+        <v>9.593723297119141</v>
       </c>
       <c r="B205" t="n">
-        <v>8.829433441162109</v>
+        <v>9.068066596984863</v>
       </c>
       <c r="C205" t="n">
-        <v>-11.64658546447754</v>
+        <v>-11.90077495574951</v>
       </c>
       <c r="D205" t="n">
-        <v>-11.55158615112305</v>
+        <v>-11.65177440643311</v>
       </c>
       <c r="E205" t="n">
-        <v>-3.365946292877197</v>
+        <v>-3.6249098777771</v>
       </c>
       <c r="F205" t="n">
-        <v>-1.888905048370361</v>
+        <v>-1.991546630859375</v>
       </c>
     </row>
   </sheetData>

--- a/Predictions/timestamps_typical_cnn.xlsx
+++ b/Predictions/timestamps_typical_cnn.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.857093811035156</v>
+        <v>41.65272521972656</v>
       </c>
       <c r="B2" t="n">
-        <v>-12.68703651428223</v>
+        <v>6.330523490905762</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.857856273651123</v>
+        <v>12.59266757965088</v>
       </c>
       <c r="D2" t="n">
-        <v>1.915433526039124</v>
+        <v>29.40984153747559</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.104588031768799</v>
+        <v>-20.02304649353027</v>
       </c>
       <c r="F2" t="n">
-        <v>2.67720103263855</v>
+        <v>8.904528617858887</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.69869327545166</v>
+        <v>42.12335968017578</v>
       </c>
       <c r="B3" t="n">
-        <v>-12.60262107849121</v>
+        <v>7.149167060852051</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.848473906517029</v>
+        <v>16.03720855712891</v>
       </c>
       <c r="D3" t="n">
-        <v>6.176338195800781</v>
+        <v>36.25420761108398</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.234557628631592</v>
+        <v>-20.74508094787598</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.435978412628174</v>
+        <v>0.9249524474143982</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.717937469482422</v>
+        <v>42.30059432983398</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.493727684021</v>
+        <v>10.15380573272705</v>
       </c>
       <c r="C4" t="n">
-        <v>1.296002626419067</v>
+        <v>19.89778518676758</v>
       </c>
       <c r="D4" t="n">
-        <v>9.617315292358398</v>
+        <v>40.7234001159668</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.999261379241943</v>
+        <v>-20.02514839172363</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.059030532836914</v>
+        <v>-6.892358303070068</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.44748592376709</v>
+        <v>42.4257926940918</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.977815628051758</v>
+        <v>12.63343620300293</v>
       </c>
       <c r="C5" t="n">
-        <v>2.616650104522705</v>
+        <v>23.91107559204102</v>
       </c>
       <c r="D5" t="n">
-        <v>13.69366455078125</v>
+        <v>46.97681045532227</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.048671722412109</v>
+        <v>-17.92585754394531</v>
       </c>
       <c r="F5" t="n">
-        <v>-8.266253471374512</v>
+        <v>-14.22739505767822</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.509227752685547</v>
+        <v>40.75764083862305</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.671897411346436</v>
+        <v>16.26497650146484</v>
       </c>
       <c r="C6" t="n">
-        <v>4.703722953796387</v>
+        <v>25.3353214263916</v>
       </c>
       <c r="D6" t="n">
-        <v>17.42070198059082</v>
+        <v>51.47883224487305</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.084920406341553</v>
+        <v>-15.21696090698242</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.544898986816406</v>
+        <v>-16.4694881439209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.738905906677246</v>
+        <v>38.98453521728516</v>
       </c>
       <c r="B7" t="n">
-        <v>-5.182403564453125</v>
+        <v>19.03755760192871</v>
       </c>
       <c r="C7" t="n">
-        <v>4.759255409240723</v>
+        <v>26.58287048339844</v>
       </c>
       <c r="D7" t="n">
-        <v>19.59535026550293</v>
+        <v>56.31084442138672</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.628495693206787</v>
+        <v>-9.952452659606934</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.670356750488281</v>
+        <v>-18.82458305358887</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.45421028137207</v>
+        <v>36.37516021728516</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.926250219345093</v>
+        <v>21.73055648803711</v>
       </c>
       <c r="C8" t="n">
-        <v>4.129542350769043</v>
+        <v>25.10219383239746</v>
       </c>
       <c r="D8" t="n">
-        <v>23.14294624328613</v>
+        <v>58.42255783081055</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.5276527404785156</v>
+        <v>-6.632174968719482</v>
       </c>
       <c r="F8" t="n">
-        <v>-8.975648880004883</v>
+        <v>-16.56333351135254</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.915320873260498</v>
+        <v>33.73128509521484</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.6935490965843201</v>
+        <v>25.47647094726562</v>
       </c>
       <c r="C9" t="n">
-        <v>2.812512159347534</v>
+        <v>24.3905086517334</v>
       </c>
       <c r="D9" t="n">
-        <v>21.92813110351562</v>
+        <v>59.02912521362305</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6648856997489929</v>
+        <v>-1.905576705932617</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.727127075195312</v>
+        <v>-12.72189712524414</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.579424858093262</v>
+        <v>31.47412300109863</v>
       </c>
       <c r="B10" t="n">
-        <v>0.7458035945892334</v>
+        <v>28.70167922973633</v>
       </c>
       <c r="C10" t="n">
-        <v>1.565154075622559</v>
+        <v>22.64547538757324</v>
       </c>
       <c r="D10" t="n">
-        <v>22.66821479797363</v>
+        <v>59.10577011108398</v>
       </c>
       <c r="E10" t="n">
-        <v>1.617514610290527</v>
+        <v>0.4525938034057617</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.916136264801025</v>
+        <v>-7.49386739730835</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.479287147521973</v>
+        <v>27.61491012573242</v>
       </c>
       <c r="B11" t="n">
-        <v>2.663573503494263</v>
+        <v>31.0268726348877</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.8899368643760681</v>
+        <v>19.22090339660645</v>
       </c>
       <c r="D11" t="n">
-        <v>20.19475364685059</v>
+        <v>55.22712707519531</v>
       </c>
       <c r="E11" t="n">
-        <v>2.42821216583252</v>
+        <v>2.803615570068359</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.433521747589111</v>
+        <v>-1.647561192512512</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.5200909972190857</v>
+        <v>25.23527717590332</v>
       </c>
       <c r="B12" t="n">
-        <v>4.445382595062256</v>
+        <v>33.95362854003906</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.941506624221802</v>
+        <v>17.39709281921387</v>
       </c>
       <c r="D12" t="n">
-        <v>17.41103744506836</v>
+        <v>51.72040939331055</v>
       </c>
       <c r="E12" t="n">
-        <v>2.953257322311401</v>
+        <v>3.279596328735352</v>
       </c>
       <c r="F12" t="n">
-        <v>1.041344881057739</v>
+        <v>3.356223106384277</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.88120436668396</v>
+        <v>21.47086334228516</v>
       </c>
       <c r="B13" t="n">
-        <v>5.424838066101074</v>
+        <v>35.66260147094727</v>
       </c>
       <c r="C13" t="n">
-        <v>-5.013043880462646</v>
+        <v>14.76171016693115</v>
       </c>
       <c r="D13" t="n">
-        <v>14.68296813964844</v>
+        <v>47.03313064575195</v>
       </c>
       <c r="E13" t="n">
-        <v>2.872626543045044</v>
+        <v>4.569997787475586</v>
       </c>
       <c r="F13" t="n">
-        <v>2.855569124221802</v>
+        <v>7.027462005615234</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.962310314178467</v>
+        <v>18.62297058105469</v>
       </c>
       <c r="B14" t="n">
-        <v>6.152259826660156</v>
+        <v>37.82837677001953</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.799562931060791</v>
+        <v>11.2048168182373</v>
       </c>
       <c r="D14" t="n">
-        <v>10.39264011383057</v>
+        <v>40.25748825073242</v>
       </c>
       <c r="E14" t="n">
-        <v>3.405349731445312</v>
+        <v>4.720767974853516</v>
       </c>
       <c r="F14" t="n">
-        <v>3.243895292282104</v>
+        <v>9.252217292785645</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.783257484436035</v>
+        <v>15.40694522857666</v>
       </c>
       <c r="B15" t="n">
-        <v>7.314617156982422</v>
+        <v>38.61082458496094</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.991862297058105</v>
+        <v>8.682236671447754</v>
       </c>
       <c r="D15" t="n">
-        <v>5.82475757598877</v>
+        <v>34.70747756958008</v>
       </c>
       <c r="E15" t="n">
-        <v>3.694785356521606</v>
+        <v>6.169264793395996</v>
       </c>
       <c r="F15" t="n">
-        <v>3.630354404449463</v>
+        <v>10.01193809509277</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.626987457275391</v>
+        <v>12.73808097839355</v>
       </c>
       <c r="B16" t="n">
-        <v>7.248884201049805</v>
+        <v>40.47304534912109</v>
       </c>
       <c r="C16" t="n">
-        <v>-10.87365245819092</v>
+        <v>6.79274845123291</v>
       </c>
       <c r="D16" t="n">
-        <v>1.366088271141052</v>
+        <v>26.43236351013184</v>
       </c>
       <c r="E16" t="n">
-        <v>4.250895023345947</v>
+        <v>7.275877952575684</v>
       </c>
       <c r="F16" t="n">
-        <v>3.700236320495605</v>
+        <v>10.03725051879883</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-8.210097312927246</v>
+        <v>9.566448211669922</v>
       </c>
       <c r="B17" t="n">
-        <v>7.725131034851074</v>
+        <v>40.97816848754883</v>
       </c>
       <c r="C17" t="n">
-        <v>-12.12766075134277</v>
+        <v>5.02163028717041</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.090731620788574</v>
+        <v>19.37831687927246</v>
       </c>
       <c r="E17" t="n">
-        <v>5.215645790100098</v>
+        <v>8.535079956054688</v>
       </c>
       <c r="F17" t="n">
-        <v>3.377652406692505</v>
+        <v>8.964341163635254</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-9.87922191619873</v>
+        <v>7.010715961456299</v>
       </c>
       <c r="B18" t="n">
-        <v>7.628194808959961</v>
+        <v>41.02544403076172</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.85794734954834</v>
+        <v>5.484478950500488</v>
       </c>
       <c r="D18" t="n">
-        <v>-7.362668514251709</v>
+        <v>14.1941089630127</v>
       </c>
       <c r="E18" t="n">
-        <v>6.496250629425049</v>
+        <v>10.91045475006104</v>
       </c>
       <c r="F18" t="n">
-        <v>3.021973133087158</v>
+        <v>7.236929893493652</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-11.28416061401367</v>
+        <v>4.170006275177002</v>
       </c>
       <c r="B19" t="n">
-        <v>7.803920745849609</v>
+        <v>41.1004524230957</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.48056316375732</v>
+        <v>3.898953199386597</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.60471343994141</v>
+        <v>9.865626335144043</v>
       </c>
       <c r="E19" t="n">
-        <v>7.626613140106201</v>
+        <v>12.87417507171631</v>
       </c>
       <c r="F19" t="n">
-        <v>2.675864934921265</v>
+        <v>5.799545288085938</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-12.53249740600586</v>
+        <v>2.370533466339111</v>
       </c>
       <c r="B20" t="n">
-        <v>7.618613243103027</v>
+        <v>41.21506881713867</v>
       </c>
       <c r="C20" t="n">
-        <v>-14.36560344696045</v>
+        <v>4.568497657775879</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.52186489105225</v>
+        <v>5.244397163391113</v>
       </c>
       <c r="E20" t="n">
-        <v>8.894028663635254</v>
+        <v>16.37493705749512</v>
       </c>
       <c r="F20" t="n">
-        <v>2.313331127166748</v>
+        <v>5.195792198181152</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-13.55917739868164</v>
+        <v>0.3865800499916077</v>
       </c>
       <c r="B21" t="n">
-        <v>7.396868705749512</v>
+        <v>40.86305618286133</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.43794727325439</v>
+        <v>4.972201347351074</v>
       </c>
       <c r="D21" t="n">
-        <v>-14.51786231994629</v>
+        <v>2.491503953933716</v>
       </c>
       <c r="E21" t="n">
-        <v>10.40515899658203</v>
+        <v>18.24886703491211</v>
       </c>
       <c r="F21" t="n">
-        <v>2.558139801025391</v>
+        <v>3.795351982116699</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-14.90765285491943</v>
+        <v>-1.587012767791748</v>
       </c>
       <c r="B22" t="n">
-        <v>7.671655654907227</v>
+        <v>41.00400543212891</v>
       </c>
       <c r="C22" t="n">
-        <v>-12.92299842834473</v>
+        <v>6.349753379821777</v>
       </c>
       <c r="D22" t="n">
-        <v>-15.34281826019287</v>
+        <v>0.8014479875564575</v>
       </c>
       <c r="E22" t="n">
-        <v>11.29479122161865</v>
+        <v>20.73929214477539</v>
       </c>
       <c r="F22" t="n">
-        <v>1.862490296363831</v>
+        <v>1.385589480400085</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-16.04204559326172</v>
+        <v>-3.497777462005615</v>
       </c>
       <c r="B23" t="n">
-        <v>6.683107376098633</v>
+        <v>41.01868438720703</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.41129493713379</v>
+        <v>7.77645206451416</v>
       </c>
       <c r="D23" t="n">
-        <v>-14.72763347625732</v>
+        <v>0.4627944231033325</v>
       </c>
       <c r="E23" t="n">
-        <v>12.01051330566406</v>
+        <v>21.11042785644531</v>
       </c>
       <c r="F23" t="n">
-        <v>1.194959998130798</v>
+        <v>-1.279098629951477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-16.4948558807373</v>
+        <v>-3.705333232879639</v>
       </c>
       <c r="B24" t="n">
-        <v>7.382558822631836</v>
+        <v>40.76655578613281</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.45195293426514</v>
+        <v>10.93217945098877</v>
       </c>
       <c r="D24" t="n">
-        <v>-13.44919776916504</v>
+        <v>1.761662602424622</v>
       </c>
       <c r="E24" t="n">
-        <v>11.99872875213623</v>
+        <v>21.59340286254883</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05745797976851463</v>
+        <v>-4.506608486175537</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-16.5781192779541</v>
+        <v>-4.247825145721436</v>
       </c>
       <c r="B25" t="n">
-        <v>7.929612159729004</v>
+        <v>40.74475860595703</v>
       </c>
       <c r="C25" t="n">
-        <v>-9.00684642791748</v>
+        <v>14.10288143157959</v>
       </c>
       <c r="D25" t="n">
-        <v>-10.72608089447021</v>
+        <v>4.171067237854004</v>
       </c>
       <c r="E25" t="n">
-        <v>10.7737455368042</v>
+        <v>18.20088958740234</v>
       </c>
       <c r="F25" t="n">
-        <v>-1.737925052642822</v>
+        <v>-10.3245849609375</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-16.66757011413574</v>
+        <v>-4.040584087371826</v>
       </c>
       <c r="B26" t="n">
-        <v>8.463727951049805</v>
+        <v>40.97747802734375</v>
       </c>
       <c r="C26" t="n">
-        <v>-5.88345193862915</v>
+        <v>19.13911056518555</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.819308757781982</v>
+        <v>7.793904304504395</v>
       </c>
       <c r="E26" t="n">
-        <v>7.917487621307373</v>
+        <v>10.09520816802979</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.998173236846924</v>
+        <v>-14.50291061401367</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-15.80524730682373</v>
+        <v>-3.501142024993896</v>
       </c>
       <c r="B27" t="n">
-        <v>8.70842170715332</v>
+        <v>40.84592437744141</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.004542827606201</v>
+        <v>24.77018356323242</v>
       </c>
       <c r="D27" t="n">
-        <v>-5.40003490447998</v>
+        <v>10.8495626449585</v>
       </c>
       <c r="E27" t="n">
-        <v>3.398165702819824</v>
+        <v>-0.06318759173154831</v>
       </c>
       <c r="F27" t="n">
-        <v>-5.947719573974609</v>
+        <v>-18.6508960723877</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-14.753737449646</v>
+        <v>-3.119670391082764</v>
       </c>
       <c r="B28" t="n">
-        <v>9.738324165344238</v>
+        <v>39.68216705322266</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5858772993087769</v>
+        <v>29.78540802001953</v>
       </c>
       <c r="D28" t="n">
-        <v>-3.54070520401001</v>
+        <v>13.85829925537109</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.612302303314209</v>
+        <v>-12.74123859405518</v>
       </c>
       <c r="F28" t="n">
-        <v>-6.59966516494751</v>
+        <v>-21.69341087341309</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-13.88191413879395</v>
+        <v>0.7985578179359436</v>
       </c>
       <c r="B29" t="n">
-        <v>9.296794891357422</v>
+        <v>39.21313858032227</v>
       </c>
       <c r="C29" t="n">
-        <v>4.469626426696777</v>
+        <v>37.64288330078125</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4549735486507416</v>
+        <v>17.05474472045898</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.810107707977295</v>
+        <v>-25.17527961730957</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.672706604003906</v>
+        <v>-22.82518577575684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-12.07830142974854</v>
+        <v>2.869968891143799</v>
       </c>
       <c r="B30" t="n">
-        <v>9.25840950012207</v>
+        <v>38.45851516723633</v>
       </c>
       <c r="C30" t="n">
-        <v>8.240012168884277</v>
+        <v>44.11174392700195</v>
       </c>
       <c r="D30" t="n">
-        <v>1.674410939216614</v>
+        <v>19.63298225402832</v>
       </c>
       <c r="E30" t="n">
-        <v>-11.60243892669678</v>
+        <v>-36.06612396240234</v>
       </c>
       <c r="F30" t="n">
-        <v>-8.064272880554199</v>
+        <v>-23.0996036529541</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-9.479446411132812</v>
+        <v>7.286989688873291</v>
       </c>
       <c r="B31" t="n">
-        <v>8.766834259033203</v>
+        <v>37.07767105102539</v>
       </c>
       <c r="C31" t="n">
-        <v>11.96865558624268</v>
+        <v>51.06371307373047</v>
       </c>
       <c r="D31" t="n">
-        <v>1.544113993644714</v>
+        <v>21.20938682556152</v>
       </c>
       <c r="E31" t="n">
-        <v>-14.03616142272949</v>
+        <v>-41.71662521362305</v>
       </c>
       <c r="F31" t="n">
-        <v>-6.452600955963135</v>
+        <v>-19.964111328125</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-7.099225997924805</v>
+        <v>10.85897064208984</v>
       </c>
       <c r="B32" t="n">
-        <v>8.21385383605957</v>
+        <v>34.68244934082031</v>
       </c>
       <c r="C32" t="n">
-        <v>15.83406352996826</v>
+        <v>57.94392776489258</v>
       </c>
       <c r="D32" t="n">
-        <v>2.243911743164062</v>
+        <v>21.1280460357666</v>
       </c>
       <c r="E32" t="n">
-        <v>-15.31744766235352</v>
+        <v>-45.12248229980469</v>
       </c>
       <c r="F32" t="n">
-        <v>-4.955785751342773</v>
+        <v>-15.96629810333252</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-4.466246604919434</v>
+        <v>15.55516147613525</v>
       </c>
       <c r="B33" t="n">
-        <v>6.345266342163086</v>
+        <v>31.93233108520508</v>
       </c>
       <c r="C33" t="n">
-        <v>19.37278366088867</v>
+        <v>62.96817016601562</v>
       </c>
       <c r="D33" t="n">
-        <v>1.781632304191589</v>
+        <v>20.14008712768555</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.07217884063721</v>
+        <v>-42.74457931518555</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.446535110473633</v>
+        <v>-13.53228282928467</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-2.254915475845337</v>
+        <v>19.5097770690918</v>
       </c>
       <c r="B34" t="n">
-        <v>5.540439128875732</v>
+        <v>29.26547622680664</v>
       </c>
       <c r="C34" t="n">
-        <v>22.90729331970215</v>
+        <v>66.80593872070312</v>
       </c>
       <c r="D34" t="n">
-        <v>0.8701196312904358</v>
+        <v>18.32932281494141</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.29876136779785</v>
+        <v>-36.33872985839844</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.175917863845825</v>
+        <v>-9.464771270751953</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.3452247083187103</v>
+        <v>22.98773574829102</v>
       </c>
       <c r="B35" t="n">
-        <v>3.239151954650879</v>
+        <v>26.1583194732666</v>
       </c>
       <c r="C35" t="n">
-        <v>24.28785514831543</v>
+        <v>69.82912445068359</v>
       </c>
       <c r="D35" t="n">
-        <v>-1.153926372528076</v>
+        <v>16.46234321594238</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.504931449890137</v>
+        <v>-28.32812309265137</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.307636380195618</v>
+        <v>-8.220640182495117</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.60701060295105</v>
+        <v>27.0040111541748</v>
       </c>
       <c r="B36" t="n">
-        <v>1.309300422668457</v>
+        <v>22.82049751281738</v>
       </c>
       <c r="C36" t="n">
-        <v>25.40458488464355</v>
+        <v>70.56678771972656</v>
       </c>
       <c r="D36" t="n">
-        <v>-3.059403896331787</v>
+        <v>13.70931911468506</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.615719318389893</v>
+        <v>-18.93106269836426</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.7963889837265015</v>
+        <v>-6.653453826904297</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.961419105529785</v>
+        <v>30.39092254638672</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1590580195188522</v>
+        <v>19.30880928039551</v>
       </c>
       <c r="C37" t="n">
-        <v>24.58846664428711</v>
+        <v>68.85898590087891</v>
       </c>
       <c r="D37" t="n">
-        <v>-5.390632629394531</v>
+        <v>10.50244903564453</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5731150507926941</v>
+        <v>-12.79022789001465</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.3102906942367554</v>
+        <v>-4.923534393310547</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>6.225084781646729</v>
+        <v>32.65839767456055</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.714048743247986</v>
+        <v>16.15237236022949</v>
       </c>
       <c r="C38" t="n">
-        <v>22.541259765625</v>
+        <v>64.28726959228516</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.522908210754395</v>
+        <v>8.410740852355957</v>
       </c>
       <c r="E38" t="n">
-        <v>1.855523824691772</v>
+        <v>-7.899265766143799</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1485490500926971</v>
+        <v>-3.753479719161987</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.258547782897949</v>
+        <v>35.12315368652344</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.390126943588257</v>
+        <v>12.78502464294434</v>
       </c>
       <c r="C39" t="n">
-        <v>18.5178108215332</v>
+        <v>58.50397491455078</v>
       </c>
       <c r="D39" t="n">
-        <v>-9.008003234863281</v>
+        <v>5.906050682067871</v>
       </c>
       <c r="E39" t="n">
-        <v>2.978266716003418</v>
+        <v>-6.462167263031006</v>
       </c>
       <c r="F39" t="n">
-        <v>0.750543475151062</v>
+        <v>-2.270108222961426</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>7.706798553466797</v>
+        <v>36.62222290039062</v>
       </c>
       <c r="B40" t="n">
-        <v>-4.496716976165771</v>
+        <v>10.23065090179443</v>
       </c>
       <c r="C40" t="n">
-        <v>14.62351703643799</v>
+        <v>53.41471862792969</v>
       </c>
       <c r="D40" t="n">
-        <v>-9.859806060791016</v>
+        <v>5.47605037689209</v>
       </c>
       <c r="E40" t="n">
-        <v>3.867893934249878</v>
+        <v>-5.195158004760742</v>
       </c>
       <c r="F40" t="n">
-        <v>1.511475682258606</v>
+        <v>-0.0724225714802742</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7.963321685791016</v>
+        <v>37.97417068481445</v>
       </c>
       <c r="B41" t="n">
-        <v>-6.342378616333008</v>
+        <v>7.654566764831543</v>
       </c>
       <c r="C41" t="n">
-        <v>9.814239501953125</v>
+        <v>43.45328903198242</v>
       </c>
       <c r="D41" t="n">
-        <v>-10.399489402771</v>
+        <v>3.007056474685669</v>
       </c>
       <c r="E41" t="n">
-        <v>3.625104188919067</v>
+        <v>-5.920581817626953</v>
       </c>
       <c r="F41" t="n">
-        <v>2.579299688339233</v>
+        <v>1.838873267173767</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.322285652160645</v>
+        <v>38.27410507202148</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.636505603790283</v>
+        <v>4.995669364929199</v>
       </c>
       <c r="C42" t="n">
-        <v>3.779240369796753</v>
+        <v>35.79974365234375</v>
       </c>
       <c r="D42" t="n">
-        <v>-11.53267097473145</v>
+        <v>2.12751317024231</v>
       </c>
       <c r="E42" t="n">
-        <v>2.78740382194519</v>
+        <v>-7.523322582244873</v>
       </c>
       <c r="F42" t="n">
-        <v>3.808498859405518</v>
+        <v>5.273477554321289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.698489189147949</v>
+        <v>38.61270904541016</v>
       </c>
       <c r="B43" t="n">
-        <v>-9.32574462890625</v>
+        <v>2.22119402885437</v>
       </c>
       <c r="C43" t="n">
-        <v>-1.570393323898315</v>
+        <v>27.14557838439941</v>
       </c>
       <c r="D43" t="n">
-        <v>-12.27373218536377</v>
+        <v>2.335625886917114</v>
       </c>
       <c r="E43" t="n">
-        <v>2.098228693008423</v>
+        <v>-9.569202423095703</v>
       </c>
       <c r="F43" t="n">
-        <v>5.613088607788086</v>
+        <v>7.971955299377441</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>5.799188613891602</v>
+        <v>38.19523620605469</v>
       </c>
       <c r="B44" t="n">
-        <v>-10.61228656768799</v>
+        <v>-0.321999728679657</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.485650539398193</v>
+        <v>20.30460929870605</v>
       </c>
       <c r="D44" t="n">
-        <v>-12.12837505340576</v>
+        <v>3.14543080329895</v>
       </c>
       <c r="E44" t="n">
-        <v>0.7007888555526733</v>
+        <v>-11.21504497528076</v>
       </c>
       <c r="F44" t="n">
-        <v>6.729053020477295</v>
+        <v>11.32306480407715</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>6.375555038452148</v>
+        <v>37.96943664550781</v>
       </c>
       <c r="B45" t="n">
-        <v>-12.02162075042725</v>
+        <v>-3.912589311599731</v>
       </c>
       <c r="C45" t="n">
-        <v>-9.113515853881836</v>
+        <v>13.33595943450928</v>
       </c>
       <c r="D45" t="n">
-        <v>-11.76183032989502</v>
+        <v>2.823003053665161</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.0941731184720993</v>
+        <v>-11.27205371856689</v>
       </c>
       <c r="F45" t="n">
-        <v>8.597353935241699</v>
+        <v>13.94424629211426</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.875296115875244</v>
+        <v>37.90262222290039</v>
       </c>
       <c r="B46" t="n">
-        <v>-13.47823429107666</v>
+        <v>-5.60692310333252</v>
       </c>
       <c r="C46" t="n">
-        <v>-12.63606071472168</v>
+        <v>8.25953197479248</v>
       </c>
       <c r="D46" t="n">
-        <v>-11.71357536315918</v>
+        <v>3.366278886795044</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6876159310340881</v>
+        <v>-12.43389225006104</v>
       </c>
       <c r="F46" t="n">
-        <v>9.690779685974121</v>
+        <v>16.46224212646484</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.283118724822998</v>
+        <v>39.2123908996582</v>
       </c>
       <c r="B47" t="n">
-        <v>-14.71929836273193</v>
+        <v>-7.475802421569824</v>
       </c>
       <c r="C47" t="n">
-        <v>-13.74704837799072</v>
+        <v>6.581524848937988</v>
       </c>
       <c r="D47" t="n">
-        <v>-12.09516620635986</v>
+        <v>5.02271556854248</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.165896654129028</v>
+        <v>-12.10244083404541</v>
       </c>
       <c r="F47" t="n">
-        <v>10.62315940856934</v>
+        <v>18.47805213928223</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.437766551971436</v>
+        <v>39.51571655273438</v>
       </c>
       <c r="B48" t="n">
-        <v>-15.70328330993652</v>
+        <v>-10.15764141082764</v>
       </c>
       <c r="C48" t="n">
-        <v>-13.58549404144287</v>
+        <v>5.10081958770752</v>
       </c>
       <c r="D48" t="n">
-        <v>-10.94241905212402</v>
+        <v>4.869141578674316</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.398823618888855</v>
+        <v>-12.24565887451172</v>
       </c>
       <c r="F48" t="n">
-        <v>11.41075325012207</v>
+        <v>18.86379241943359</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.173381805419922</v>
+        <v>39.29409408569336</v>
       </c>
       <c r="B49" t="n">
-        <v>-16.55694198608398</v>
+        <v>-11.01497554779053</v>
       </c>
       <c r="C49" t="n">
-        <v>-11.98775196075439</v>
+        <v>6.07064151763916</v>
       </c>
       <c r="D49" t="n">
-        <v>-9.995532035827637</v>
+        <v>7.298125267028809</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.888363480567932</v>
+        <v>-12.97286701202393</v>
       </c>
       <c r="F49" t="n">
-        <v>11.76426029205322</v>
+        <v>18.77012825012207</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>7.138623237609863</v>
+        <v>41.66656875610352</v>
       </c>
       <c r="B50" t="n">
-        <v>-17.17333030700684</v>
+        <v>-12.49413967132568</v>
       </c>
       <c r="C50" t="n">
-        <v>-10.45603179931641</v>
+        <v>7.696118354797363</v>
       </c>
       <c r="D50" t="n">
-        <v>-9.205589294433594</v>
+        <v>9.892979621887207</v>
       </c>
       <c r="E50" t="n">
-        <v>-1.822634816169739</v>
+        <v>-13.27617931365967</v>
       </c>
       <c r="F50" t="n">
-        <v>10.38615894317627</v>
+        <v>15.66000747680664</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.211441993713379</v>
+        <v>42.30328369140625</v>
       </c>
       <c r="B51" t="n">
-        <v>-17.32297897338867</v>
+        <v>-13.09372997283936</v>
       </c>
       <c r="C51" t="n">
-        <v>-9.669351577758789</v>
+        <v>9.027430534362793</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.98723840713501</v>
+        <v>13.63704586029053</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.586971521377563</v>
+        <v>-15.25347709655762</v>
       </c>
       <c r="F51" t="n">
-        <v>7.88498592376709</v>
+        <v>10.61640167236328</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.902492523193359</v>
+        <v>42.88077545166016</v>
       </c>
       <c r="B52" t="n">
-        <v>-17.7906322479248</v>
+        <v>-11.62316799163818</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.959828853607178</v>
+        <v>10.62906265258789</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.010463714599609</v>
+        <v>18.20247077941895</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.955087900161743</v>
+        <v>-18.08426475524902</v>
       </c>
       <c r="F52" t="n">
-        <v>3.892385721206665</v>
+        <v>0.7356476187705994</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8.830832481384277</v>
+        <v>41.79758071899414</v>
       </c>
       <c r="B53" t="n">
-        <v>-13.03127479553223</v>
+        <v>6.325308799743652</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.073756694793701</v>
+        <v>11.99923038482666</v>
       </c>
       <c r="D53" t="n">
-        <v>1.572118401527405</v>
+        <v>28.95194053649902</v>
       </c>
       <c r="E53" t="n">
-        <v>-5.317615985870361</v>
+        <v>-20.00610733032227</v>
       </c>
       <c r="F53" t="n">
-        <v>2.441219806671143</v>
+        <v>9.636556625366211</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.66872501373291</v>
+        <v>41.94678497314453</v>
       </c>
       <c r="B54" t="n">
-        <v>-12.81650733947754</v>
+        <v>7.046841621398926</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.083984375</v>
+        <v>15.94987106323242</v>
       </c>
       <c r="D54" t="n">
-        <v>5.728148460388184</v>
+        <v>35.49181747436523</v>
       </c>
       <c r="E54" t="n">
-        <v>-6.359233856201172</v>
+        <v>-21.00494003295898</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.655694246292114</v>
+        <v>1.163644671440125</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.76725959777832</v>
+        <v>42.033935546875</v>
       </c>
       <c r="B55" t="n">
-        <v>-10.63074111938477</v>
+        <v>10.19004058837891</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6912360191345215</v>
+        <v>19.84126853942871</v>
       </c>
       <c r="D55" t="n">
-        <v>9.340754508972168</v>
+        <v>40.68328857421875</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.205204486846924</v>
+        <v>-20.26816177368164</v>
       </c>
       <c r="F55" t="n">
-        <v>-5.297164916992188</v>
+        <v>-6.561694622039795</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.31550598144531</v>
+        <v>41.98532867431641</v>
       </c>
       <c r="B56" t="n">
-        <v>-9.31346321105957</v>
+        <v>12.43107128143311</v>
       </c>
       <c r="C56" t="n">
-        <v>2.078970670700073</v>
+        <v>23.28942108154297</v>
       </c>
       <c r="D56" t="n">
-        <v>13.23422622680664</v>
+        <v>46.77649307250977</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.99114990234375</v>
+        <v>-18.17387390136719</v>
       </c>
       <c r="F56" t="n">
-        <v>-8.450056076049805</v>
+        <v>-13.63046550750732</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.417455673217773</v>
+        <v>40.67494964599609</v>
       </c>
       <c r="B57" t="n">
-        <v>-7.746052265167236</v>
+        <v>16.02844429016113</v>
       </c>
       <c r="C57" t="n">
-        <v>4.008648872375488</v>
+        <v>24.77713012695312</v>
       </c>
       <c r="D57" t="n">
-        <v>16.96949577331543</v>
+        <v>51.39609527587891</v>
       </c>
       <c r="E57" t="n">
-        <v>-4.19761323928833</v>
+        <v>-15.46173572540283</v>
       </c>
       <c r="F57" t="n">
-        <v>-9.719589233398438</v>
+        <v>-16.61311912536621</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.687090873718262</v>
+        <v>38.69634628295898</v>
       </c>
       <c r="B58" t="n">
-        <v>-5.346712589263916</v>
+        <v>19.02219581604004</v>
       </c>
       <c r="C58" t="n">
-        <v>4.268093109130859</v>
+        <v>26.1837215423584</v>
       </c>
       <c r="D58" t="n">
-        <v>19.38814735412598</v>
+        <v>56.12917327880859</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.67911958694458</v>
+        <v>-10.69719219207764</v>
       </c>
       <c r="F58" t="n">
-        <v>-9.757327079772949</v>
+        <v>-18.56820487976074</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.29860782623291</v>
+        <v>36.43825912475586</v>
       </c>
       <c r="B59" t="n">
-        <v>-3.02747368812561</v>
+        <v>21.9307689666748</v>
       </c>
       <c r="C59" t="n">
-        <v>3.845974206924438</v>
+        <v>24.91486358642578</v>
       </c>
       <c r="D59" t="n">
-        <v>22.65875625610352</v>
+        <v>58.57052230834961</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.636570155620575</v>
+        <v>-7.058784008026123</v>
       </c>
       <c r="F59" t="n">
-        <v>-9.003113746643066</v>
+        <v>-16.39004898071289</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.942980289459229</v>
+        <v>33.76446151733398</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.8555324077606201</v>
+        <v>25.25355339050293</v>
       </c>
       <c r="C60" t="n">
-        <v>2.709526538848877</v>
+        <v>23.91304779052734</v>
       </c>
       <c r="D60" t="n">
-        <v>22.1005916595459</v>
+        <v>59.09456634521484</v>
       </c>
       <c r="E60" t="n">
-        <v>0.6873951554298401</v>
+        <v>-2.662540912628174</v>
       </c>
       <c r="F60" t="n">
-        <v>-6.730984210968018</v>
+        <v>-12.78824329376221</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.564405918121338</v>
+        <v>31.24661636352539</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8995311260223389</v>
+        <v>28.60899925231934</v>
       </c>
       <c r="C61" t="n">
-        <v>1.289647340774536</v>
+        <v>21.95436668395996</v>
       </c>
       <c r="D61" t="n">
-        <v>22.5997486114502</v>
+        <v>59.20014190673828</v>
       </c>
       <c r="E61" t="n">
-        <v>1.615984201431274</v>
+        <v>-0.130363941192627</v>
       </c>
       <c r="F61" t="n">
-        <v>-3.787041187286377</v>
+        <v>-7.420569896697998</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.470648288726807</v>
+        <v>27.6717700958252</v>
       </c>
       <c r="B62" t="n">
-        <v>2.621749401092529</v>
+        <v>31.24912643432617</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.973935604095459</v>
+        <v>19.2652587890625</v>
       </c>
       <c r="D62" t="n">
-        <v>20.40016555786133</v>
+        <v>55.57904434204102</v>
       </c>
       <c r="E62" t="n">
-        <v>2.362585544586182</v>
+        <v>2.097929954528809</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.256429433822632</v>
+        <v>-1.391690373420715</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.690531313419342</v>
+        <v>25.18029975891113</v>
       </c>
       <c r="B63" t="n">
-        <v>4.484692573547363</v>
+        <v>33.95444869995117</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.051112651824951</v>
+        <v>16.70125770568848</v>
       </c>
       <c r="D63" t="n">
-        <v>17.80538940429688</v>
+        <v>52.08108139038086</v>
       </c>
       <c r="E63" t="n">
-        <v>2.878287076950073</v>
+        <v>2.88533878326416</v>
       </c>
       <c r="F63" t="n">
-        <v>1.156393647193909</v>
+        <v>3.635449409484863</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9013984799385071</v>
+        <v>21.58793449401855</v>
       </c>
       <c r="B64" t="n">
-        <v>5.4635329246521</v>
+        <v>35.91540908813477</v>
       </c>
       <c r="C64" t="n">
-        <v>-5.164424896240234</v>
+        <v>14.32248687744141</v>
       </c>
       <c r="D64" t="n">
-        <v>14.87443161010742</v>
+        <v>47.07010650634766</v>
       </c>
       <c r="E64" t="n">
-        <v>2.990988969802856</v>
+        <v>4.164798736572266</v>
       </c>
       <c r="F64" t="n">
-        <v>2.938624620437622</v>
+        <v>7.259000778198242</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-2.924742937088013</v>
+        <v>18.74219131469727</v>
       </c>
       <c r="B65" t="n">
-        <v>6.306020259857178</v>
+        <v>37.90034103393555</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.1077880859375</v>
+        <v>10.98252201080322</v>
       </c>
       <c r="D65" t="n">
-        <v>10.88007926940918</v>
+        <v>40.29608917236328</v>
       </c>
       <c r="E65" t="n">
-        <v>3.320221662521362</v>
+        <v>4.371002197265625</v>
       </c>
       <c r="F65" t="n">
-        <v>3.345481634140015</v>
+        <v>9.346141815185547</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-4.785759449005127</v>
+        <v>15.42498683929443</v>
       </c>
       <c r="B66" t="n">
-        <v>7.304457664489746</v>
+        <v>38.88599014282227</v>
       </c>
       <c r="C66" t="n">
-        <v>-9.238509178161621</v>
+        <v>8.483452796936035</v>
       </c>
       <c r="D66" t="n">
-        <v>6.381960868835449</v>
+        <v>34.15306091308594</v>
       </c>
       <c r="E66" t="n">
-        <v>3.774617195129395</v>
+        <v>5.621946334838867</v>
       </c>
       <c r="F66" t="n">
-        <v>3.667865991592407</v>
+        <v>10.13066482543945</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-6.620661735534668</v>
+        <v>12.56098651885986</v>
       </c>
       <c r="B67" t="n">
-        <v>7.455142974853516</v>
+        <v>40.3245849609375</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.10422134399414</v>
+        <v>6.222643852233887</v>
       </c>
       <c r="D67" t="n">
-        <v>1.686904788017273</v>
+        <v>26.10387420654297</v>
       </c>
       <c r="E67" t="n">
-        <v>4.270026683807373</v>
+        <v>7.048352241516113</v>
       </c>
       <c r="F67" t="n">
-        <v>3.705795526504517</v>
+        <v>10.17370986938477</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-8.153532028198242</v>
+        <v>9.570781707763672</v>
       </c>
       <c r="B68" t="n">
-        <v>7.723987579345703</v>
+        <v>40.92717742919922</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.17873287200928</v>
+        <v>4.623425483703613</v>
       </c>
       <c r="D68" t="n">
-        <v>-2.671329498291016</v>
+        <v>19.1738395690918</v>
       </c>
       <c r="E68" t="n">
-        <v>5.159891605377197</v>
+        <v>8.289005279541016</v>
       </c>
       <c r="F68" t="n">
-        <v>3.265415668487549</v>
+        <v>9.028031349182129</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-9.747743606567383</v>
+        <v>6.990061283111572</v>
       </c>
       <c r="B69" t="n">
-        <v>7.633823394775391</v>
+        <v>41.01077270507812</v>
       </c>
       <c r="C69" t="n">
-        <v>-13.00385570526123</v>
+        <v>4.732119560241699</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.091291904449463</v>
+        <v>13.6287088394165</v>
       </c>
       <c r="E69" t="n">
-        <v>6.407552719116211</v>
+        <v>10.96826076507568</v>
       </c>
       <c r="F69" t="n">
-        <v>2.974603652954102</v>
+        <v>7.410667419433594</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-11.17728519439697</v>
+        <v>3.997993946075439</v>
       </c>
       <c r="B70" t="n">
-        <v>7.724359512329102</v>
+        <v>41.05340194702148</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.65831089019775</v>
+        <v>3.583288908004761</v>
       </c>
       <c r="D70" t="n">
-        <v>-10.55602359771729</v>
+        <v>9.00391674041748</v>
       </c>
       <c r="E70" t="n">
-        <v>7.730805397033691</v>
+        <v>13.15404796600342</v>
       </c>
       <c r="F70" t="n">
-        <v>2.636412382125854</v>
+        <v>5.893712997436523</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-12.53054046630859</v>
+        <v>2.146765232086182</v>
       </c>
       <c r="B71" t="n">
-        <v>7.329164505004883</v>
+        <v>41.23772811889648</v>
       </c>
       <c r="C71" t="n">
-        <v>-14.12535858154297</v>
+        <v>4.098599433898926</v>
       </c>
       <c r="D71" t="n">
-        <v>-13.18145084381104</v>
+        <v>4.747990608215332</v>
       </c>
       <c r="E71" t="n">
-        <v>8.855813980102539</v>
+        <v>16.34372901916504</v>
       </c>
       <c r="F71" t="n">
-        <v>2.210402250289917</v>
+        <v>4.976659774780273</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-13.55390453338623</v>
+        <v>0.0009961717296391726</v>
       </c>
       <c r="B72" t="n">
-        <v>7.341344833374023</v>
+        <v>40.98273849487305</v>
       </c>
       <c r="C72" t="n">
-        <v>-13.34085559844971</v>
+        <v>4.615267753601074</v>
       </c>
       <c r="D72" t="n">
-        <v>-14.26062488555908</v>
+        <v>2.011492967605591</v>
       </c>
       <c r="E72" t="n">
-        <v>10.34494972229004</v>
+        <v>18.40188980102539</v>
       </c>
       <c r="F72" t="n">
-        <v>2.397474050521851</v>
+        <v>3.531692504882812</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-14.76131629943848</v>
+        <v>-1.920552730560303</v>
       </c>
       <c r="B73" t="n">
-        <v>7.588620185852051</v>
+        <v>40.84470367431641</v>
       </c>
       <c r="C73" t="n">
-        <v>-12.88755321502686</v>
+        <v>6.200671195983887</v>
       </c>
       <c r="D73" t="n">
-        <v>-15.13753032684326</v>
+        <v>0.2240325212478638</v>
       </c>
       <c r="E73" t="n">
-        <v>11.27869892120361</v>
+        <v>20.70897483825684</v>
       </c>
       <c r="F73" t="n">
-        <v>1.808444619178772</v>
+        <v>1.276738047599792</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-15.77402687072754</v>
+        <v>-3.493373394012451</v>
       </c>
       <c r="B74" t="n">
-        <v>6.772536277770996</v>
+        <v>40.63444137573242</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.15054893493652</v>
+        <v>7.647831916809082</v>
       </c>
       <c r="D74" t="n">
-        <v>-14.42036628723145</v>
+        <v>0.1415759325027466</v>
       </c>
       <c r="E74" t="n">
-        <v>12.11048126220703</v>
+        <v>21.1541862487793</v>
       </c>
       <c r="F74" t="n">
-        <v>1.010109782218933</v>
+        <v>-1.337093949317932</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-16.32223892211914</v>
+        <v>-3.898866176605225</v>
       </c>
       <c r="B75" t="n">
-        <v>7.573065757751465</v>
+        <v>40.74931716918945</v>
       </c>
       <c r="C75" t="n">
-        <v>-10.40009117126465</v>
+        <v>10.87490177154541</v>
       </c>
       <c r="D75" t="n">
-        <v>-13.10338592529297</v>
+        <v>1.3254634141922</v>
       </c>
       <c r="E75" t="n">
-        <v>11.98624515533447</v>
+        <v>21.64307022094727</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.108210027217865</v>
+        <v>-5.051002979278564</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-16.49306297302246</v>
+        <v>-4.406684398651123</v>
       </c>
       <c r="B76" t="n">
-        <v>8.160238265991211</v>
+        <v>40.42510604858398</v>
       </c>
       <c r="C76" t="n">
-        <v>-8.650750160217285</v>
+        <v>14.14524364471436</v>
       </c>
       <c r="D76" t="n">
-        <v>-10.55937767028809</v>
+        <v>3.785048723220825</v>
       </c>
       <c r="E76" t="n">
-        <v>10.85621166229248</v>
+        <v>18.16092681884766</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.92017388343811</v>
+        <v>-10.40886211395264</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-16.4617977142334</v>
+        <v>-4.374772548675537</v>
       </c>
       <c r="B77" t="n">
-        <v>8.516487121582031</v>
+        <v>40.79155349731445</v>
       </c>
       <c r="C77" t="n">
-        <v>-5.654261112213135</v>
+        <v>19.22285842895508</v>
       </c>
       <c r="D77" t="n">
-        <v>-7.684694766998291</v>
+        <v>7.082901954650879</v>
       </c>
       <c r="E77" t="n">
-        <v>8.035661697387695</v>
+        <v>10.24827289581299</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.005165100097656</v>
+        <v>-14.98400783538818</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-15.67172336578369</v>
+        <v>-3.526147365570068</v>
       </c>
       <c r="B78" t="n">
-        <v>8.893283843994141</v>
+        <v>40.41546630859375</v>
       </c>
       <c r="C78" t="n">
-        <v>-2.862043142318726</v>
+        <v>24.76782417297363</v>
       </c>
       <c r="D78" t="n">
-        <v>-5.248326301574707</v>
+        <v>10.23254299163818</v>
       </c>
       <c r="E78" t="n">
-        <v>3.48561954498291</v>
+        <v>-0.6336684226989746</v>
       </c>
       <c r="F78" t="n">
-        <v>-5.708633899688721</v>
+        <v>-18.86061096191406</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-14.74481868743896</v>
+        <v>-3.130540370941162</v>
       </c>
       <c r="B79" t="n">
-        <v>10.02409934997559</v>
+        <v>39.6380615234375</v>
       </c>
       <c r="C79" t="n">
-        <v>0.787893533706665</v>
+        <v>30.36923027038574</v>
       </c>
       <c r="D79" t="n">
-        <v>-3.546392202377319</v>
+        <v>13.58491897583008</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.506027340888977</v>
+        <v>-13.41957378387451</v>
       </c>
       <c r="F79" t="n">
-        <v>-6.454677581787109</v>
+        <v>-21.79539680480957</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-13.72053146362305</v>
+        <v>0.4142270684242249</v>
       </c>
       <c r="B80" t="n">
-        <v>9.616196632385254</v>
+        <v>39.15303039550781</v>
       </c>
       <c r="C80" t="n">
-        <v>4.523262500762939</v>
+        <v>37.65105819702148</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.5548974871635437</v>
+        <v>16.4947681427002</v>
       </c>
       <c r="E80" t="n">
-        <v>-6.651302814483643</v>
+        <v>-25.71861267089844</v>
       </c>
       <c r="F80" t="n">
-        <v>-7.418439388275146</v>
+        <v>-23.04872131347656</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-12.00281715393066</v>
+        <v>2.997795581817627</v>
       </c>
       <c r="B81" t="n">
-        <v>9.32713794708252</v>
+        <v>38.25423812866211</v>
       </c>
       <c r="C81" t="n">
-        <v>8.290596008300781</v>
+        <v>44.37014770507812</v>
       </c>
       <c r="D81" t="n">
-        <v>1.295644402503967</v>
+        <v>19.31277465820312</v>
       </c>
       <c r="E81" t="n">
-        <v>-11.45046806335449</v>
+        <v>-36.12065887451172</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.739323139190674</v>
+        <v>-23.06476974487305</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-9.517919540405273</v>
+        <v>6.855909824371338</v>
       </c>
       <c r="B82" t="n">
-        <v>8.851864814758301</v>
+        <v>36.786865234375</v>
       </c>
       <c r="C82" t="n">
-        <v>12.22665023803711</v>
+        <v>51.55681228637695</v>
       </c>
       <c r="D82" t="n">
-        <v>1.665591835975647</v>
+        <v>20.68666648864746</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.06133651733398</v>
+        <v>-41.75312423706055</v>
       </c>
       <c r="F82" t="n">
-        <v>-6.270721912384033</v>
+        <v>-20.20739936828613</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-7.091017723083496</v>
+        <v>10.76347541809082</v>
       </c>
       <c r="B83" t="n">
-        <v>8.25206184387207</v>
+        <v>34.71895217895508</v>
       </c>
       <c r="C83" t="n">
-        <v>16.05133247375488</v>
+        <v>58.54419326782227</v>
       </c>
       <c r="D83" t="n">
-        <v>2.125948429107666</v>
+        <v>20.7701530456543</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.19062900543213</v>
+        <v>-44.91890716552734</v>
       </c>
       <c r="F83" t="n">
-        <v>-4.672292709350586</v>
+        <v>-16.18083572387695</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-4.562814712524414</v>
+        <v>15.37528800964355</v>
       </c>
       <c r="B84" t="n">
-        <v>6.557446479797363</v>
+        <v>31.82770156860352</v>
       </c>
       <c r="C84" t="n">
-        <v>19.57006454467773</v>
+        <v>63.01863479614258</v>
       </c>
       <c r="D84" t="n">
-        <v>1.638828873634338</v>
+        <v>19.99209022521973</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.08187961578369</v>
+        <v>-42.55953598022461</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.2991943359375</v>
+        <v>-13.32916927337646</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-2.256008148193359</v>
+        <v>19.50983619689941</v>
       </c>
       <c r="B85" t="n">
-        <v>5.580212593078613</v>
+        <v>29.22554397583008</v>
       </c>
       <c r="C85" t="n">
-        <v>22.93016624450684</v>
+        <v>67.65577697753906</v>
       </c>
       <c r="D85" t="n">
-        <v>0.6318771243095398</v>
+        <v>18.1972541809082</v>
       </c>
       <c r="E85" t="n">
-        <v>-11.31771278381348</v>
+        <v>-36.17440032958984</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.93621301651001</v>
+        <v>-9.752120971679688</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.2327881753444672</v>
+        <v>23.25252723693848</v>
       </c>
       <c r="B86" t="n">
-        <v>3.345541477203369</v>
+        <v>25.89107704162598</v>
       </c>
       <c r="C86" t="n">
-        <v>23.9853401184082</v>
+        <v>70.07376098632812</v>
       </c>
       <c r="D86" t="n">
-        <v>-1.186251521110535</v>
+        <v>15.90554714202881</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.708229541778564</v>
+        <v>-27.91592979431152</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.153405666351318</v>
+        <v>-8.009603500366211</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.461357355117798</v>
+        <v>27.18721961975098</v>
       </c>
       <c r="B87" t="n">
-        <v>1.410987138748169</v>
+        <v>22.57584190368652</v>
       </c>
       <c r="C87" t="n">
-        <v>25.35950660705566</v>
+        <v>71.13589477539062</v>
       </c>
       <c r="D87" t="n">
-        <v>-3.038708925247192</v>
+        <v>13.52089595794678</v>
       </c>
       <c r="E87" t="n">
-        <v>-3.784027338027954</v>
+        <v>-18.43832397460938</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7654930353164673</v>
+        <v>-6.499065399169922</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.854332447052002</v>
+        <v>30.45553970336914</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.1548412293195724</v>
+        <v>19.27367210388184</v>
       </c>
       <c r="C88" t="n">
-        <v>24.6141414642334</v>
+        <v>68.91780090332031</v>
       </c>
       <c r="D88" t="n">
-        <v>-5.460720062255859</v>
+        <v>10.31949996948242</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.7725676298141479</v>
+        <v>-12.58372497558594</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.2026285529136658</v>
+        <v>-5.15940523147583</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6.154122352600098</v>
+        <v>32.87802886962891</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.799628853797913</v>
+        <v>16.13559341430664</v>
       </c>
       <c r="C89" t="n">
-        <v>22.54668617248535</v>
+        <v>64.49472045898438</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.743456363677979</v>
+        <v>8.322878837585449</v>
       </c>
       <c r="E89" t="n">
-        <v>1.727922320365906</v>
+        <v>-7.836146831512451</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2072893232107162</v>
+        <v>-3.941519737243652</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.040321826934814</v>
+        <v>35.10062789916992</v>
       </c>
       <c r="B90" t="n">
-        <v>-3.446018218994141</v>
+        <v>12.89025974273682</v>
       </c>
       <c r="C90" t="n">
-        <v>18.52663230895996</v>
+        <v>58.67494964599609</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.989833831787109</v>
+        <v>5.811337471008301</v>
       </c>
       <c r="E90" t="n">
-        <v>3.037758350372314</v>
+        <v>-6.235877990722656</v>
       </c>
       <c r="F90" t="n">
-        <v>0.7116479873657227</v>
+        <v>-2.173778772354126</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>7.554791450500488</v>
+        <v>36.72255706787109</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.72202730178833</v>
+        <v>9.99272632598877</v>
       </c>
       <c r="C91" t="n">
-        <v>14.33240509033203</v>
+        <v>52.96462249755859</v>
       </c>
       <c r="D91" t="n">
-        <v>-9.880485534667969</v>
+        <v>4.851887702941895</v>
       </c>
       <c r="E91" t="n">
-        <v>3.821372270584106</v>
+        <v>-5.3751220703125</v>
       </c>
       <c r="F91" t="n">
-        <v>1.486590504646301</v>
+        <v>0.08771317452192307</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.830367088317871</v>
+        <v>37.76990509033203</v>
       </c>
       <c r="B92" t="n">
-        <v>-6.381148338317871</v>
+        <v>7.392085075378418</v>
       </c>
       <c r="C92" t="n">
-        <v>9.441102027893066</v>
+        <v>43.69070816040039</v>
       </c>
       <c r="D92" t="n">
-        <v>-10.65165424346924</v>
+        <v>2.965955018997192</v>
       </c>
       <c r="E92" t="n">
-        <v>3.522633790969849</v>
+        <v>-6.078723907470703</v>
       </c>
       <c r="F92" t="n">
-        <v>2.567844390869141</v>
+        <v>2.345188140869141</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.232270240783691</v>
+        <v>38.22525405883789</v>
       </c>
       <c r="B93" t="n">
-        <v>-7.774614334106445</v>
+        <v>4.790848731994629</v>
       </c>
       <c r="C93" t="n">
-        <v>3.627612829208374</v>
+        <v>35.6782341003418</v>
       </c>
       <c r="D93" t="n">
-        <v>-11.47945594787598</v>
+        <v>2.128852128982544</v>
       </c>
       <c r="E93" t="n">
-        <v>2.754763841629028</v>
+        <v>-7.574680805206299</v>
       </c>
       <c r="F93" t="n">
-        <v>3.814630746841431</v>
+        <v>5.511116981506348</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6.516677379608154</v>
+        <v>38.6468505859375</v>
       </c>
       <c r="B94" t="n">
-        <v>-9.341156959533691</v>
+        <v>1.970883131027222</v>
       </c>
       <c r="C94" t="n">
-        <v>-1.850315809249878</v>
+        <v>27.07252502441406</v>
       </c>
       <c r="D94" t="n">
-        <v>-12.35745334625244</v>
+        <v>1.996707081794739</v>
       </c>
       <c r="E94" t="n">
-        <v>2.048484563827515</v>
+        <v>-9.467828750610352</v>
       </c>
       <c r="F94" t="n">
-        <v>5.52825927734375</v>
+        <v>8.363430023193359</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>5.820269107818604</v>
+        <v>38.2620849609375</v>
       </c>
       <c r="B95" t="n">
-        <v>-10.5598087310791</v>
+        <v>-0.1926338076591492</v>
       </c>
       <c r="C95" t="n">
-        <v>-6.138370037078857</v>
+        <v>19.63129234313965</v>
       </c>
       <c r="D95" t="n">
-        <v>-12.15083885192871</v>
+        <v>2.693999528884888</v>
       </c>
       <c r="E95" t="n">
-        <v>0.7248038053512573</v>
+        <v>-10.97336769104004</v>
       </c>
       <c r="F95" t="n">
-        <v>6.697319507598877</v>
+        <v>11.82424354553223</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>6.202207565307617</v>
+        <v>38.21464538574219</v>
       </c>
       <c r="B96" t="n">
-        <v>-12.01033878326416</v>
+        <v>-3.708029985427856</v>
       </c>
       <c r="C96" t="n">
-        <v>-9.860830307006836</v>
+        <v>13.21360683441162</v>
       </c>
       <c r="D96" t="n">
-        <v>-11.93075084686279</v>
+        <v>2.486478090286255</v>
       </c>
       <c r="E96" t="n">
-        <v>-0.02084220573306084</v>
+        <v>-11.27296543121338</v>
       </c>
       <c r="F96" t="n">
-        <v>8.581868171691895</v>
+        <v>14.2180061340332</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.676936626434326</v>
+        <v>38.09071731567383</v>
       </c>
       <c r="B97" t="n">
-        <v>-13.55092144012451</v>
+        <v>-5.77135181427002</v>
       </c>
       <c r="C97" t="n">
-        <v>-13.11496162414551</v>
+        <v>8.317763328552246</v>
       </c>
       <c r="D97" t="n">
-        <v>-11.88028812408447</v>
+        <v>3.069737672805786</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.6134867668151855</v>
+        <v>-11.99715042114258</v>
       </c>
       <c r="F97" t="n">
-        <v>9.717179298400879</v>
+        <v>16.79709053039551</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.34019947052002</v>
+        <v>39.05342102050781</v>
       </c>
       <c r="B98" t="n">
-        <v>-14.78798675537109</v>
+        <v>-7.746644020080566</v>
       </c>
       <c r="C98" t="n">
-        <v>-14.08534622192383</v>
+        <v>5.93265438079834</v>
       </c>
       <c r="D98" t="n">
-        <v>-11.93391418457031</v>
+        <v>4.623356819152832</v>
       </c>
       <c r="E98" t="n">
-        <v>-1.080708980560303</v>
+        <v>-11.58847236633301</v>
       </c>
       <c r="F98" t="n">
-        <v>10.5934886932373</v>
+        <v>18.85598564147949</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.382504940032959</v>
+        <v>39.43459320068359</v>
       </c>
       <c r="B99" t="n">
-        <v>-15.70212268829346</v>
+        <v>-10.09298229217529</v>
       </c>
       <c r="C99" t="n">
-        <v>-14.07969856262207</v>
+        <v>5.102358818054199</v>
       </c>
       <c r="D99" t="n">
-        <v>-10.85258960723877</v>
+        <v>4.788455009460449</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.414252519607544</v>
+        <v>-11.51077365875244</v>
       </c>
       <c r="F99" t="n">
-        <v>11.39858341217041</v>
+        <v>19.33690643310547</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.300059795379639</v>
+        <v>39.41253662109375</v>
       </c>
       <c r="B100" t="n">
-        <v>-16.58731460571289</v>
+        <v>-11.26124095916748</v>
       </c>
       <c r="C100" t="n">
-        <v>-12.39071178436279</v>
+        <v>6.07802677154541</v>
       </c>
       <c r="D100" t="n">
-        <v>-9.911808967590332</v>
+        <v>7.191540718078613</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.928237318992615</v>
+        <v>-12.29648971557617</v>
       </c>
       <c r="F100" t="n">
-        <v>11.73767566680908</v>
+        <v>18.95511054992676</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>7.205389022827148</v>
+        <v>41.44306564331055</v>
       </c>
       <c r="B101" t="n">
-        <v>-17.18471145629883</v>
+        <v>-12.73473262786865</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.8301944732666</v>
+        <v>7.325503349304199</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.871560096740723</v>
+        <v>9.995194435119629</v>
       </c>
       <c r="E101" t="n">
-        <v>-1.910177111625671</v>
+        <v>-12.97373485565186</v>
       </c>
       <c r="F101" t="n">
-        <v>10.30080032348633</v>
+        <v>15.82233619689941</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>8.391911506652832</v>
+        <v>42.26974487304688</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.36311912536621</v>
+        <v>-13.34322643280029</v>
       </c>
       <c r="C102" t="n">
-        <v>-9.630608558654785</v>
+        <v>9.096927642822266</v>
       </c>
       <c r="D102" t="n">
-        <v>-6.619639873504639</v>
+        <v>13.80791473388672</v>
       </c>
       <c r="E102" t="n">
-        <v>-2.666032552719116</v>
+        <v>-14.75978469848633</v>
       </c>
       <c r="F102" t="n">
-        <v>7.685037136077881</v>
+        <v>10.59971618652344</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>8.823041915893555</v>
+        <v>42.59494781494141</v>
       </c>
       <c r="B103" t="n">
-        <v>-17.80281448364258</v>
+        <v>-12.00686168670654</v>
       </c>
       <c r="C103" t="n">
-        <v>-8.052131652832031</v>
+        <v>10.61024475097656</v>
       </c>
       <c r="D103" t="n">
-        <v>-3.731059789657593</v>
+        <v>18.29491806030273</v>
       </c>
       <c r="E103" t="n">
-        <v>-4.036439418792725</v>
+        <v>-17.79087066650391</v>
       </c>
       <c r="F103" t="n">
-        <v>3.572229623794556</v>
+        <v>1.029914736747742</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.811753273010254</v>
+        <v>41.83131790161133</v>
       </c>
       <c r="B104" t="n">
-        <v>-13.31914138793945</v>
+        <v>6.241208076477051</v>
       </c>
       <c r="C104" t="n">
-        <v>-5.238011360168457</v>
+        <v>11.52170562744141</v>
       </c>
       <c r="D104" t="n">
-        <v>1.209285616874695</v>
+        <v>28.71534729003906</v>
       </c>
       <c r="E104" t="n">
-        <v>-5.514403343200684</v>
+        <v>-20.04647254943848</v>
       </c>
       <c r="F104" t="n">
-        <v>2.195062160491943</v>
+        <v>10.05369567871094</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.575562477111816</v>
+        <v>41.81013107299805</v>
       </c>
       <c r="B105" t="n">
-        <v>-13.00887584686279</v>
+        <v>6.907876014709473</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.294881343841553</v>
+        <v>15.6468563079834</v>
       </c>
       <c r="D105" t="n">
-        <v>5.281850337982178</v>
+        <v>35.17196655273438</v>
       </c>
       <c r="E105" t="n">
-        <v>-6.51722240447998</v>
+        <v>-21.18747901916504</v>
       </c>
       <c r="F105" t="n">
-        <v>-1.874827146530151</v>
+        <v>1.449059844017029</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.68616771697998</v>
+        <v>41.90256500244141</v>
       </c>
       <c r="B106" t="n">
-        <v>-10.85749053955078</v>
+        <v>10.12054252624512</v>
       </c>
       <c r="C106" t="n">
-        <v>0.3413716554641724</v>
+        <v>19.427734375</v>
       </c>
       <c r="D106" t="n">
-        <v>8.930119514465332</v>
+        <v>40.66118240356445</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.376410961151123</v>
+        <v>-20.55304527282715</v>
       </c>
       <c r="F106" t="n">
-        <v>-5.500886917114258</v>
+        <v>-6.275240898132324</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.12621212005615</v>
+        <v>41.79937744140625</v>
       </c>
       <c r="B107" t="n">
-        <v>-9.51740837097168</v>
+        <v>12.31576251983643</v>
       </c>
       <c r="C107" t="n">
-        <v>1.754256725311279</v>
+        <v>22.77647590637207</v>
       </c>
       <c r="D107" t="n">
-        <v>12.80942630767822</v>
+        <v>46.75955200195312</v>
       </c>
       <c r="E107" t="n">
-        <v>-6.053240299224854</v>
+        <v>-18.43461799621582</v>
       </c>
       <c r="F107" t="n">
-        <v>-8.578960418701172</v>
+        <v>-13.28194999694824</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.256740570068359</v>
+        <v>40.57468414306641</v>
       </c>
       <c r="B108" t="n">
-        <v>-7.840651988983154</v>
+        <v>15.9277400970459</v>
       </c>
       <c r="C108" t="n">
-        <v>3.601293802261353</v>
+        <v>24.28455352783203</v>
       </c>
       <c r="D108" t="n">
-        <v>16.55466651916504</v>
+        <v>51.39079284667969</v>
       </c>
       <c r="E108" t="n">
-        <v>-4.310501098632812</v>
+        <v>-15.8134298324585</v>
       </c>
       <c r="F108" t="n">
-        <v>-9.848471641540527</v>
+        <v>-16.53744697570801</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.533990859985352</v>
+        <v>38.50810623168945</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.454123020172119</v>
+        <v>18.99031639099121</v>
       </c>
       <c r="C109" t="n">
-        <v>3.943152666091919</v>
+        <v>25.66084861755371</v>
       </c>
       <c r="D109" t="n">
-        <v>19.11907768249512</v>
+        <v>56.09929656982422</v>
       </c>
       <c r="E109" t="n">
-        <v>-2.73118782043457</v>
+        <v>-11.17310523986816</v>
       </c>
       <c r="F109" t="n">
-        <v>-9.846072196960449</v>
+        <v>-18.26892280578613</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7.12357234954834</v>
+        <v>36.3664436340332</v>
       </c>
       <c r="B110" t="n">
-        <v>-3.135467052459717</v>
+        <v>21.97761726379395</v>
       </c>
       <c r="C110" t="n">
-        <v>3.595978975296021</v>
+        <v>24.53362655639648</v>
       </c>
       <c r="D110" t="n">
-        <v>22.33219909667969</v>
+        <v>58.65205383300781</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.7092835307121277</v>
+        <v>-7.422788619995117</v>
       </c>
       <c r="F110" t="n">
-        <v>-8.988631248474121</v>
+        <v>-16.1516227722168</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5.851686477661133</v>
+        <v>33.74503326416016</v>
       </c>
       <c r="B111" t="n">
-        <v>-0.9523606300354004</v>
+        <v>25.16972351074219</v>
       </c>
       <c r="C111" t="n">
-        <v>2.516582489013672</v>
+        <v>23.49406433105469</v>
       </c>
       <c r="D111" t="n">
-        <v>22.08596038818359</v>
+        <v>59.16668319702148</v>
       </c>
       <c r="E111" t="n">
-        <v>0.6600098609924316</v>
+        <v>-3.113306522369385</v>
       </c>
       <c r="F111" t="n">
-        <v>-6.675981998443604</v>
+        <v>-12.54208946228027</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.444275856018066</v>
+        <v>31.07339286804199</v>
       </c>
       <c r="B112" t="n">
-        <v>0.9045023918151855</v>
+        <v>28.51053810119629</v>
       </c>
       <c r="C112" t="n">
-        <v>1.046265363693237</v>
+        <v>21.50498199462891</v>
       </c>
       <c r="D112" t="n">
-        <v>22.55088996887207</v>
+        <v>59.2135009765625</v>
       </c>
       <c r="E112" t="n">
-        <v>1.600862383842468</v>
+        <v>-0.4743328094482422</v>
       </c>
       <c r="F112" t="n">
-        <v>-3.712193012237549</v>
+        <v>-7.26649284362793</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.411714553833008</v>
+        <v>27.64382934570312</v>
       </c>
       <c r="B113" t="n">
-        <v>2.634467601776123</v>
+        <v>31.28746223449707</v>
       </c>
       <c r="C113" t="n">
-        <v>-1.131116032600403</v>
+        <v>18.98138046264648</v>
       </c>
       <c r="D113" t="n">
-        <v>20.57384872436523</v>
+        <v>55.68121719360352</v>
       </c>
       <c r="E113" t="n">
-        <v>2.350381374359131</v>
+        <v>1.743110656738281</v>
       </c>
       <c r="F113" t="n">
-        <v>-1.147287368774414</v>
+        <v>-1.120664238929749</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.6606009602546692</v>
+        <v>25.03789520263672</v>
       </c>
       <c r="B114" t="n">
-        <v>4.489223003387451</v>
+        <v>33.89277267456055</v>
       </c>
       <c r="C114" t="n">
-        <v>-3.174981832504272</v>
+        <v>16.21835517883301</v>
       </c>
       <c r="D114" t="n">
-        <v>18.0722599029541</v>
+        <v>52.07649612426758</v>
       </c>
       <c r="E114" t="n">
-        <v>2.835126638412476</v>
+        <v>2.676878929138184</v>
       </c>
       <c r="F114" t="n">
-        <v>1.23749315738678</v>
+        <v>3.964628219604492</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.9774013161659241</v>
+        <v>21.52768325805664</v>
       </c>
       <c r="B115" t="n">
-        <v>5.52699089050293</v>
+        <v>35.91685485839844</v>
       </c>
       <c r="C115" t="n">
-        <v>-5.285365581512451</v>
+        <v>13.92588996887207</v>
       </c>
       <c r="D115" t="n">
-        <v>15.09215450286865</v>
+        <v>46.98447799682617</v>
       </c>
       <c r="E115" t="n">
-        <v>3.019723415374756</v>
+        <v>3.904212951660156</v>
       </c>
       <c r="F115" t="n">
-        <v>2.978913068771362</v>
+        <v>7.559382438659668</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.950997829437256</v>
+        <v>18.62707710266113</v>
       </c>
       <c r="B116" t="n">
-        <v>6.385062217712402</v>
+        <v>37.86588287353516</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.252240180969238</v>
+        <v>10.66162300109863</v>
       </c>
       <c r="D116" t="n">
-        <v>11.16625595092773</v>
+        <v>40.01921081542969</v>
       </c>
       <c r="E116" t="n">
-        <v>3.318435430526733</v>
+        <v>4.226037979125977</v>
       </c>
       <c r="F116" t="n">
-        <v>3.400916576385498</v>
+        <v>9.598678588867188</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.810036182403564</v>
+        <v>15.35983276367188</v>
       </c>
       <c r="B117" t="n">
-        <v>7.324070930480957</v>
+        <v>38.91007232666016</v>
       </c>
       <c r="C117" t="n">
-        <v>-9.367986679077148</v>
+        <v>8.269427299499512</v>
       </c>
       <c r="D117" t="n">
-        <v>6.702270030975342</v>
+        <v>33.67276382446289</v>
       </c>
       <c r="E117" t="n">
-        <v>3.795477867126465</v>
+        <v>5.452363014221191</v>
       </c>
       <c r="F117" t="n">
-        <v>3.697087526321411</v>
+        <v>10.36042785644531</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-6.613874435424805</v>
+        <v>12.42983150482178</v>
       </c>
       <c r="B118" t="n">
-        <v>7.520171165466309</v>
+        <v>40.18668746948242</v>
       </c>
       <c r="C118" t="n">
-        <v>-11.16438388824463</v>
+        <v>5.912755012512207</v>
       </c>
       <c r="D118" t="n">
-        <v>1.946579098701477</v>
+        <v>25.73506355285645</v>
       </c>
       <c r="E118" t="n">
-        <v>4.289904117584229</v>
+        <v>6.957375526428223</v>
       </c>
       <c r="F118" t="n">
-        <v>3.697092294692993</v>
+        <v>10.33457374572754</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-8.136457443237305</v>
+        <v>9.489509582519531</v>
       </c>
       <c r="B119" t="n">
-        <v>7.777365684509277</v>
+        <v>40.82914733886719</v>
       </c>
       <c r="C119" t="n">
-        <v>-12.23356628417969</v>
+        <v>4.330626487731934</v>
       </c>
       <c r="D119" t="n">
-        <v>-2.443706035614014</v>
+        <v>18.79135704040527</v>
       </c>
       <c r="E119" t="n">
-        <v>5.148726463317871</v>
+        <v>8.223574638366699</v>
       </c>
       <c r="F119" t="n">
-        <v>3.230075836181641</v>
+        <v>9.153100967407227</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-9.698809623718262</v>
+        <v>6.911869525909424</v>
       </c>
       <c r="B120" t="n">
-        <v>7.667532920837402</v>
+        <v>40.93439102172852</v>
       </c>
       <c r="C120" t="n">
-        <v>-13.05049133300781</v>
+        <v>4.338229179382324</v>
       </c>
       <c r="D120" t="n">
-        <v>-6.879683971405029</v>
+        <v>13.11244869232178</v>
       </c>
       <c r="E120" t="n">
-        <v>6.394704341888428</v>
+        <v>11.04640865325928</v>
       </c>
       <c r="F120" t="n">
-        <v>2.921857833862305</v>
+        <v>7.55460262298584</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-11.13138866424561</v>
+        <v>3.842447757720947</v>
       </c>
       <c r="B121" t="n">
-        <v>7.731095314025879</v>
+        <v>40.96401214599609</v>
       </c>
       <c r="C121" t="n">
-        <v>-13.65835571289062</v>
+        <v>3.294064283370972</v>
       </c>
       <c r="D121" t="n">
-        <v>-10.39041996002197</v>
+        <v>8.338135719299316</v>
       </c>
       <c r="E121" t="n">
-        <v>7.746719360351562</v>
+        <v>13.33034038543701</v>
       </c>
       <c r="F121" t="n">
-        <v>2.555114030838013</v>
+        <v>5.961609840393066</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-12.47681140899658</v>
+        <v>1.982758045196533</v>
       </c>
       <c r="B122" t="n">
-        <v>7.281436920166016</v>
+        <v>41.16906356811523</v>
       </c>
       <c r="C122" t="n">
-        <v>-13.98608589172363</v>
+        <v>3.860398054122925</v>
       </c>
       <c r="D122" t="n">
-        <v>-12.98787879943848</v>
+        <v>4.155320167541504</v>
       </c>
       <c r="E122" t="n">
-        <v>8.88544750213623</v>
+        <v>16.41694450378418</v>
       </c>
       <c r="F122" t="n">
-        <v>2.11066460609436</v>
+        <v>4.955252647399902</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-13.48825073242188</v>
+        <v>-0.1805643439292908</v>
       </c>
       <c r="B123" t="n">
-        <v>7.373108863830566</v>
+        <v>40.9144287109375</v>
       </c>
       <c r="C123" t="n">
-        <v>-13.24214267730713</v>
+        <v>4.338536262512207</v>
       </c>
       <c r="D123" t="n">
-        <v>-14.11279964447021</v>
+        <v>1.508929371833801</v>
       </c>
       <c r="E123" t="n">
-        <v>10.35496997833252</v>
+        <v>18.59999465942383</v>
       </c>
       <c r="F123" t="n">
-        <v>2.218515872955322</v>
+        <v>3.546202659606934</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-14.62254905700684</v>
+        <v>-2.104928493499756</v>
       </c>
       <c r="B124" t="n">
-        <v>7.600852012634277</v>
+        <v>40.70248794555664</v>
       </c>
       <c r="C124" t="n">
-        <v>-12.781813621521</v>
+        <v>6.041869163513184</v>
       </c>
       <c r="D124" t="n">
-        <v>-14.98001289367676</v>
+        <v>-0.3130978345870972</v>
       </c>
       <c r="E124" t="n">
-        <v>11.3301477432251</v>
+        <v>20.83993148803711</v>
       </c>
       <c r="F124" t="n">
-        <v>1.663599967956543</v>
+        <v>1.236677527427673</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-15.58407115936279</v>
+        <v>-3.526761531829834</v>
       </c>
       <c r="B125" t="n">
-        <v>6.890783786773682</v>
+        <v>40.38230133056641</v>
       </c>
       <c r="C125" t="n">
-        <v>-11.96877479553223</v>
+        <v>7.603602409362793</v>
       </c>
       <c r="D125" t="n">
-        <v>-14.26172256469727</v>
+        <v>-0.2893170118331909</v>
       </c>
       <c r="E125" t="n">
-        <v>12.17712593078613</v>
+        <v>21.24629974365234</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8357653617858887</v>
+        <v>-1.286179184913635</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-16.14148330688477</v>
+        <v>-4.012105464935303</v>
       </c>
       <c r="B126" t="n">
-        <v>7.686659812927246</v>
+        <v>40.70193481445312</v>
       </c>
       <c r="C126" t="n">
-        <v>-10.24218368530273</v>
+        <v>10.79167556762695</v>
       </c>
       <c r="D126" t="n">
-        <v>-12.95252418518066</v>
+        <v>0.7764750719070435</v>
       </c>
       <c r="E126" t="n">
-        <v>12.06052017211914</v>
+        <v>21.80057334899902</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.263888418674469</v>
+        <v>-5.193907737731934</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-16.32681655883789</v>
+        <v>-4.573119640350342</v>
       </c>
       <c r="B127" t="n">
-        <v>8.278703689575195</v>
+        <v>40.24197387695312</v>
       </c>
       <c r="C127" t="n">
-        <v>-8.414150238037109</v>
+        <v>14.16549396514893</v>
       </c>
       <c r="D127" t="n">
-        <v>-10.5133810043335</v>
+        <v>3.212285280227661</v>
       </c>
       <c r="E127" t="n">
-        <v>10.95039939880371</v>
+        <v>18.18425750732422</v>
       </c>
       <c r="F127" t="n">
-        <v>-2.055732488632202</v>
+        <v>-10.49574279785156</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-16.28277397155762</v>
+        <v>-4.558616161346436</v>
       </c>
       <c r="B128" t="n">
-        <v>8.63482666015625</v>
+        <v>40.65642166137695</v>
       </c>
       <c r="C128" t="n">
-        <v>-5.506881237030029</v>
+        <v>19.2496337890625</v>
       </c>
       <c r="D128" t="n">
-        <v>-7.724147319793701</v>
+        <v>6.519059181213379</v>
       </c>
       <c r="E128" t="n">
-        <v>8.157767295837402</v>
+        <v>10.23866939544678</v>
       </c>
       <c r="F128" t="n">
-        <v>-4.042649269104004</v>
+        <v>-15.18989562988281</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-15.54634857177734</v>
+        <v>-3.629859447479248</v>
       </c>
       <c r="B129" t="n">
-        <v>9.035036087036133</v>
+        <v>40.20590972900391</v>
       </c>
       <c r="C129" t="n">
-        <v>-2.701075077056885</v>
+        <v>24.81598281860352</v>
       </c>
       <c r="D129" t="n">
-        <v>-5.253902435302734</v>
+        <v>9.667681694030762</v>
       </c>
       <c r="E129" t="n">
-        <v>3.602330207824707</v>
+        <v>-0.8555736541748047</v>
       </c>
       <c r="F129" t="n">
-        <v>-5.630617141723633</v>
+        <v>-18.99762535095215</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-14.69382476806641</v>
+        <v>-3.200902462005615</v>
       </c>
       <c r="B130" t="n">
-        <v>10.11052703857422</v>
+        <v>39.58410263061523</v>
       </c>
       <c r="C130" t="n">
-        <v>0.9208087921142578</v>
+        <v>30.61554908752441</v>
       </c>
       <c r="D130" t="n">
-        <v>-3.541263580322266</v>
+        <v>13.2189826965332</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.395823001861572</v>
+        <v>-13.65610027313232</v>
       </c>
       <c r="F130" t="n">
-        <v>-6.358128547668457</v>
+        <v>-21.9112548828125</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-13.60167598724365</v>
+        <v>0.1692929863929749</v>
       </c>
       <c r="B131" t="n">
-        <v>9.739167213439941</v>
+        <v>39.09194564819336</v>
       </c>
       <c r="C131" t="n">
-        <v>4.612453460693359</v>
+        <v>37.74468612670898</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.6219955086708069</v>
+        <v>16.07341194152832</v>
       </c>
       <c r="E131" t="n">
-        <v>-6.547390460968018</v>
+        <v>-25.98690223693848</v>
       </c>
       <c r="F131" t="n">
-        <v>-7.208793640136719</v>
+        <v>-23.17589378356934</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-11.96003150939941</v>
+        <v>3.042038440704346</v>
       </c>
       <c r="B132" t="n">
-        <v>9.419458389282227</v>
+        <v>38.18303298950195</v>
       </c>
       <c r="C132" t="n">
-        <v>8.355775833129883</v>
+        <v>44.51639938354492</v>
       </c>
       <c r="D132" t="n">
-        <v>1.159000754356384</v>
+        <v>18.90805244445801</v>
       </c>
       <c r="E132" t="n">
-        <v>-11.33932971954346</v>
+        <v>-36.21689987182617</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.447680950164795</v>
+        <v>-23.20841979980469</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-9.536433219909668</v>
+        <v>6.753376483917236</v>
       </c>
       <c r="B133" t="n">
-        <v>8.948599815368652</v>
+        <v>36.70558929443359</v>
       </c>
       <c r="C133" t="n">
-        <v>12.30675315856934</v>
+        <v>51.94500350952148</v>
       </c>
       <c r="D133" t="n">
-        <v>1.670311808586121</v>
+        <v>20.24937629699707</v>
       </c>
       <c r="E133" t="n">
-        <v>-14.04841327667236</v>
+        <v>-41.94283676147461</v>
       </c>
       <c r="F133" t="n">
-        <v>-6.03048849105835</v>
+        <v>-20.43195152282715</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-7.127962589263916</v>
+        <v>10.74325752258301</v>
       </c>
       <c r="B134" t="n">
-        <v>8.268336296081543</v>
+        <v>34.66976547241211</v>
       </c>
       <c r="C134" t="n">
-        <v>16.14107704162598</v>
+        <v>58.86207580566406</v>
       </c>
       <c r="D134" t="n">
-        <v>2.091461420059204</v>
+        <v>20.39996337890625</v>
       </c>
       <c r="E134" t="n">
-        <v>-15.19555950164795</v>
+        <v>-44.91400146484375</v>
       </c>
       <c r="F134" t="n">
-        <v>-4.421430110931396</v>
+        <v>-16.44754600524902</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.616316318511963</v>
+        <v>15.26962757110596</v>
       </c>
       <c r="B135" t="n">
-        <v>6.663956642150879</v>
+        <v>31.76917457580566</v>
       </c>
       <c r="C135" t="n">
-        <v>19.65260887145996</v>
+        <v>63.16806793212891</v>
       </c>
       <c r="D135" t="n">
-        <v>1.626209378242493</v>
+        <v>19.67695426940918</v>
       </c>
       <c r="E135" t="n">
-        <v>-14.16436767578125</v>
+        <v>-42.53672027587891</v>
       </c>
       <c r="F135" t="n">
-        <v>-3.08110785484314</v>
+        <v>-13.41843318939209</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-2.289107799530029</v>
+        <v>19.53604888916016</v>
       </c>
       <c r="B136" t="n">
-        <v>5.601467609405518</v>
+        <v>29.13691139221191</v>
       </c>
       <c r="C136" t="n">
-        <v>22.89972877502441</v>
+        <v>68.09578704833984</v>
       </c>
       <c r="D136" t="n">
-        <v>0.6104821562767029</v>
+        <v>17.93681907653809</v>
       </c>
       <c r="E136" t="n">
-        <v>-11.43726539611816</v>
+        <v>-36.0642204284668</v>
       </c>
       <c r="F136" t="n">
-        <v>-1.732002735137939</v>
+        <v>-9.996909141540527</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.1493489444255829</v>
+        <v>23.40106773376465</v>
       </c>
       <c r="B137" t="n">
-        <v>3.418821811676025</v>
+        <v>25.76488304138184</v>
       </c>
       <c r="C137" t="n">
-        <v>23.92800903320312</v>
+        <v>70.35659790039062</v>
       </c>
       <c r="D137" t="n">
-        <v>-1.179746389389038</v>
+        <v>15.53140258789062</v>
       </c>
       <c r="E137" t="n">
-        <v>-7.835513591766357</v>
+        <v>-27.74413871765137</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.9958765506744385</v>
+        <v>-8.072261810302734</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.377616405487061</v>
+        <v>27.24424362182617</v>
       </c>
       <c r="B138" t="n">
-        <v>1.496769428253174</v>
+        <v>22.39670181274414</v>
       </c>
       <c r="C138" t="n">
-        <v>25.29811668395996</v>
+        <v>71.44083404541016</v>
       </c>
       <c r="D138" t="n">
-        <v>-3.038382768630981</v>
+        <v>13.23649311065674</v>
       </c>
       <c r="E138" t="n">
-        <v>-3.901165246963501</v>
+        <v>-18.1431999206543</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.6480231881141663</v>
+        <v>-6.55349588394165</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4.738991737365723</v>
+        <v>30.48733711242676</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.1304969042539597</v>
+        <v>19.18866348266602</v>
       </c>
       <c r="C139" t="n">
-        <v>24.54937744140625</v>
+        <v>69.03271484375</v>
       </c>
       <c r="D139" t="n">
-        <v>-5.453636646270752</v>
+        <v>10.11896896362305</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.8562799692153931</v>
+        <v>-12.40591049194336</v>
       </c>
       <c r="F139" t="n">
-        <v>-0.1113787591457367</v>
+        <v>-5.233335971832275</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.014072895050049</v>
+        <v>33.01680374145508</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.8121178150177</v>
+        <v>16.05002021789551</v>
       </c>
       <c r="C140" t="n">
-        <v>22.45034217834473</v>
+        <v>64.58170318603516</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.807028770446777</v>
+        <v>8.202277183532715</v>
       </c>
       <c r="E140" t="n">
-        <v>1.649505138397217</v>
+        <v>-7.690300464630127</v>
       </c>
       <c r="F140" t="n">
-        <v>0.2548334300518036</v>
+        <v>-4.020357608795166</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>6.863859176635742</v>
+        <v>35.13056945800781</v>
       </c>
       <c r="B141" t="n">
-        <v>-3.451507568359375</v>
+        <v>12.83878231048584</v>
       </c>
       <c r="C141" t="n">
-        <v>18.46307563781738</v>
+        <v>58.67892456054688</v>
       </c>
       <c r="D141" t="n">
-        <v>-8.997267723083496</v>
+        <v>5.606684684753418</v>
       </c>
       <c r="E141" t="n">
-        <v>3.050789833068848</v>
+        <v>-6.051936626434326</v>
       </c>
       <c r="F141" t="n">
-        <v>0.7341868877410889</v>
+        <v>-2.119595766067505</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>7.368503570556641</v>
+        <v>36.78928756713867</v>
       </c>
       <c r="B142" t="n">
-        <v>-4.795410633087158</v>
+        <v>9.822054862976074</v>
       </c>
       <c r="C142" t="n">
-        <v>14.15093994140625</v>
+        <v>52.76483917236328</v>
       </c>
       <c r="D142" t="n">
-        <v>-9.924469947814941</v>
+        <v>4.524905204772949</v>
       </c>
       <c r="E142" t="n">
-        <v>3.786964416503906</v>
+        <v>-5.321123600006104</v>
       </c>
       <c r="F142" t="n">
-        <v>1.489550471305847</v>
+        <v>0.159174382686615</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.60802173614502</v>
+        <v>37.76803588867188</v>
       </c>
       <c r="B143" t="n">
-        <v>-6.417174816131592</v>
+        <v>7.219796180725098</v>
       </c>
       <c r="C143" t="n">
-        <v>9.18848705291748</v>
+        <v>43.65325546264648</v>
       </c>
       <c r="D143" t="n">
-        <v>-10.75013732910156</v>
+        <v>2.804234743118286</v>
       </c>
       <c r="E143" t="n">
-        <v>3.474048376083374</v>
+        <v>-6.026477336883545</v>
       </c>
       <c r="F143" t="n">
-        <v>2.567785024642944</v>
+        <v>2.535856246948242</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7.009171485900879</v>
+        <v>38.26536560058594</v>
       </c>
       <c r="B144" t="n">
-        <v>-7.835111141204834</v>
+        <v>4.633259773254395</v>
       </c>
       <c r="C144" t="n">
-        <v>3.393737077713013</v>
+        <v>35.46638107299805</v>
       </c>
       <c r="D144" t="n">
-        <v>-11.49753570556641</v>
+        <v>1.982646107673645</v>
       </c>
       <c r="E144" t="n">
-        <v>2.714699506759644</v>
+        <v>-7.527573108673096</v>
       </c>
       <c r="F144" t="n">
-        <v>3.819710731506348</v>
+        <v>5.744133949279785</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6.291990280151367</v>
+        <v>38.6932258605957</v>
       </c>
       <c r="B145" t="n">
-        <v>-9.367457389831543</v>
+        <v>1.773316144943237</v>
       </c>
       <c r="C145" t="n">
-        <v>-2.112409114837646</v>
+        <v>26.82347679138184</v>
       </c>
       <c r="D145" t="n">
-        <v>-12.35175228118896</v>
+        <v>1.80359947681427</v>
       </c>
       <c r="E145" t="n">
-        <v>1.969772458076477</v>
+        <v>-9.313353538513184</v>
       </c>
       <c r="F145" t="n">
-        <v>5.48352575302124</v>
+        <v>8.571533203125</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>5.647860050201416</v>
+        <v>38.31690979003906</v>
       </c>
       <c r="B146" t="n">
-        <v>-10.61371231079102</v>
+        <v>-0.326546847820282</v>
       </c>
       <c r="C146" t="n">
-        <v>-6.546926498413086</v>
+        <v>19.19546699523926</v>
       </c>
       <c r="D146" t="n">
-        <v>-12.13372802734375</v>
+        <v>2.48023533821106</v>
       </c>
       <c r="E146" t="n">
-        <v>0.6723611354827881</v>
+        <v>-10.78146553039551</v>
       </c>
       <c r="F146" t="n">
-        <v>6.707013607025146</v>
+        <v>12.11144638061523</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>5.931636333465576</v>
+        <v>38.3200798034668</v>
       </c>
       <c r="B147" t="n">
-        <v>-12.04896068572998</v>
+        <v>-3.714026689529419</v>
       </c>
       <c r="C147" t="n">
-        <v>-10.29665088653564</v>
+        <v>12.95570182800293</v>
       </c>
       <c r="D147" t="n">
-        <v>-11.95038509368896</v>
+        <v>2.353732347488403</v>
       </c>
       <c r="E147" t="n">
-        <v>-0.061330895870924</v>
+        <v>-11.12555885314941</v>
       </c>
       <c r="F147" t="n">
-        <v>8.543070793151855</v>
+        <v>14.46608734130859</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5.445208549499512</v>
+        <v>38.20022583007812</v>
       </c>
       <c r="B148" t="n">
-        <v>-13.59927749633789</v>
+        <v>-5.856442451477051</v>
       </c>
       <c r="C148" t="n">
-        <v>-13.46539878845215</v>
+        <v>8.121264457702637</v>
       </c>
       <c r="D148" t="n">
-        <v>-11.88810157775879</v>
+        <v>3.031638383865356</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.6496127843856812</v>
+        <v>-11.6761999130249</v>
       </c>
       <c r="F148" t="n">
-        <v>9.70361328125</v>
+        <v>17.1351146697998</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5.175740718841553</v>
+        <v>39.07334899902344</v>
       </c>
       <c r="B149" t="n">
-        <v>-14.79314804077148</v>
+        <v>-7.934247016906738</v>
       </c>
       <c r="C149" t="n">
-        <v>-14.39832305908203</v>
+        <v>5.478161811828613</v>
       </c>
       <c r="D149" t="n">
-        <v>-11.82821464538574</v>
+        <v>4.523255348205566</v>
       </c>
       <c r="E149" t="n">
-        <v>-1.087252974510193</v>
+        <v>-11.22739696502686</v>
       </c>
       <c r="F149" t="n">
-        <v>10.59605598449707</v>
+        <v>19.09990692138672</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5.208337306976318</v>
+        <v>39.44963836669922</v>
       </c>
       <c r="B150" t="n">
-        <v>-15.70895290374756</v>
+        <v>-10.17747402191162</v>
       </c>
       <c r="C150" t="n">
-        <v>-14.40026378631592</v>
+        <v>4.85853099822998</v>
       </c>
       <c r="D150" t="n">
-        <v>-10.76168155670166</v>
+        <v>4.822175025939941</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.438644051551819</v>
+        <v>-11.11109352111816</v>
       </c>
       <c r="F150" t="n">
-        <v>11.39206600189209</v>
+        <v>19.70397186279297</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6.182423114776611</v>
+        <v>39.48454284667969</v>
       </c>
       <c r="B151" t="n">
-        <v>-16.57135009765625</v>
+        <v>-11.409255027771</v>
       </c>
       <c r="C151" t="n">
-        <v>-12.72261047363281</v>
+        <v>5.81723690032959</v>
       </c>
       <c r="D151" t="n">
-        <v>-9.788763046264648</v>
+        <v>7.226885795593262</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.968477129936218</v>
+        <v>-11.89974403381348</v>
       </c>
       <c r="F151" t="n">
-        <v>11.67994499206543</v>
+        <v>19.15949058532715</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>7.174410820007324</v>
+        <v>41.18129348754883</v>
       </c>
       <c r="B152" t="n">
-        <v>-17.15530967712402</v>
+        <v>-12.88647365570068</v>
       </c>
       <c r="C152" t="n">
-        <v>-11.05420780181885</v>
+        <v>7.042805671691895</v>
       </c>
       <c r="D152" t="n">
-        <v>-8.603141784667969</v>
+        <v>10.10409927368164</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.986713051795959</v>
+        <v>-12.69125270843506</v>
       </c>
       <c r="F152" t="n">
-        <v>10.24319648742676</v>
+        <v>16.02689170837402</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>8.421285629272461</v>
+        <v>42.07128143310547</v>
       </c>
       <c r="B153" t="n">
-        <v>-17.35002326965332</v>
+        <v>-13.53198528289795</v>
       </c>
       <c r="C153" t="n">
-        <v>-9.673189163208008</v>
+        <v>8.843653678894043</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.31968879699707</v>
+        <v>13.95435619354248</v>
       </c>
       <c r="E153" t="n">
-        <v>-2.710783720016479</v>
+        <v>-14.42847347259521</v>
       </c>
       <c r="F153" t="n">
-        <v>7.570755481719971</v>
+        <v>10.57820129394531</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>8.882913589477539</v>
+        <v>42.38750076293945</v>
       </c>
       <c r="B154" t="n">
-        <v>-17.71746826171875</v>
+        <v>-12.13685894012451</v>
       </c>
       <c r="C154" t="n">
-        <v>-8.05354118347168</v>
+        <v>10.37540817260742</v>
       </c>
       <c r="D154" t="n">
-        <v>-3.422124862670898</v>
+        <v>18.4654369354248</v>
       </c>
       <c r="E154" t="n">
-        <v>-4.028477191925049</v>
+        <v>-17.49856948852539</v>
       </c>
       <c r="F154" t="n">
-        <v>3.43019962310791</v>
+        <v>0.9796614050865173</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8.789278984069824</v>
+        <v>41.82204818725586</v>
       </c>
       <c r="B155" t="n">
-        <v>-13.61725330352783</v>
+        <v>6.181536674499512</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.311007976531982</v>
+        <v>11.11354827880859</v>
       </c>
       <c r="D155" t="n">
-        <v>0.8413534760475159</v>
+        <v>28.56288909912109</v>
       </c>
       <c r="E155" t="n">
-        <v>-5.702517032623291</v>
+        <v>-20.12511825561523</v>
       </c>
       <c r="F155" t="n">
-        <v>1.977724075317383</v>
+        <v>10.46778106689453</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.473537445068359</v>
+        <v>41.70584106445312</v>
       </c>
       <c r="B156" t="n">
-        <v>-13.22527885437012</v>
+        <v>6.816637992858887</v>
       </c>
       <c r="C156" t="n">
-        <v>-2.422013521194458</v>
+        <v>15.34357738494873</v>
       </c>
       <c r="D156" t="n">
-        <v>4.831910133361816</v>
+        <v>34.99636077880859</v>
       </c>
       <c r="E156" t="n">
-        <v>-6.676699161529541</v>
+        <v>-21.32638359069824</v>
       </c>
       <c r="F156" t="n">
-        <v>-2.074045896530151</v>
+        <v>1.795129179954529</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9.572062492370605</v>
+        <v>41.81425094604492</v>
       </c>
       <c r="B157" t="n">
-        <v>-11.10662746429443</v>
+        <v>10.07280826568604</v>
       </c>
       <c r="C157" t="n">
-        <v>0.1261498928070068</v>
+        <v>19.03598022460938</v>
       </c>
       <c r="D157" t="n">
-        <v>8.498465538024902</v>
+        <v>40.62383651733398</v>
       </c>
       <c r="E157" t="n">
-        <v>-6.534695148468018</v>
+        <v>-20.79489898681641</v>
       </c>
       <c r="F157" t="n">
-        <v>-5.687131404876709</v>
+        <v>-5.924811363220215</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>9.928363800048828</v>
+        <v>41.69227981567383</v>
       </c>
       <c r="B158" t="n">
-        <v>-9.725090980529785</v>
+        <v>12.23948097229004</v>
       </c>
       <c r="C158" t="n">
-        <v>1.545370817184448</v>
+        <v>22.33561515808105</v>
       </c>
       <c r="D158" t="n">
-        <v>12.40502834320068</v>
+        <v>46.77286148071289</v>
       </c>
       <c r="E158" t="n">
-        <v>-6.138946056365967</v>
+        <v>-18.65922355651855</v>
       </c>
       <c r="F158" t="n">
-        <v>-8.710708618164062</v>
+        <v>-12.90407466888428</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.057595252990723</v>
+        <v>40.48558807373047</v>
       </c>
       <c r="B159" t="n">
-        <v>-7.983536243438721</v>
+        <v>15.88368034362793</v>
       </c>
       <c r="C159" t="n">
-        <v>3.316817045211792</v>
+        <v>23.87966346740723</v>
       </c>
       <c r="D159" t="n">
-        <v>16.17663955688477</v>
+        <v>51.39590835571289</v>
       </c>
       <c r="E159" t="n">
-        <v>-4.415014266967773</v>
+        <v>-16.09134101867676</v>
       </c>
       <c r="F159" t="n">
-        <v>-9.972195625305176</v>
+        <v>-16.30132484436035</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8.341249465942383</v>
+        <v>38.39425277709961</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.56546688079834</v>
+        <v>18.97428894042969</v>
       </c>
       <c r="C160" t="n">
-        <v>3.71411395072937</v>
+        <v>25.18732643127441</v>
       </c>
       <c r="D160" t="n">
-        <v>18.88076210021973</v>
+        <v>56.08793640136719</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.773068189620972</v>
+        <v>-11.49468326568604</v>
       </c>
       <c r="F160" t="n">
-        <v>-9.915566444396973</v>
+        <v>-17.93241691589355</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>6.929188251495361</v>
+        <v>36.29408645629883</v>
       </c>
       <c r="B161" t="n">
-        <v>-3.265549421310425</v>
+        <v>21.99848747253418</v>
       </c>
       <c r="C161" t="n">
-        <v>3.39945387840271</v>
+        <v>24.17786598205566</v>
       </c>
       <c r="D161" t="n">
-        <v>22.05464935302734</v>
+        <v>58.65721893310547</v>
       </c>
       <c r="E161" t="n">
-        <v>-0.7701762914657593</v>
+        <v>-7.700454711914062</v>
       </c>
       <c r="F161" t="n">
-        <v>-8.955158233642578</v>
+        <v>-15.87136840820312</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.709179878234863</v>
+        <v>33.70097732543945</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.07369077205658</v>
+        <v>25.1213436126709</v>
       </c>
       <c r="C162" t="n">
-        <v>2.351584196090698</v>
+        <v>23.15130233764648</v>
       </c>
       <c r="D162" t="n">
-        <v>22.06171226501465</v>
+        <v>59.18838882446289</v>
       </c>
       <c r="E162" t="n">
-        <v>0.6338720321655273</v>
+        <v>-3.41991400718689</v>
       </c>
       <c r="F162" t="n">
-        <v>-6.610366821289062</v>
+        <v>-12.2112979888916</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4.28510856628418</v>
+        <v>30.93205070495605</v>
       </c>
       <c r="B163" t="n">
-        <v>0.8720955848693848</v>
+        <v>28.44561576843262</v>
       </c>
       <c r="C163" t="n">
-        <v>0.8228616714477539</v>
+        <v>21.15155601501465</v>
       </c>
       <c r="D163" t="n">
-        <v>22.52130889892578</v>
+        <v>59.16293334960938</v>
       </c>
       <c r="E163" t="n">
-        <v>1.594184994697571</v>
+        <v>-0.7024631500244141</v>
       </c>
       <c r="F163" t="n">
-        <v>-3.633875131607056</v>
+        <v>-7.026545524597168</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.304437637329102</v>
+        <v>27.57730484008789</v>
       </c>
       <c r="B164" t="n">
-        <v>2.626510858535767</v>
+        <v>31.28804397583008</v>
       </c>
       <c r="C164" t="n">
-        <v>-1.271727204322815</v>
+        <v>18.70589637756348</v>
       </c>
       <c r="D164" t="n">
-        <v>20.71304893493652</v>
+        <v>55.65803909301758</v>
       </c>
       <c r="E164" t="n">
-        <v>2.34283185005188</v>
+        <v>1.530665397644043</v>
       </c>
       <c r="F164" t="n">
-        <v>-1.037729144096375</v>
+        <v>-0.8207622170448303</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.5666475892066956</v>
+        <v>24.90353775024414</v>
       </c>
       <c r="B165" t="n">
-        <v>4.465175628662109</v>
+        <v>33.83336639404297</v>
       </c>
       <c r="C165" t="n">
-        <v>-3.287514448165894</v>
+        <v>15.84336185455322</v>
       </c>
       <c r="D165" t="n">
-        <v>18.31781768798828</v>
+        <v>51.97489547729492</v>
       </c>
       <c r="E165" t="n">
-        <v>2.807630062103271</v>
+        <v>2.566665649414062</v>
       </c>
       <c r="F165" t="n">
-        <v>1.314373373985291</v>
+        <v>4.284358978271484</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-1.09533965587616</v>
+        <v>21.43289947509766</v>
       </c>
       <c r="B166" t="n">
-        <v>5.579977035522461</v>
+        <v>35.86150360107422</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.38831901550293</v>
+        <v>13.62669849395752</v>
       </c>
       <c r="D166" t="n">
-        <v>15.27616405487061</v>
+        <v>46.80946350097656</v>
       </c>
       <c r="E166" t="n">
-        <v>3.040350198745728</v>
+        <v>3.775107383728027</v>
       </c>
       <c r="F166" t="n">
-        <v>3.015560150146484</v>
+        <v>7.876477241516113</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-3.007199287414551</v>
+        <v>18.49140167236328</v>
       </c>
       <c r="B167" t="n">
-        <v>6.44681453704834</v>
+        <v>37.82110214233398</v>
       </c>
       <c r="C167" t="n">
-        <v>-7.341245651245117</v>
+        <v>10.39028453826904</v>
       </c>
       <c r="D167" t="n">
-        <v>11.39056968688965</v>
+        <v>39.65127182006836</v>
       </c>
       <c r="E167" t="n">
-        <v>3.342222929000854</v>
+        <v>4.180283546447754</v>
       </c>
       <c r="F167" t="n">
-        <v>3.437968492507935</v>
+        <v>9.882458686828613</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.855844497680664</v>
+        <v>15.2683687210083</v>
       </c>
       <c r="B168" t="n">
-        <v>7.367415428161621</v>
+        <v>38.87941360473633</v>
       </c>
       <c r="C168" t="n">
-        <v>-9.442099571228027</v>
+        <v>8.108841896057129</v>
       </c>
       <c r="D168" t="n">
-        <v>6.971269607543945</v>
+        <v>33.18632507324219</v>
       </c>
       <c r="E168" t="n">
-        <v>3.815628528594971</v>
+        <v>5.394723892211914</v>
       </c>
       <c r="F168" t="n">
-        <v>3.709323883056641</v>
+        <v>10.61699485778809</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-6.624046325683594</v>
+        <v>12.31029224395752</v>
       </c>
       <c r="B169" t="n">
-        <v>7.581095695495605</v>
+        <v>40.07499694824219</v>
       </c>
       <c r="C169" t="n">
-        <v>-11.1837911605835</v>
+        <v>5.674796104431152</v>
       </c>
       <c r="D169" t="n">
-        <v>2.175946950912476</v>
+        <v>25.28130340576172</v>
       </c>
       <c r="E169" t="n">
-        <v>4.30980110168457</v>
+        <v>6.975790023803711</v>
       </c>
       <c r="F169" t="n">
-        <v>3.675017356872559</v>
+        <v>10.51728248596191</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-8.129980087280273</v>
+        <v>9.386432647705078</v>
       </c>
       <c r="B170" t="n">
-        <v>7.830306053161621</v>
+        <v>40.72883605957031</v>
       </c>
       <c r="C170" t="n">
-        <v>-12.28090858459473</v>
+        <v>4.110617637634277</v>
       </c>
       <c r="D170" t="n">
-        <v>-2.23668098449707</v>
+        <v>18.30723571777344</v>
       </c>
       <c r="E170" t="n">
-        <v>5.155651092529297</v>
+        <v>8.275388717651367</v>
       </c>
       <c r="F170" t="n">
-        <v>3.186896562576294</v>
+        <v>9.31013298034668</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-9.67182731628418</v>
+        <v>6.820831775665283</v>
       </c>
       <c r="B171" t="n">
-        <v>7.735875129699707</v>
+        <v>40.83982086181641</v>
       </c>
       <c r="C171" t="n">
-        <v>-13.06369876861572</v>
+        <v>4.050171852111816</v>
       </c>
       <c r="D171" t="n">
-        <v>-6.712815284729004</v>
+        <v>12.56848430633545</v>
       </c>
       <c r="E171" t="n">
-        <v>6.413307666778564</v>
+        <v>11.13650226593018</v>
       </c>
       <c r="F171" t="n">
-        <v>2.84751033782959</v>
+        <v>7.716633796691895</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-11.08776473999023</v>
+        <v>3.704063892364502</v>
       </c>
       <c r="B172" t="n">
-        <v>7.777510643005371</v>
+        <v>40.84694290161133</v>
       </c>
       <c r="C172" t="n">
-        <v>-13.60635948181152</v>
+        <v>3.041393995285034</v>
       </c>
       <c r="D172" t="n">
-        <v>-10.25412082672119</v>
+        <v>7.725403785705566</v>
       </c>
       <c r="E172" t="n">
-        <v>7.762044906616211</v>
+        <v>13.50978946685791</v>
       </c>
       <c r="F172" t="n">
-        <v>2.456340312957764</v>
+        <v>6.079893112182617</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-12.42124557495117</v>
+        <v>1.850649356842041</v>
       </c>
       <c r="B173" t="n">
-        <v>7.303520202636719</v>
+        <v>41.06709671020508</v>
       </c>
       <c r="C173" t="n">
-        <v>-13.857741355896</v>
+        <v>3.67395281791687</v>
       </c>
       <c r="D173" t="n">
-        <v>-12.85774517059326</v>
+        <v>3.543147325515747</v>
       </c>
       <c r="E173" t="n">
-        <v>8.935398101806641</v>
+        <v>16.5328311920166</v>
       </c>
       <c r="F173" t="n">
-        <v>1.993067502975464</v>
+        <v>5.00825023651123</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-13.43333339691162</v>
+        <v>-0.3287519812583923</v>
       </c>
       <c r="B174" t="n">
-        <v>7.446982383728027</v>
+        <v>40.82780838012695</v>
       </c>
       <c r="C174" t="n">
-        <v>-13.13293552398682</v>
+        <v>4.119330406188965</v>
       </c>
       <c r="D174" t="n">
-        <v>-14.02951240539551</v>
+        <v>0.9968291521072388</v>
       </c>
       <c r="E174" t="n">
-        <v>10.38238143920898</v>
+        <v>18.80928230285645</v>
       </c>
       <c r="F174" t="n">
-        <v>2.027324199676514</v>
+        <v>3.604872703552246</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-14.49278831481934</v>
+        <v>-2.255509853363037</v>
       </c>
       <c r="B175" t="n">
-        <v>7.67083740234375</v>
+        <v>40.57116317749023</v>
       </c>
       <c r="C175" t="n">
-        <v>-12.67256164550781</v>
+        <v>5.885727882385254</v>
       </c>
       <c r="D175" t="n">
-        <v>-14.87409019470215</v>
+        <v>-0.8518894910812378</v>
       </c>
       <c r="E175" t="n">
-        <v>11.38988780975342</v>
+        <v>21.02102088928223</v>
       </c>
       <c r="F175" t="n">
-        <v>1.497489094734192</v>
+        <v>1.252638697624207</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-15.42318248748779</v>
+        <v>-3.595696926116943</v>
       </c>
       <c r="B176" t="n">
-        <v>7.02728271484375</v>
+        <v>40.19300079345703</v>
       </c>
       <c r="C176" t="n">
-        <v>-11.80561256408691</v>
+        <v>7.531098365783691</v>
       </c>
       <c r="D176" t="n">
-        <v>-14.18120193481445</v>
+        <v>-0.7315148115158081</v>
       </c>
       <c r="E176" t="n">
-        <v>12.23551464080811</v>
+        <v>21.40995597839355</v>
       </c>
       <c r="F176" t="n">
-        <v>0.6570599675178528</v>
+        <v>-1.224950432777405</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-15.99261283874512</v>
+        <v>-4.106032848358154</v>
       </c>
       <c r="B177" t="n">
-        <v>7.821074485778809</v>
+        <v>40.63897323608398</v>
       </c>
       <c r="C177" t="n">
-        <v>-10.07937622070312</v>
+        <v>10.71261596679688</v>
       </c>
       <c r="D177" t="n">
-        <v>-12.87716770172119</v>
+        <v>0.2551814317703247</v>
       </c>
       <c r="E177" t="n">
-        <v>12.13419532775879</v>
+        <v>22.01862335205078</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.4179143309593201</v>
+        <v>-5.245754241943359</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-16.16630554199219</v>
+        <v>-4.731114864349365</v>
       </c>
       <c r="B178" t="n">
-        <v>8.385858535766602</v>
+        <v>40.09157562255859</v>
       </c>
       <c r="C178" t="n">
-        <v>-8.220513343811035</v>
+        <v>14.15053749084473</v>
       </c>
       <c r="D178" t="n">
-        <v>-10.49730777740479</v>
+        <v>2.67815899848938</v>
       </c>
       <c r="E178" t="n">
-        <v>11.04475593566895</v>
+        <v>18.29946517944336</v>
       </c>
       <c r="F178" t="n">
-        <v>-2.176683187484741</v>
+        <v>-10.54792976379395</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-16.12350463867188</v>
+        <v>-4.712653636932373</v>
       </c>
       <c r="B179" t="n">
-        <v>8.757942199707031</v>
+        <v>40.55273056030273</v>
       </c>
       <c r="C179" t="n">
-        <v>-5.376252174377441</v>
+        <v>19.2377815246582</v>
       </c>
       <c r="D179" t="n">
-        <v>-7.772570133209229</v>
+        <v>6.025099754333496</v>
       </c>
       <c r="E179" t="n">
-        <v>8.269750595092773</v>
+        <v>10.26487064361572</v>
       </c>
       <c r="F179" t="n">
-        <v>-4.080482482910156</v>
+        <v>-15.31708908081055</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-15.44348812103271</v>
+        <v>-3.742434978485107</v>
       </c>
       <c r="B180" t="n">
-        <v>9.179085731506348</v>
+        <v>40.06218719482422</v>
       </c>
       <c r="C180" t="n">
-        <v>-2.545459747314453</v>
+        <v>24.81797027587891</v>
       </c>
       <c r="D180" t="n">
-        <v>-5.250385284423828</v>
+        <v>9.189997673034668</v>
       </c>
       <c r="E180" t="n">
-        <v>3.725077390670776</v>
+        <v>-0.9518542289733887</v>
       </c>
       <c r="F180" t="n">
-        <v>-5.591879844665527</v>
+        <v>-19.10830497741699</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-14.62206363677979</v>
+        <v>-3.301000118255615</v>
       </c>
       <c r="B181" t="n">
-        <v>10.16691303253174</v>
+        <v>39.49304580688477</v>
       </c>
       <c r="C181" t="n">
-        <v>1.034082889556885</v>
+        <v>30.72700119018555</v>
       </c>
       <c r="D181" t="n">
-        <v>-3.511250495910645</v>
+        <v>12.83250904083252</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.302070260047913</v>
+        <v>-13.76178169250488</v>
       </c>
       <c r="F181" t="n">
-        <v>-6.274107456207275</v>
+        <v>-22.03851318359375</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-13.51850032806396</v>
+        <v>0.005650102160871029</v>
       </c>
       <c r="B182" t="n">
-        <v>9.828372955322266</v>
+        <v>38.99541091918945</v>
       </c>
       <c r="C182" t="n">
-        <v>4.703855037689209</v>
+        <v>37.83883666992188</v>
       </c>
       <c r="D182" t="n">
-        <v>-0.6338567733764648</v>
+        <v>15.68010330200195</v>
       </c>
       <c r="E182" t="n">
-        <v>-6.47469425201416</v>
+        <v>-26.13651275634766</v>
       </c>
       <c r="F182" t="n">
-        <v>-7.029838562011719</v>
+        <v>-23.32936859130859</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-11.90826034545898</v>
+        <v>3.011719226837158</v>
       </c>
       <c r="B183" t="n">
-        <v>9.498044967651367</v>
+        <v>38.09222412109375</v>
       </c>
       <c r="C183" t="n">
-        <v>8.402314186096191</v>
+        <v>44.62267684936523</v>
       </c>
       <c r="D183" t="n">
-        <v>1.115018248558044</v>
+        <v>18.51251029968262</v>
       </c>
       <c r="E183" t="n">
-        <v>-11.26713466644287</v>
+        <v>-36.31563949584961</v>
       </c>
       <c r="F183" t="n">
-        <v>-7.190098285675049</v>
+        <v>-23.41367530822754</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-9.534289360046387</v>
+        <v>6.676905155181885</v>
       </c>
       <c r="B184" t="n">
-        <v>9.035281181335449</v>
+        <v>36.62013626098633</v>
       </c>
       <c r="C184" t="n">
-        <v>12.34160041809082</v>
+        <v>52.22166061401367</v>
       </c>
       <c r="D184" t="n">
-        <v>1.710769295692444</v>
+        <v>19.87086868286133</v>
       </c>
       <c r="E184" t="n">
-        <v>-14.06432723999023</v>
+        <v>-42.12723159790039</v>
       </c>
       <c r="F184" t="n">
-        <v>-5.808655261993408</v>
+        <v>-20.67469024658203</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-7.148505210876465</v>
+        <v>10.70793437957764</v>
       </c>
       <c r="B185" t="n">
-        <v>8.291110038757324</v>
+        <v>34.59432983398438</v>
       </c>
       <c r="C185" t="n">
-        <v>16.15838050842285</v>
+        <v>59.09783554077148</v>
       </c>
       <c r="D185" t="n">
-        <v>2.128029584884644</v>
+        <v>20.02955436706543</v>
       </c>
       <c r="E185" t="n">
-        <v>-15.26079082489014</v>
+        <v>-44.96033096313477</v>
       </c>
       <c r="F185" t="n">
-        <v>-4.191101551055908</v>
+        <v>-16.73624420166016</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.640713691711426</v>
+        <v>15.19106101989746</v>
       </c>
       <c r="B186" t="n">
-        <v>6.751205444335938</v>
+        <v>31.67518043518066</v>
       </c>
       <c r="C186" t="n">
-        <v>19.66373634338379</v>
+        <v>63.347900390625</v>
       </c>
       <c r="D186" t="n">
-        <v>1.685823559761047</v>
+        <v>19.36192512512207</v>
       </c>
       <c r="E186" t="n">
-        <v>-14.28444576263428</v>
+        <v>-42.55691909790039</v>
       </c>
       <c r="F186" t="n">
-        <v>-2.875828266143799</v>
+        <v>-13.61588382720947</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-2.319481134414673</v>
+        <v>19.54034614562988</v>
       </c>
       <c r="B187" t="n">
-        <v>5.633218288421631</v>
+        <v>29.0276050567627</v>
       </c>
       <c r="C187" t="n">
-        <v>22.82793807983398</v>
+        <v>68.42662048339844</v>
       </c>
       <c r="D187" t="n">
-        <v>0.6633678078651428</v>
+        <v>17.63282012939453</v>
       </c>
       <c r="E187" t="n">
-        <v>-11.58277416229248</v>
+        <v>-36.00059127807617</v>
       </c>
       <c r="F187" t="n">
-        <v>-1.536778450012207</v>
+        <v>-10.26323509216309</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.0996117889881134</v>
+        <v>23.47167205810547</v>
       </c>
       <c r="B188" t="n">
-        <v>3.486808300018311</v>
+        <v>25.62807655334473</v>
       </c>
       <c r="C188" t="n">
-        <v>23.84546852111816</v>
+        <v>70.59750366210938</v>
       </c>
       <c r="D188" t="n">
-        <v>-1.125403761863708</v>
+        <v>15.18983364105225</v>
       </c>
       <c r="E188" t="n">
-        <v>-7.975708484649658</v>
+        <v>-27.60493659973145</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.8392661809921265</v>
+        <v>-8.234648704528809</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.315170526504517</v>
+        <v>27.25859260559082</v>
       </c>
       <c r="B189" t="n">
-        <v>1.580396413803101</v>
+        <v>22.22990226745605</v>
       </c>
       <c r="C189" t="n">
-        <v>25.2017650604248</v>
+        <v>71.66979217529297</v>
       </c>
       <c r="D189" t="n">
-        <v>-2.997016191482544</v>
+        <v>12.93711566925049</v>
       </c>
       <c r="E189" t="n">
-        <v>-4.028329372406006</v>
+        <v>-17.91338348388672</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.512795090675354</v>
+        <v>-6.693449974060059</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>4.635288238525391</v>
+        <v>30.4946117401123</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.1074959486722946</v>
+        <v>19.04583549499512</v>
       </c>
       <c r="C190" t="n">
-        <v>24.44098281860352</v>
+        <v>69.16463470458984</v>
       </c>
       <c r="D190" t="n">
-        <v>-5.377133846282959</v>
+        <v>9.870657920837402</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.9173849821090698</v>
+        <v>-12.23607540130615</v>
       </c>
       <c r="F190" t="n">
-        <v>-0.008020641282200813</v>
+        <v>-5.338955879211426</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>5.883718013763428</v>
+        <v>33.08019638061523</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.802943348884583</v>
+        <v>15.91494941711426</v>
       </c>
       <c r="C191" t="n">
-        <v>22.31735801696777</v>
+        <v>64.65431213378906</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.801785945892334</v>
+        <v>8.01688289642334</v>
       </c>
       <c r="E191" t="n">
-        <v>1.581294894218445</v>
+        <v>-7.517508983612061</v>
       </c>
       <c r="F191" t="n">
-        <v>0.3125692307949066</v>
+        <v>-4.109099864959717</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>6.725626468658447</v>
+        <v>35.16214370727539</v>
       </c>
       <c r="B192" t="n">
-        <v>-3.448443651199341</v>
+        <v>12.72055721282959</v>
       </c>
       <c r="C192" t="n">
-        <v>18.36988639831543</v>
+        <v>58.67070770263672</v>
       </c>
       <c r="D192" t="n">
-        <v>-8.968349456787109</v>
+        <v>5.370970726013184</v>
       </c>
       <c r="E192" t="n">
-        <v>3.060739278793335</v>
+        <v>-5.888980388641357</v>
       </c>
       <c r="F192" t="n">
-        <v>0.7777256369590759</v>
+        <v>-2.137969493865967</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>7.186056137084961</v>
+        <v>36.81926345825195</v>
       </c>
       <c r="B193" t="n">
-        <v>-4.840048789978027</v>
+        <v>9.677515983581543</v>
       </c>
       <c r="C193" t="n">
-        <v>13.99108028411865</v>
+        <v>52.64795684814453</v>
       </c>
       <c r="D193" t="n">
-        <v>-9.933942794799805</v>
+        <v>4.264058113098145</v>
       </c>
       <c r="E193" t="n">
-        <v>3.764620065689087</v>
+        <v>-5.212349414825439</v>
       </c>
       <c r="F193" t="n">
-        <v>1.5069899559021</v>
+        <v>0.1811565756797791</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.397646903991699</v>
+        <v>37.7783203125</v>
       </c>
       <c r="B194" t="n">
-        <v>-6.447350978851318</v>
+        <v>7.072251319885254</v>
       </c>
       <c r="C194" t="n">
-        <v>8.985151290893555</v>
+        <v>43.5786018371582</v>
       </c>
       <c r="D194" t="n">
-        <v>-10.79402256011963</v>
+        <v>2.62501072883606</v>
       </c>
       <c r="E194" t="n">
-        <v>3.463826656341553</v>
+        <v>-5.924351215362549</v>
       </c>
       <c r="F194" t="n">
-        <v>2.58651065826416</v>
+        <v>2.641273498535156</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>6.782352447509766</v>
+        <v>38.3057975769043</v>
       </c>
       <c r="B195" t="n">
-        <v>-7.88240385055542</v>
+        <v>4.480227470397949</v>
       </c>
       <c r="C195" t="n">
-        <v>3.194153547286987</v>
+        <v>35.26203155517578</v>
       </c>
       <c r="D195" t="n">
-        <v>-11.51424694061279</v>
+        <v>1.812922596931458</v>
       </c>
       <c r="E195" t="n">
-        <v>2.68023943901062</v>
+        <v>-7.431887626647949</v>
       </c>
       <c r="F195" t="n">
-        <v>3.828614473342896</v>
+        <v>5.901125907897949</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>6.058180332183838</v>
+        <v>38.73485565185547</v>
       </c>
       <c r="B196" t="n">
-        <v>-9.397754669189453</v>
+        <v>1.600455045700073</v>
       </c>
       <c r="C196" t="n">
-        <v>-2.314125537872314</v>
+        <v>26.57797813415527</v>
       </c>
       <c r="D196" t="n">
-        <v>-12.33061981201172</v>
+        <v>1.650784611701965</v>
       </c>
       <c r="E196" t="n">
-        <v>1.909124851226807</v>
+        <v>-9.203679084777832</v>
       </c>
       <c r="F196" t="n">
-        <v>5.454243183135986</v>
+        <v>8.724188804626465</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>5.441681385040283</v>
+        <v>38.34539794921875</v>
       </c>
       <c r="B197" t="n">
-        <v>-10.66126728057861</v>
+        <v>-0.4729968905448914</v>
       </c>
       <c r="C197" t="n">
-        <v>-6.855564117431641</v>
+        <v>18.84798240661621</v>
       </c>
       <c r="D197" t="n">
-        <v>-12.11111068725586</v>
+        <v>2.325278520584106</v>
       </c>
       <c r="E197" t="n">
-        <v>0.6243622303009033</v>
+        <v>-10.63084697723389</v>
       </c>
       <c r="F197" t="n">
-        <v>6.709354877471924</v>
+        <v>12.34255790710449</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>5.630490303039551</v>
+        <v>38.35833740234375</v>
       </c>
       <c r="B198" t="n">
-        <v>-12.08598899841309</v>
+        <v>-3.786750078201294</v>
       </c>
       <c r="C198" t="n">
-        <v>-10.62144565582275</v>
+        <v>12.6771936416626</v>
       </c>
       <c r="D198" t="n">
-        <v>-11.95762729644775</v>
+        <v>2.273066759109497</v>
       </c>
       <c r="E198" t="n">
-        <v>-0.1075990945100784</v>
+        <v>-10.98999977111816</v>
       </c>
       <c r="F198" t="n">
-        <v>8.496224403381348</v>
+        <v>14.69823265075684</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5.190283298492432</v>
+        <v>38.24323272705078</v>
       </c>
       <c r="B199" t="n">
-        <v>-13.62066173553467</v>
+        <v>-5.947161674499512</v>
       </c>
       <c r="C199" t="n">
-        <v>-13.73695468902588</v>
+        <v>7.888491630554199</v>
       </c>
       <c r="D199" t="n">
-        <v>-11.86158657073975</v>
+        <v>3.007954835891724</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.6979670524597168</v>
+        <v>-11.44655132293701</v>
       </c>
       <c r="F199" t="n">
-        <v>9.685468673706055</v>
+        <v>17.44261741638184</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>4.949121475219727</v>
+        <v>39.10461044311523</v>
       </c>
       <c r="B200" t="n">
-        <v>-14.79194736480713</v>
+        <v>-8.085001945495605</v>
       </c>
       <c r="C200" t="n">
-        <v>-14.63380146026611</v>
+        <v>5.094521522521973</v>
       </c>
       <c r="D200" t="n">
-        <v>-11.73287963867188</v>
+        <v>4.498377799987793</v>
       </c>
       <c r="E200" t="n">
-        <v>-1.122479200363159</v>
+        <v>-10.96092510223389</v>
       </c>
       <c r="F200" t="n">
-        <v>10.59784889221191</v>
+        <v>19.33631324768066</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>4.976792812347412</v>
+        <v>39.46361541748047</v>
       </c>
       <c r="B201" t="n">
-        <v>-15.70535945892334</v>
+        <v>-10.27416896820068</v>
       </c>
       <c r="C201" t="n">
-        <v>-14.59974670410156</v>
+        <v>4.606917381286621</v>
       </c>
       <c r="D201" t="n">
-        <v>-10.68213939666748</v>
+        <v>4.856303215026855</v>
       </c>
       <c r="E201" t="n">
-        <v>-1.482169985771179</v>
+        <v>-10.83402061462402</v>
       </c>
       <c r="F201" t="n">
-        <v>11.40377616882324</v>
+        <v>20.01386070251465</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>5.972300052642822</v>
+        <v>39.496826171875</v>
       </c>
       <c r="B202" t="n">
-        <v>-16.54427719116211</v>
+        <v>-11.51547527313232</v>
       </c>
       <c r="C202" t="n">
-        <v>-12.95590686798096</v>
+        <v>5.529046058654785</v>
       </c>
       <c r="D202" t="n">
-        <v>-9.67430305480957</v>
+        <v>7.260724067687988</v>
       </c>
       <c r="E202" t="n">
-        <v>-2.023329019546509</v>
+        <v>-11.61013126373291</v>
       </c>
       <c r="F202" t="n">
-        <v>11.63269519805908</v>
+        <v>19.38010787963867</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>7.051022529602051</v>
+        <v>40.96190643310547</v>
       </c>
       <c r="B203" t="n">
-        <v>-17.10613632202148</v>
+        <v>-13.02041149139404</v>
       </c>
       <c r="C203" t="n">
-        <v>-11.21964836120605</v>
+        <v>6.794451713562012</v>
       </c>
       <c r="D203" t="n">
-        <v>-8.386690139770508</v>
+        <v>10.18901252746582</v>
       </c>
       <c r="E203" t="n">
-        <v>-2.075724840164185</v>
+        <v>-12.46265506744385</v>
       </c>
       <c r="F203" t="n">
-        <v>10.23638153076172</v>
+        <v>16.24197578430176</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>8.365024566650391</v>
+        <v>41.90540313720703</v>
       </c>
       <c r="B204" t="n">
-        <v>-17.30762672424316</v>
+        <v>-13.7021017074585</v>
       </c>
       <c r="C204" t="n">
-        <v>-9.701204299926758</v>
+        <v>8.562470436096191</v>
       </c>
       <c r="D204" t="n">
-        <v>-6.086506843566895</v>
+        <v>14.08428001403809</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.757032155990601</v>
+        <v>-14.18386268615723</v>
       </c>
       <c r="F204" t="n">
-        <v>7.526112079620361</v>
+        <v>10.63687133789062</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>8.924036026000977</v>
+        <v>42.24211883544922</v>
       </c>
       <c r="B205" t="n">
-        <v>-17.61832427978516</v>
+        <v>-12.23397731781006</v>
       </c>
       <c r="C205" t="n">
-        <v>-8.025283813476562</v>
+        <v>10.13082122802734</v>
       </c>
       <c r="D205" t="n">
-        <v>-3.159540176391602</v>
+        <v>18.65267562866211</v>
       </c>
       <c r="E205" t="n">
-        <v>-4.017159938812256</v>
+        <v>-17.27459907531738</v>
       </c>
       <c r="F205" t="n">
-        <v>3.379950761795044</v>
+        <v>0.9537586569786072</v>
       </c>
     </row>
   </sheetData>
